--- a/data/bodem_template_full.xlsx
+++ b/data/bodem_template_full.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11939" uniqueCount="2271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11971" uniqueCount="2275">
   <si>
     <t>naam</t>
   </si>
@@ -4007,6 +4007,15 @@
     <t>PFHxSbranched</t>
   </si>
   <si>
+    <t>Bepaling kleihoudendheid in fractie 0-0.125 mm</t>
+  </si>
+  <si>
+    <t>Bepaling kleihoudendheid in fractie 0-2 mm</t>
+  </si>
+  <si>
+    <t>Grondsoort RIG</t>
+  </si>
+  <si>
     <t>resultaattijd</t>
   </si>
   <si>
@@ -4068,6 +4077,9 @@
   </si>
   <si>
     <t>g MB/100g droog monster</t>
+  </si>
+  <si>
+    <t>g MB/1000g droog monster</t>
   </si>
   <si>
     <t>°C</t>
@@ -7097,7 +7109,7 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Table23" displayName="Table23" ref="AS3:AT918" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Table23" displayName="Table23" ref="AS3:AT921" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" name="Code"/>
     <tableColumn id="2" name="Beschrijving"/>
@@ -7107,7 +7119,7 @@
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Table24" displayName="Table24" ref="AU3:AV66" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Table24" displayName="Table24" ref="AU3:AV67" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" name="Code"/>
     <tableColumn id="2" name="Beschrijving"/>
@@ -7177,7 +7189,7 @@
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Table30" displayName="Table30" ref="BG3:BH918" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Table30" displayName="Table30" ref="BG3:BH921" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" name="Code"/>
     <tableColumn id="2" name="Beschrijving"/>
@@ -7187,7 +7199,7 @@
 </file>
 
 <file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Table31" displayName="Table31" ref="BI3:BJ66" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Table31" displayName="Table31" ref="BI3:BJ67" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" name="Code"/>
     <tableColumn id="2" name="Beschrijving"/>
@@ -7207,7 +7219,7 @@
 </file>
 
 <file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="Table33" displayName="Table33" ref="BM3:BN918" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="Table33" displayName="Table33" ref="BM3:BN921" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" name="Code"/>
     <tableColumn id="2" name="Beschrijving"/>
@@ -7217,7 +7229,7 @@
 </file>
 
 <file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="34" name="Table34" displayName="Table34" ref="BO3:BP918" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="34" name="Table34" displayName="Table34" ref="BO3:BP921" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" name="Code"/>
     <tableColumn id="2" name="Beschrijving"/>
@@ -7227,7 +7239,7 @@
 </file>
 
 <file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="35" name="Table35" displayName="Table35" ref="BQ3:BR66" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="35" name="Table35" displayName="Table35" ref="BQ3:BR67" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" name="Code"/>
     <tableColumn id="2" name="Beschrijving"/>
@@ -7237,7 +7249,7 @@
 </file>
 
 <file path=xl/tables/table36.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="36" name="Table36" displayName="Table36" ref="BS3:BT66" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="36" name="Table36" displayName="Table36" ref="BS3:BT67" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" name="Code"/>
     <tableColumn id="2" name="Beschrijving"/>
@@ -7831,7 +7843,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DP918"/>
+  <dimension ref="A1:DP921"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7892,7 +7904,7 @@
       <c r="AQ1" s="1"/>
       <c r="AR1" s="1"/>
       <c r="AS1" s="1" t="s">
-        <v>1542</v>
+        <v>1546</v>
       </c>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
@@ -7922,7 +7934,7 @@
       <c r="BS1" s="1"/>
       <c r="BT1" s="1"/>
       <c r="BU1" s="1" t="s">
-        <v>2123</v>
+        <v>2127</v>
       </c>
       <c r="BV1" s="1"/>
       <c r="BW1" s="1"/>
@@ -7952,7 +7964,7 @@
       <c r="CU1" s="1"/>
       <c r="CV1" s="1"/>
       <c r="CW1" s="1" t="s">
-        <v>2191</v>
+        <v>2195</v>
       </c>
       <c r="CX1" s="1"/>
       <c r="CY1" s="1"/>
@@ -8122,83 +8134,83 @@
       </c>
       <c r="BT2" s="1"/>
       <c r="BU2" s="1" t="s">
-        <v>1544</v>
+        <v>1548</v>
       </c>
       <c r="BV2" s="1"/>
       <c r="BW2" s="1" t="s">
-        <v>1548</v>
+        <v>1552</v>
       </c>
       <c r="BX2" s="1"/>
       <c r="BY2" s="1" t="s">
-        <v>1550</v>
+        <v>1554</v>
       </c>
       <c r="BZ2" s="1"/>
       <c r="CA2" s="1" t="s">
-        <v>1552</v>
+        <v>1556</v>
       </c>
       <c r="CB2" s="1"/>
       <c r="CC2" s="1" t="s">
-        <v>1554</v>
+        <v>1558</v>
       </c>
       <c r="CD2" s="1"/>
       <c r="CE2" s="1" t="s">
-        <v>1556</v>
+        <v>1560</v>
       </c>
       <c r="CF2" s="1"/>
       <c r="CG2" s="1" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
       <c r="CH2" s="1"/>
       <c r="CI2" s="1" t="s">
-        <v>1563</v>
+        <v>1567</v>
       </c>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1" t="s">
-        <v>1589</v>
+        <v>1593</v>
       </c>
       <c r="CL2" s="1"/>
       <c r="CM2" s="1" t="s">
-        <v>1591</v>
+        <v>1595</v>
       </c>
       <c r="CN2" s="1"/>
       <c r="CO2" s="1" t="s">
-        <v>1600</v>
+        <v>1604</v>
       </c>
       <c r="CP2" s="1"/>
       <c r="CQ2" s="1" t="s">
-        <v>1606</v>
+        <v>1610</v>
       </c>
       <c r="CR2" s="1"/>
       <c r="CS2" s="1" t="s">
-        <v>1633</v>
+        <v>1637</v>
       </c>
       <c r="CT2" s="1"/>
       <c r="CU2" s="1" t="s">
-        <v>1636</v>
+        <v>1640</v>
       </c>
       <c r="CV2" s="1"/>
       <c r="CW2" s="1" t="s">
-        <v>2124</v>
+        <v>2128</v>
       </c>
       <c r="CX2" s="1"/>
       <c r="CY2" s="1" t="s">
-        <v>2125</v>
+        <v>2129</v>
       </c>
       <c r="CZ2" s="1"/>
       <c r="DA2" s="1" t="s">
-        <v>2150</v>
+        <v>2154</v>
       </c>
       <c r="DB2" s="1"/>
       <c r="DC2" s="1" t="s">
-        <v>2152</v>
+        <v>2156</v>
       </c>
       <c r="DD2" s="1"/>
       <c r="DE2" s="1" t="s">
-        <v>2167</v>
+        <v>2171</v>
       </c>
       <c r="DF2" s="1"/>
       <c r="DG2" s="1" t="s">
-        <v>2169</v>
+        <v>2173</v>
       </c>
       <c r="DH2" s="1"/>
       <c r="DI2" s="1" t="s">
@@ -8206,11 +8218,11 @@
       </c>
       <c r="DJ2" s="1"/>
       <c r="DK2" s="1" t="s">
-        <v>2229</v>
+        <v>2233</v>
       </c>
       <c r="DL2" s="1"/>
       <c r="DM2" s="1" t="s">
-        <v>2231</v>
+        <v>2235</v>
       </c>
       <c r="DN2" s="1"/>
       <c r="DO2" s="1" t="s">
@@ -8720,7 +8732,7 @@
         <v>166</v>
       </c>
       <c r="AU4" t="s">
-        <v>1334</v>
+        <v>1337</v>
       </c>
       <c r="AV4" t="s">
         <v>166</v>
@@ -8738,7 +8750,7 @@
         <v>166</v>
       </c>
       <c r="BA4" t="s">
-        <v>1395</v>
+        <v>1399</v>
       </c>
       <c r="BB4" t="s">
         <v>166</v>
@@ -8750,7 +8762,7 @@
         <v>166</v>
       </c>
       <c r="BE4" t="s">
-        <v>1540</v>
+        <v>1544</v>
       </c>
       <c r="BF4" t="s">
         <v>166</v>
@@ -8762,7 +8774,7 @@
         <v>166</v>
       </c>
       <c r="BI4" t="s">
-        <v>1334</v>
+        <v>1337</v>
       </c>
       <c r="BJ4" t="s">
         <v>166</v>
@@ -8786,97 +8798,97 @@
         <v>166</v>
       </c>
       <c r="BQ4" t="s">
-        <v>1334</v>
+        <v>1337</v>
       </c>
       <c r="BR4" t="s">
         <v>166</v>
       </c>
       <c r="BS4" t="s">
-        <v>1334</v>
+        <v>1337</v>
       </c>
       <c r="BT4" t="s">
         <v>166</v>
       </c>
       <c r="BU4" t="s">
-        <v>1662</v>
+        <v>1666</v>
       </c>
       <c r="BV4" t="s">
         <v>166</v>
       </c>
       <c r="BW4" t="s">
-        <v>1696</v>
+        <v>1700</v>
       </c>
       <c r="BX4" t="s">
         <v>166</v>
       </c>
       <c r="BY4" t="s">
-        <v>1736</v>
+        <v>1740</v>
       </c>
       <c r="BZ4" t="s">
         <v>166</v>
       </c>
       <c r="CA4" t="s">
-        <v>1736</v>
+        <v>1740</v>
       </c>
       <c r="CB4" t="s">
         <v>166</v>
       </c>
       <c r="CC4" t="s">
-        <v>1754</v>
+        <v>1758</v>
       </c>
       <c r="CD4" t="s">
         <v>166</v>
       </c>
       <c r="CE4" t="s">
-        <v>1739</v>
+        <v>1743</v>
       </c>
       <c r="CF4" t="s">
         <v>166</v>
       </c>
       <c r="CG4" t="s">
-        <v>1784</v>
+        <v>1788</v>
       </c>
       <c r="CH4" t="s">
         <v>166</v>
       </c>
       <c r="CI4" t="s">
-        <v>1800</v>
+        <v>1804</v>
       </c>
       <c r="CJ4" t="s">
         <v>166</v>
       </c>
       <c r="CK4" t="s">
-        <v>1820</v>
+        <v>1824</v>
       </c>
       <c r="CL4" t="s">
         <v>166</v>
       </c>
       <c r="CM4" t="s">
-        <v>1822</v>
+        <v>1826</v>
       </c>
       <c r="CN4" t="s">
         <v>166</v>
       </c>
       <c r="CO4" t="s">
-        <v>1855</v>
+        <v>1859</v>
       </c>
       <c r="CP4" t="s">
         <v>166</v>
       </c>
       <c r="CQ4" t="s">
-        <v>2103</v>
+        <v>2107</v>
       </c>
       <c r="CR4" t="s">
         <v>166</v>
       </c>
       <c r="CS4" t="s">
-        <v>2108</v>
+        <v>2112</v>
       </c>
       <c r="CT4" t="s">
         <v>166</v>
       </c>
       <c r="CU4" t="s">
-        <v>2119</v>
+        <v>2123</v>
       </c>
       <c r="CV4" t="s">
         <v>166</v>
@@ -8894,7 +8906,7 @@
         <v>166</v>
       </c>
       <c r="DA4" t="s">
-        <v>2179</v>
+        <v>2183</v>
       </c>
       <c r="DB4" t="s">
         <v>166</v>
@@ -8906,13 +8918,13 @@
         <v>166</v>
       </c>
       <c r="DE4" t="s">
-        <v>2181</v>
+        <v>2185</v>
       </c>
       <c r="DF4" t="s">
         <v>166</v>
       </c>
       <c r="DG4" t="s">
-        <v>2185</v>
+        <v>2189</v>
       </c>
       <c r="DH4" t="s">
         <v>166</v>
@@ -8924,13 +8936,13 @@
         <v>166</v>
       </c>
       <c r="DK4" t="s">
-        <v>2234</v>
+        <v>2238</v>
       </c>
       <c r="DL4" t="s">
         <v>166</v>
       </c>
       <c r="DM4" t="s">
-        <v>2247</v>
+        <v>2251</v>
       </c>
       <c r="DN4" t="s">
         <v>166</v>
@@ -9082,7 +9094,7 @@
         <v>166</v>
       </c>
       <c r="AU5" t="s">
-        <v>1335</v>
+        <v>1338</v>
       </c>
       <c r="AV5" t="s">
         <v>166</v>
@@ -9100,7 +9112,7 @@
         <v>166</v>
       </c>
       <c r="BA5" t="s">
-        <v>1396</v>
+        <v>1400</v>
       </c>
       <c r="BB5" t="s">
         <v>166</v>
@@ -9112,7 +9124,7 @@
         <v>166</v>
       </c>
       <c r="BE5" t="s">
-        <v>1541</v>
+        <v>1545</v>
       </c>
       <c r="BF5" t="s">
         <v>166</v>
@@ -9124,7 +9136,7 @@
         <v>166</v>
       </c>
       <c r="BI5" t="s">
-        <v>1335</v>
+        <v>1338</v>
       </c>
       <c r="BJ5" t="s">
         <v>166</v>
@@ -9148,97 +9160,97 @@
         <v>166</v>
       </c>
       <c r="BQ5" t="s">
-        <v>1335</v>
+        <v>1338</v>
       </c>
       <c r="BR5" t="s">
         <v>166</v>
       </c>
       <c r="BS5" t="s">
-        <v>1335</v>
+        <v>1338</v>
       </c>
       <c r="BT5" t="s">
         <v>166</v>
       </c>
       <c r="BU5" t="s">
-        <v>1663</v>
+        <v>1667</v>
       </c>
       <c r="BV5" t="s">
         <v>166</v>
       </c>
       <c r="BW5" t="s">
-        <v>1697</v>
+        <v>1701</v>
       </c>
       <c r="BX5" t="s">
         <v>166</v>
       </c>
       <c r="BY5" t="s">
-        <v>1737</v>
+        <v>1741</v>
       </c>
       <c r="BZ5" t="s">
         <v>166</v>
       </c>
       <c r="CA5" t="s">
-        <v>1739</v>
+        <v>1743</v>
       </c>
       <c r="CB5" t="s">
         <v>166</v>
       </c>
       <c r="CC5" t="s">
-        <v>1755</v>
+        <v>1759</v>
       </c>
       <c r="CD5" t="s">
         <v>166</v>
       </c>
       <c r="CE5" t="s">
-        <v>1764</v>
+        <v>1768</v>
       </c>
       <c r="CF5" t="s">
         <v>166</v>
       </c>
       <c r="CG5" t="s">
-        <v>1785</v>
+        <v>1789</v>
       </c>
       <c r="CH5" t="s">
         <v>166</v>
       </c>
       <c r="CI5" t="s">
-        <v>1801</v>
+        <v>1805</v>
       </c>
       <c r="CJ5" t="s">
         <v>166</v>
       </c>
       <c r="CK5" t="s">
-        <v>1821</v>
+        <v>1825</v>
       </c>
       <c r="CL5" t="s">
         <v>166</v>
       </c>
       <c r="CM5" t="s">
-        <v>1823</v>
+        <v>1827</v>
       </c>
       <c r="CN5" t="s">
         <v>166</v>
       </c>
       <c r="CO5" t="s">
-        <v>1856</v>
+        <v>1860</v>
       </c>
       <c r="CP5" t="s">
         <v>166</v>
       </c>
       <c r="CQ5" t="s">
-        <v>2104</v>
+        <v>2108</v>
       </c>
       <c r="CR5" t="s">
         <v>166</v>
       </c>
       <c r="CS5" t="s">
-        <v>2109</v>
+        <v>2113</v>
       </c>
       <c r="CT5" t="s">
         <v>166</v>
       </c>
       <c r="CU5" t="s">
-        <v>2120</v>
+        <v>2124</v>
       </c>
       <c r="CV5" t="s">
         <v>166</v>
@@ -9256,7 +9268,7 @@
         <v>166</v>
       </c>
       <c r="DA5" t="s">
-        <v>2180</v>
+        <v>2184</v>
       </c>
       <c r="DB5" t="s">
         <v>166</v>
@@ -9268,13 +9280,13 @@
         <v>166</v>
       </c>
       <c r="DE5" t="s">
-        <v>2182</v>
+        <v>2186</v>
       </c>
       <c r="DF5" t="s">
         <v>166</v>
       </c>
       <c r="DG5" t="s">
-        <v>2186</v>
+        <v>2190</v>
       </c>
       <c r="DH5" t="s">
         <v>166</v>
@@ -9286,13 +9298,13 @@
         <v>166</v>
       </c>
       <c r="DK5" t="s">
-        <v>2235</v>
+        <v>2239</v>
       </c>
       <c r="DL5" t="s">
         <v>166</v>
       </c>
       <c r="DM5" t="s">
-        <v>2248</v>
+        <v>2252</v>
       </c>
       <c r="DN5" t="s">
         <v>166</v>
@@ -9432,7 +9444,7 @@
         <v>166</v>
       </c>
       <c r="AU6" t="s">
-        <v>1336</v>
+        <v>1339</v>
       </c>
       <c r="AV6" t="s">
         <v>166</v>
@@ -9450,7 +9462,7 @@
         <v>166</v>
       </c>
       <c r="BA6" t="s">
-        <v>1397</v>
+        <v>1401</v>
       </c>
       <c r="BB6" t="s">
         <v>166</v>
@@ -9468,7 +9480,7 @@
         <v>166</v>
       </c>
       <c r="BI6" t="s">
-        <v>1336</v>
+        <v>1339</v>
       </c>
       <c r="BJ6" t="s">
         <v>166</v>
@@ -9492,91 +9504,91 @@
         <v>166</v>
       </c>
       <c r="BQ6" t="s">
-        <v>1336</v>
+        <v>1339</v>
       </c>
       <c r="BR6" t="s">
         <v>166</v>
       </c>
       <c r="BS6" t="s">
-        <v>1336</v>
+        <v>1339</v>
       </c>
       <c r="BT6" t="s">
         <v>166</v>
       </c>
       <c r="BU6" t="s">
-        <v>1664</v>
+        <v>1668</v>
       </c>
       <c r="BV6" t="s">
         <v>166</v>
       </c>
       <c r="BW6" t="s">
-        <v>1698</v>
+        <v>1702</v>
       </c>
       <c r="BX6" t="s">
         <v>166</v>
       </c>
       <c r="BY6" t="s">
-        <v>1738</v>
+        <v>1742</v>
       </c>
       <c r="BZ6" t="s">
         <v>166</v>
       </c>
       <c r="CA6" t="s">
-        <v>1740</v>
+        <v>1744</v>
       </c>
       <c r="CB6" t="s">
         <v>166</v>
       </c>
       <c r="CC6" t="s">
-        <v>1756</v>
+        <v>1760</v>
       </c>
       <c r="CD6" t="s">
         <v>166</v>
       </c>
       <c r="CE6" t="s">
-        <v>1765</v>
+        <v>1769</v>
       </c>
       <c r="CF6" t="s">
         <v>166</v>
       </c>
       <c r="CG6" t="s">
-        <v>1786</v>
+        <v>1790</v>
       </c>
       <c r="CH6" t="s">
         <v>166</v>
       </c>
       <c r="CI6" t="s">
-        <v>1802</v>
+        <v>1806</v>
       </c>
       <c r="CJ6" t="s">
         <v>166</v>
       </c>
       <c r="CM6" t="s">
-        <v>1824</v>
+        <v>1828</v>
       </c>
       <c r="CN6" t="s">
         <v>166</v>
       </c>
       <c r="CO6" t="s">
-        <v>1857</v>
+        <v>1861</v>
       </c>
       <c r="CP6" t="s">
         <v>166</v>
       </c>
       <c r="CQ6" t="s">
-        <v>2105</v>
+        <v>2109</v>
       </c>
       <c r="CR6" t="s">
         <v>166</v>
       </c>
       <c r="CS6" t="s">
-        <v>2110</v>
+        <v>2114</v>
       </c>
       <c r="CT6" t="s">
         <v>166</v>
       </c>
       <c r="CU6" t="s">
-        <v>2121</v>
+        <v>2125</v>
       </c>
       <c r="CV6" t="s">
         <v>166</v>
@@ -9600,13 +9612,13 @@
         <v>166</v>
       </c>
       <c r="DE6" t="s">
-        <v>2183</v>
+        <v>2187</v>
       </c>
       <c r="DF6" t="s">
         <v>166</v>
       </c>
       <c r="DG6" t="s">
-        <v>2187</v>
+        <v>2191</v>
       </c>
       <c r="DH6" t="s">
         <v>166</v>
@@ -9618,13 +9630,13 @@
         <v>166</v>
       </c>
       <c r="DK6" t="s">
-        <v>2236</v>
+        <v>2240</v>
       </c>
       <c r="DL6" t="s">
         <v>166</v>
       </c>
       <c r="DM6" t="s">
-        <v>2249</v>
+        <v>2253</v>
       </c>
       <c r="DN6" t="s">
         <v>166</v>
@@ -9728,13 +9740,13 @@
         <v>166</v>
       </c>
       <c r="AU7" t="s">
-        <v>1337</v>
+        <v>1340</v>
       </c>
       <c r="AV7" t="s">
         <v>166</v>
       </c>
       <c r="BA7" t="s">
-        <v>1398</v>
+        <v>1402</v>
       </c>
       <c r="BB7" t="s">
         <v>166</v>
@@ -9746,7 +9758,7 @@
         <v>166</v>
       </c>
       <c r="BI7" t="s">
-        <v>1337</v>
+        <v>1340</v>
       </c>
       <c r="BJ7" t="s">
         <v>166</v>
@@ -9770,103 +9782,103 @@
         <v>166</v>
       </c>
       <c r="BQ7" t="s">
-        <v>1337</v>
+        <v>1340</v>
       </c>
       <c r="BR7" t="s">
         <v>166</v>
       </c>
       <c r="BS7" t="s">
-        <v>1337</v>
+        <v>1340</v>
       </c>
       <c r="BT7" t="s">
         <v>166</v>
       </c>
       <c r="BU7" t="s">
-        <v>1665</v>
+        <v>1669</v>
       </c>
       <c r="BV7" t="s">
         <v>166</v>
       </c>
       <c r="BW7" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="BX7" t="s">
         <v>166</v>
       </c>
       <c r="BY7" t="s">
-        <v>1739</v>
+        <v>1743</v>
       </c>
       <c r="BZ7" t="s">
         <v>166</v>
       </c>
       <c r="CA7" t="s">
-        <v>1742</v>
+        <v>1746</v>
       </c>
       <c r="CB7" t="s">
         <v>166</v>
       </c>
       <c r="CC7" t="s">
-        <v>1757</v>
+        <v>1761</v>
       </c>
       <c r="CD7" t="s">
         <v>166</v>
       </c>
       <c r="CE7" t="s">
-        <v>1766</v>
+        <v>1770</v>
       </c>
       <c r="CF7" t="s">
         <v>166</v>
       </c>
       <c r="CG7" t="s">
-        <v>1696</v>
+        <v>1700</v>
       </c>
       <c r="CH7" t="s">
         <v>166</v>
       </c>
       <c r="CI7" t="s">
-        <v>1803</v>
+        <v>1807</v>
       </c>
       <c r="CJ7" t="s">
         <v>166</v>
       </c>
       <c r="CM7" t="s">
-        <v>1825</v>
+        <v>1829</v>
       </c>
       <c r="CN7" t="s">
         <v>166</v>
       </c>
       <c r="CO7" t="s">
-        <v>1858</v>
+        <v>1862</v>
       </c>
       <c r="CP7" t="s">
         <v>166</v>
       </c>
       <c r="CQ7" t="s">
-        <v>2106</v>
+        <v>2110</v>
       </c>
       <c r="CR7" t="s">
         <v>166</v>
       </c>
       <c r="CS7" t="s">
-        <v>2111</v>
+        <v>2115</v>
       </c>
       <c r="CT7" t="s">
         <v>166</v>
       </c>
       <c r="CU7" t="s">
-        <v>2122</v>
+        <v>2126</v>
       </c>
       <c r="CV7" t="s">
         <v>166</v>
       </c>
       <c r="DE7" t="s">
-        <v>2184</v>
+        <v>2188</v>
       </c>
       <c r="DF7" t="s">
         <v>166</v>
       </c>
       <c r="DG7" t="s">
-        <v>2188</v>
+        <v>2192</v>
       </c>
       <c r="DH7" t="s">
         <v>166</v>
@@ -9878,13 +9890,13 @@
         <v>166</v>
       </c>
       <c r="DK7" t="s">
-        <v>2237</v>
+        <v>2241</v>
       </c>
       <c r="DL7" t="s">
         <v>166</v>
       </c>
       <c r="DM7" t="s">
-        <v>2250</v>
+        <v>2254</v>
       </c>
       <c r="DN7" t="s">
         <v>166</v>
@@ -9982,13 +9994,13 @@
         <v>166</v>
       </c>
       <c r="AU8" t="s">
-        <v>1338</v>
+        <v>1341</v>
       </c>
       <c r="AV8" t="s">
         <v>166</v>
       </c>
       <c r="BA8" t="s">
-        <v>1399</v>
+        <v>1403</v>
       </c>
       <c r="BB8" t="s">
         <v>166</v>
@@ -10000,7 +10012,7 @@
         <v>166</v>
       </c>
       <c r="BI8" t="s">
-        <v>1338</v>
+        <v>1341</v>
       </c>
       <c r="BJ8" t="s">
         <v>166</v>
@@ -10024,91 +10036,91 @@
         <v>166</v>
       </c>
       <c r="BQ8" t="s">
-        <v>1338</v>
+        <v>1341</v>
       </c>
       <c r="BR8" t="s">
         <v>166</v>
       </c>
       <c r="BS8" t="s">
-        <v>1338</v>
+        <v>1341</v>
       </c>
       <c r="BT8" t="s">
         <v>166</v>
       </c>
       <c r="BU8" t="s">
-        <v>1666</v>
+        <v>1670</v>
       </c>
       <c r="BV8" t="s">
         <v>166</v>
       </c>
       <c r="BW8" t="s">
-        <v>1700</v>
+        <v>1704</v>
       </c>
       <c r="BX8" t="s">
         <v>166</v>
       </c>
       <c r="BY8" t="s">
-        <v>1740</v>
+        <v>1744</v>
       </c>
       <c r="BZ8" t="s">
         <v>166</v>
       </c>
       <c r="CA8" t="s">
-        <v>1743</v>
+        <v>1747</v>
       </c>
       <c r="CB8" t="s">
         <v>166</v>
       </c>
       <c r="CC8" t="s">
-        <v>1758</v>
+        <v>1762</v>
       </c>
       <c r="CD8" t="s">
         <v>166</v>
       </c>
       <c r="CE8" t="s">
-        <v>1740</v>
+        <v>1744</v>
       </c>
       <c r="CF8" t="s">
         <v>166</v>
       </c>
       <c r="CG8" t="s">
-        <v>1787</v>
+        <v>1791</v>
       </c>
       <c r="CH8" t="s">
         <v>166</v>
       </c>
       <c r="CI8" t="s">
-        <v>1804</v>
+        <v>1808</v>
       </c>
       <c r="CJ8" t="s">
         <v>166</v>
       </c>
       <c r="CM8" t="s">
-        <v>1826</v>
+        <v>1830</v>
       </c>
       <c r="CN8" t="s">
         <v>166</v>
       </c>
       <c r="CO8" t="s">
-        <v>1859</v>
+        <v>1863</v>
       </c>
       <c r="CP8" t="s">
         <v>166</v>
       </c>
       <c r="CQ8" t="s">
-        <v>2107</v>
+        <v>2111</v>
       </c>
       <c r="CR8" t="s">
         <v>166</v>
       </c>
       <c r="CS8" t="s">
-        <v>2112</v>
+        <v>2116</v>
       </c>
       <c r="CT8" t="s">
         <v>166</v>
       </c>
       <c r="DG8" t="s">
-        <v>2189</v>
+        <v>2193</v>
       </c>
       <c r="DH8" t="s">
         <v>166</v>
@@ -10120,13 +10132,13 @@
         <v>166</v>
       </c>
       <c r="DK8" t="s">
-        <v>2238</v>
+        <v>2242</v>
       </c>
       <c r="DL8" t="s">
         <v>166</v>
       </c>
       <c r="DM8" t="s">
-        <v>2251</v>
+        <v>2255</v>
       </c>
       <c r="DN8" t="s">
         <v>166</v>
@@ -10206,13 +10218,13 @@
         <v>166</v>
       </c>
       <c r="AU9" t="s">
-        <v>1339</v>
+        <v>1342</v>
       </c>
       <c r="AV9" t="s">
         <v>166</v>
       </c>
       <c r="BA9" t="s">
-        <v>1400</v>
+        <v>1404</v>
       </c>
       <c r="BB9" t="s">
         <v>166</v>
@@ -10224,7 +10236,7 @@
         <v>166</v>
       </c>
       <c r="BI9" t="s">
-        <v>1339</v>
+        <v>1342</v>
       </c>
       <c r="BJ9" t="s">
         <v>166</v>
@@ -10242,97 +10254,97 @@
         <v>166</v>
       </c>
       <c r="BQ9" t="s">
-        <v>1339</v>
+        <v>1342</v>
       </c>
       <c r="BR9" t="s">
         <v>166</v>
       </c>
       <c r="BS9" t="s">
-        <v>1339</v>
+        <v>1342</v>
       </c>
       <c r="BT9" t="s">
         <v>166</v>
       </c>
       <c r="BU9" t="s">
-        <v>1667</v>
+        <v>1671</v>
       </c>
       <c r="BV9" t="s">
         <v>166</v>
       </c>
       <c r="BW9" t="s">
-        <v>1701</v>
+        <v>1705</v>
       </c>
       <c r="BX9" t="s">
         <v>166</v>
       </c>
       <c r="BY9" t="s">
-        <v>1741</v>
+        <v>1745</v>
       </c>
       <c r="BZ9" t="s">
         <v>166</v>
       </c>
       <c r="CA9" t="s">
-        <v>1703</v>
+        <v>1707</v>
       </c>
       <c r="CB9" t="s">
         <v>166</v>
       </c>
       <c r="CC9" t="s">
-        <v>1759</v>
+        <v>1763</v>
       </c>
       <c r="CD9" t="s">
         <v>166</v>
       </c>
       <c r="CE9" t="s">
-        <v>1767</v>
+        <v>1771</v>
       </c>
       <c r="CF9" t="s">
         <v>166</v>
       </c>
       <c r="CG9" t="s">
-        <v>1788</v>
+        <v>1792</v>
       </c>
       <c r="CH9" t="s">
         <v>166</v>
       </c>
       <c r="CI9" t="s">
-        <v>1805</v>
+        <v>1809</v>
       </c>
       <c r="CJ9" t="s">
         <v>166</v>
       </c>
       <c r="CM9" t="s">
-        <v>1827</v>
+        <v>1831</v>
       </c>
       <c r="CN9" t="s">
         <v>166</v>
       </c>
       <c r="CO9" t="s">
-        <v>1860</v>
+        <v>1864</v>
       </c>
       <c r="CP9" t="s">
         <v>166</v>
       </c>
       <c r="CS9" t="s">
-        <v>2113</v>
+        <v>2117</v>
       </c>
       <c r="CT9" t="s">
         <v>166</v>
       </c>
       <c r="DG9" t="s">
-        <v>2190</v>
+        <v>2194</v>
       </c>
       <c r="DH9" t="s">
         <v>166</v>
       </c>
       <c r="DK9" t="s">
-        <v>2239</v>
+        <v>2243</v>
       </c>
       <c r="DL9" t="s">
         <v>166</v>
       </c>
       <c r="DM9" t="s">
-        <v>2252</v>
+        <v>2256</v>
       </c>
       <c r="DN9" t="s">
         <v>166</v>
@@ -10412,13 +10424,13 @@
         <v>166</v>
       </c>
       <c r="AU10" t="s">
-        <v>1340</v>
+        <v>1343</v>
       </c>
       <c r="AV10" t="s">
         <v>166</v>
       </c>
       <c r="BA10" t="s">
-        <v>1401</v>
+        <v>1405</v>
       </c>
       <c r="BB10" t="s">
         <v>166</v>
@@ -10430,7 +10442,7 @@
         <v>166</v>
       </c>
       <c r="BI10" t="s">
-        <v>1340</v>
+        <v>1343</v>
       </c>
       <c r="BJ10" t="s">
         <v>166</v>
@@ -10448,73 +10460,73 @@
         <v>166</v>
       </c>
       <c r="BQ10" t="s">
-        <v>1340</v>
+        <v>1343</v>
       </c>
       <c r="BR10" t="s">
         <v>166</v>
       </c>
       <c r="BS10" t="s">
-        <v>1340</v>
+        <v>1343</v>
       </c>
       <c r="BT10" t="s">
         <v>166</v>
       </c>
       <c r="BU10" t="s">
-        <v>1668</v>
+        <v>1672</v>
       </c>
       <c r="BV10" t="s">
         <v>166</v>
       </c>
       <c r="BW10" t="s">
-        <v>1702</v>
+        <v>1706</v>
       </c>
       <c r="BX10" t="s">
         <v>166</v>
       </c>
       <c r="BY10" t="s">
-        <v>1742</v>
+        <v>1746</v>
       </c>
       <c r="BZ10" t="s">
         <v>166</v>
       </c>
       <c r="CA10" t="s">
-        <v>1393</v>
+        <v>1397</v>
       </c>
       <c r="CB10" t="s">
         <v>166</v>
       </c>
       <c r="CC10" t="s">
-        <v>1760</v>
+        <v>1764</v>
       </c>
       <c r="CD10" t="s">
         <v>166</v>
       </c>
       <c r="CE10" t="s">
-        <v>1768</v>
+        <v>1772</v>
       </c>
       <c r="CF10" t="s">
         <v>166</v>
       </c>
       <c r="CG10" t="s">
-        <v>1789</v>
+        <v>1793</v>
       </c>
       <c r="CH10" t="s">
         <v>166</v>
       </c>
       <c r="CI10" t="s">
-        <v>1806</v>
+        <v>1810</v>
       </c>
       <c r="CJ10" t="s">
         <v>166</v>
       </c>
       <c r="CM10" t="s">
-        <v>1828</v>
+        <v>1832</v>
       </c>
       <c r="CN10" t="s">
         <v>166</v>
       </c>
       <c r="CO10" t="s">
-        <v>1861</v>
+        <v>1865</v>
       </c>
       <c r="CP10" t="s">
         <v>166</v>
@@ -10526,13 +10538,13 @@
         <v>166</v>
       </c>
       <c r="DK10" t="s">
-        <v>2240</v>
+        <v>2244</v>
       </c>
       <c r="DL10" t="s">
         <v>166</v>
       </c>
       <c r="DM10" t="s">
-        <v>2253</v>
+        <v>2257</v>
       </c>
       <c r="DN10" t="s">
         <v>166</v>
@@ -10612,13 +10624,13 @@
         <v>166</v>
       </c>
       <c r="AU11" t="s">
-        <v>1341</v>
+        <v>1344</v>
       </c>
       <c r="AV11" t="s">
         <v>166</v>
       </c>
       <c r="BA11" t="s">
-        <v>1402</v>
+        <v>1406</v>
       </c>
       <c r="BB11" t="s">
         <v>166</v>
@@ -10630,7 +10642,7 @@
         <v>166</v>
       </c>
       <c r="BI11" t="s">
-        <v>1341</v>
+        <v>1344</v>
       </c>
       <c r="BJ11" t="s">
         <v>166</v>
@@ -10648,91 +10660,91 @@
         <v>166</v>
       </c>
       <c r="BQ11" t="s">
-        <v>1341</v>
+        <v>1344</v>
       </c>
       <c r="BR11" t="s">
         <v>166</v>
       </c>
       <c r="BS11" t="s">
-        <v>1341</v>
+        <v>1344</v>
       </c>
       <c r="BT11" t="s">
         <v>166</v>
       </c>
       <c r="BU11" t="s">
-        <v>1669</v>
+        <v>1673</v>
       </c>
       <c r="BV11" t="s">
         <v>166</v>
       </c>
       <c r="BW11" t="s">
-        <v>1703</v>
+        <v>1707</v>
       </c>
       <c r="BX11" t="s">
         <v>166</v>
       </c>
       <c r="BY11" t="s">
-        <v>1743</v>
+        <v>1747</v>
       </c>
       <c r="BZ11" t="s">
         <v>166</v>
       </c>
       <c r="CA11" t="s">
-        <v>1705</v>
+        <v>1709</v>
       </c>
       <c r="CB11" t="s">
         <v>166</v>
       </c>
       <c r="CC11" t="s">
-        <v>1761</v>
+        <v>1765</v>
       </c>
       <c r="CD11" t="s">
         <v>166</v>
       </c>
       <c r="CE11" t="s">
-        <v>1769</v>
+        <v>1773</v>
       </c>
       <c r="CF11" t="s">
         <v>166</v>
       </c>
       <c r="CG11" t="s">
-        <v>1790</v>
+        <v>1794</v>
       </c>
       <c r="CH11" t="s">
         <v>166</v>
       </c>
       <c r="CI11" t="s">
-        <v>1807</v>
+        <v>1811</v>
       </c>
       <c r="CJ11" t="s">
         <v>166</v>
       </c>
       <c r="CM11" t="s">
-        <v>1829</v>
+        <v>1833</v>
       </c>
       <c r="CN11" t="s">
         <v>166</v>
       </c>
       <c r="CO11" t="s">
-        <v>1862</v>
+        <v>1866</v>
       </c>
       <c r="CP11" t="s">
         <v>166</v>
       </c>
       <c r="CS11" t="s">
-        <v>2114</v>
+        <v>2118</v>
       </c>
       <c r="CT11" t="s">
         <v>166</v>
       </c>
       <c r="DK11" t="s">
-        <v>2241</v>
+        <v>2245</v>
       </c>
       <c r="DL11" t="s">
         <v>166</v>
       </c>
       <c r="DM11" t="s">
-        <v>2254</v>
+        <v>2258</v>
       </c>
       <c r="DN11" t="s">
         <v>166</v>
@@ -10812,13 +10824,13 @@
         <v>166</v>
       </c>
       <c r="AU12" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="AV12" t="s">
         <v>166</v>
       </c>
       <c r="BA12" t="s">
-        <v>1403</v>
+        <v>1407</v>
       </c>
       <c r="BB12" t="s">
         <v>166</v>
@@ -10830,7 +10842,7 @@
         <v>166</v>
       </c>
       <c r="BI12" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="BJ12" t="s">
         <v>166</v>
@@ -10848,91 +10860,91 @@
         <v>166</v>
       </c>
       <c r="BQ12" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="BR12" t="s">
         <v>166</v>
       </c>
       <c r="BS12" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="BT12" t="s">
         <v>166</v>
       </c>
       <c r="BU12" t="s">
-        <v>1670</v>
+        <v>1674</v>
       </c>
       <c r="BV12" t="s">
         <v>166</v>
       </c>
       <c r="BW12" t="s">
-        <v>1393</v>
+        <v>1397</v>
       </c>
       <c r="BX12" t="s">
         <v>166</v>
       </c>
       <c r="BY12" t="s">
-        <v>1703</v>
+        <v>1707</v>
       </c>
       <c r="BZ12" t="s">
         <v>166</v>
       </c>
       <c r="CA12" t="s">
-        <v>1353</v>
+        <v>1357</v>
       </c>
       <c r="CB12" t="s">
         <v>166</v>
       </c>
       <c r="CC12" t="s">
-        <v>1762</v>
+        <v>1766</v>
       </c>
       <c r="CD12" t="s">
         <v>166</v>
       </c>
       <c r="CE12" t="s">
-        <v>1770</v>
+        <v>1774</v>
       </c>
       <c r="CF12" t="s">
         <v>166</v>
       </c>
       <c r="CG12" t="s">
-        <v>1791</v>
+        <v>1795</v>
       </c>
       <c r="CH12" t="s">
         <v>166</v>
       </c>
       <c r="CI12" t="s">
-        <v>1808</v>
+        <v>1812</v>
       </c>
       <c r="CJ12" t="s">
         <v>166</v>
       </c>
       <c r="CM12" t="s">
-        <v>1830</v>
+        <v>1834</v>
       </c>
       <c r="CN12" t="s">
         <v>166</v>
       </c>
       <c r="CO12" t="s">
-        <v>1863</v>
+        <v>1867</v>
       </c>
       <c r="CP12" t="s">
         <v>166</v>
       </c>
       <c r="CS12" t="s">
-        <v>2115</v>
+        <v>2119</v>
       </c>
       <c r="CT12" t="s">
         <v>166</v>
       </c>
       <c r="DK12" t="s">
-        <v>2242</v>
+        <v>2246</v>
       </c>
       <c r="DL12" t="s">
         <v>166</v>
       </c>
       <c r="DM12" t="s">
-        <v>2255</v>
+        <v>2259</v>
       </c>
       <c r="DN12" t="s">
         <v>166</v>
@@ -11012,13 +11024,13 @@
         <v>166</v>
       </c>
       <c r="AU13" t="s">
-        <v>1343</v>
+        <v>1346</v>
       </c>
       <c r="AV13" t="s">
         <v>166</v>
       </c>
       <c r="BA13" t="s">
-        <v>1404</v>
+        <v>1408</v>
       </c>
       <c r="BB13" t="s">
         <v>166</v>
@@ -11030,7 +11042,7 @@
         <v>166</v>
       </c>
       <c r="BI13" t="s">
-        <v>1343</v>
+        <v>1346</v>
       </c>
       <c r="BJ13" t="s">
         <v>166</v>
@@ -11048,91 +11060,91 @@
         <v>166</v>
       </c>
       <c r="BQ13" t="s">
-        <v>1343</v>
+        <v>1346</v>
       </c>
       <c r="BR13" t="s">
         <v>166</v>
       </c>
       <c r="BS13" t="s">
-        <v>1343</v>
+        <v>1346</v>
       </c>
       <c r="BT13" t="s">
         <v>166</v>
       </c>
       <c r="BU13" t="s">
-        <v>1671</v>
+        <v>1675</v>
       </c>
       <c r="BV13" t="s">
         <v>166</v>
       </c>
       <c r="BW13" t="s">
-        <v>1704</v>
+        <v>1708</v>
       </c>
       <c r="BX13" t="s">
         <v>166</v>
       </c>
       <c r="BY13" t="s">
-        <v>1744</v>
+        <v>1748</v>
       </c>
       <c r="BZ13" t="s">
         <v>166</v>
       </c>
       <c r="CA13" t="s">
-        <v>1732</v>
+        <v>1736</v>
       </c>
       <c r="CB13" t="s">
         <v>166</v>
       </c>
       <c r="CC13" t="s">
-        <v>1763</v>
+        <v>1767</v>
       </c>
       <c r="CD13" t="s">
         <v>166</v>
       </c>
       <c r="CE13" t="s">
-        <v>1742</v>
+        <v>1746</v>
       </c>
       <c r="CF13" t="s">
         <v>166</v>
       </c>
       <c r="CG13" t="s">
-        <v>1697</v>
+        <v>1701</v>
       </c>
       <c r="CH13" t="s">
         <v>166</v>
       </c>
       <c r="CI13" t="s">
-        <v>1809</v>
+        <v>1813</v>
       </c>
       <c r="CJ13" t="s">
         <v>166</v>
       </c>
       <c r="CM13" t="s">
-        <v>1831</v>
+        <v>1835</v>
       </c>
       <c r="CN13" t="s">
         <v>166</v>
       </c>
       <c r="CO13" t="s">
-        <v>1864</v>
+        <v>1868</v>
       </c>
       <c r="CP13" t="s">
         <v>166</v>
       </c>
       <c r="CS13" t="s">
-        <v>2116</v>
+        <v>2120</v>
       </c>
       <c r="CT13" t="s">
         <v>166</v>
       </c>
       <c r="DK13" t="s">
-        <v>2243</v>
+        <v>2247</v>
       </c>
       <c r="DL13" t="s">
         <v>166</v>
       </c>
       <c r="DM13" t="s">
-        <v>2256</v>
+        <v>2260</v>
       </c>
       <c r="DN13" t="s">
         <v>166</v>
@@ -11212,13 +11224,13 @@
         <v>166</v>
       </c>
       <c r="AU14" t="s">
-        <v>1344</v>
+        <v>1347</v>
       </c>
       <c r="AV14" t="s">
         <v>166</v>
       </c>
       <c r="BA14" t="s">
-        <v>1405</v>
+        <v>1409</v>
       </c>
       <c r="BB14" t="s">
         <v>166</v>
@@ -11230,7 +11242,7 @@
         <v>166</v>
       </c>
       <c r="BI14" t="s">
-        <v>1344</v>
+        <v>1347</v>
       </c>
       <c r="BJ14" t="s">
         <v>166</v>
@@ -11248,85 +11260,85 @@
         <v>166</v>
       </c>
       <c r="BQ14" t="s">
-        <v>1344</v>
+        <v>1347</v>
       </c>
       <c r="BR14" t="s">
         <v>166</v>
       </c>
       <c r="BS14" t="s">
-        <v>1344</v>
+        <v>1347</v>
       </c>
       <c r="BT14" t="s">
         <v>166</v>
       </c>
       <c r="BU14" t="s">
-        <v>1672</v>
+        <v>1676</v>
       </c>
       <c r="BV14" t="s">
         <v>166</v>
       </c>
       <c r="BW14" t="s">
-        <v>1705</v>
+        <v>1709</v>
       </c>
       <c r="BX14" t="s">
         <v>166</v>
       </c>
       <c r="BY14" t="s">
-        <v>1745</v>
+        <v>1749</v>
       </c>
       <c r="BZ14" t="s">
         <v>166</v>
       </c>
       <c r="CA14" t="s">
-        <v>1749</v>
+        <v>1753</v>
       </c>
       <c r="CB14" t="s">
         <v>166</v>
       </c>
       <c r="CE14" t="s">
-        <v>1771</v>
+        <v>1775</v>
       </c>
       <c r="CF14" t="s">
         <v>166</v>
       </c>
       <c r="CG14" t="s">
-        <v>1792</v>
+        <v>1796</v>
       </c>
       <c r="CH14" t="s">
         <v>166</v>
       </c>
       <c r="CI14" t="s">
-        <v>1810</v>
+        <v>1814</v>
       </c>
       <c r="CJ14" t="s">
         <v>166</v>
       </c>
       <c r="CM14" t="s">
-        <v>1832</v>
+        <v>1836</v>
       </c>
       <c r="CN14" t="s">
         <v>166</v>
       </c>
       <c r="CO14" t="s">
-        <v>1865</v>
+        <v>1869</v>
       </c>
       <c r="CP14" t="s">
         <v>166</v>
       </c>
       <c r="CS14" t="s">
-        <v>2117</v>
+        <v>2121</v>
       </c>
       <c r="CT14" t="s">
         <v>166</v>
       </c>
       <c r="DK14" t="s">
-        <v>2244</v>
+        <v>2248</v>
       </c>
       <c r="DL14" t="s">
         <v>166</v>
       </c>
       <c r="DM14" t="s">
-        <v>2257</v>
+        <v>2261</v>
       </c>
       <c r="DN14" t="s">
         <v>166</v>
@@ -11400,13 +11412,13 @@
         <v>166</v>
       </c>
       <c r="AU15" t="s">
-        <v>1345</v>
+        <v>1348</v>
       </c>
       <c r="AV15" t="s">
         <v>166</v>
       </c>
       <c r="BA15" t="s">
-        <v>1406</v>
+        <v>1410</v>
       </c>
       <c r="BB15" t="s">
         <v>166</v>
@@ -11418,7 +11430,7 @@
         <v>166</v>
       </c>
       <c r="BI15" t="s">
-        <v>1345</v>
+        <v>1348</v>
       </c>
       <c r="BJ15" t="s">
         <v>166</v>
@@ -11436,85 +11448,85 @@
         <v>166</v>
       </c>
       <c r="BQ15" t="s">
-        <v>1345</v>
+        <v>1348</v>
       </c>
       <c r="BR15" t="s">
         <v>166</v>
       </c>
       <c r="BS15" t="s">
-        <v>1345</v>
+        <v>1348</v>
       </c>
       <c r="BT15" t="s">
         <v>166</v>
       </c>
       <c r="BU15" t="s">
-        <v>1673</v>
+        <v>1677</v>
       </c>
       <c r="BV15" t="s">
         <v>166</v>
       </c>
       <c r="BW15" t="s">
-        <v>1706</v>
+        <v>1710</v>
       </c>
       <c r="BX15" t="s">
         <v>166</v>
       </c>
       <c r="BY15" t="s">
-        <v>1393</v>
+        <v>1397</v>
       </c>
       <c r="BZ15" t="s">
         <v>166</v>
       </c>
       <c r="CA15" t="s">
-        <v>1750</v>
+        <v>1754</v>
       </c>
       <c r="CB15" t="s">
         <v>166</v>
       </c>
       <c r="CE15" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="CF15" t="s">
         <v>166</v>
       </c>
       <c r="CG15" t="s">
-        <v>1793</v>
+        <v>1797</v>
       </c>
       <c r="CH15" t="s">
         <v>166</v>
       </c>
       <c r="CI15" t="s">
-        <v>1811</v>
+        <v>1815</v>
       </c>
       <c r="CJ15" t="s">
         <v>166</v>
       </c>
       <c r="CM15" t="s">
-        <v>1833</v>
+        <v>1837</v>
       </c>
       <c r="CN15" t="s">
         <v>166</v>
       </c>
       <c r="CO15" t="s">
-        <v>1866</v>
+        <v>1870</v>
       </c>
       <c r="CP15" t="s">
         <v>166</v>
       </c>
       <c r="CS15" t="s">
-        <v>2118</v>
+        <v>2122</v>
       </c>
       <c r="CT15" t="s">
         <v>166</v>
       </c>
       <c r="DK15" t="s">
-        <v>2245</v>
+        <v>2249</v>
       </c>
       <c r="DL15" t="s">
         <v>166</v>
       </c>
       <c r="DM15" t="s">
-        <v>2258</v>
+        <v>2262</v>
       </c>
       <c r="DN15" t="s">
         <v>166</v>
@@ -11588,13 +11600,13 @@
         <v>166</v>
       </c>
       <c r="AU16" t="s">
-        <v>1346</v>
+        <v>1349</v>
       </c>
       <c r="AV16" t="s">
         <v>166</v>
       </c>
       <c r="BA16" t="s">
-        <v>1407</v>
+        <v>1411</v>
       </c>
       <c r="BB16" t="s">
         <v>166</v>
@@ -11606,7 +11618,7 @@
         <v>166</v>
       </c>
       <c r="BI16" t="s">
-        <v>1346</v>
+        <v>1349</v>
       </c>
       <c r="BJ16" t="s">
         <v>166</v>
@@ -11624,79 +11636,79 @@
         <v>166</v>
       </c>
       <c r="BQ16" t="s">
-        <v>1346</v>
+        <v>1349</v>
       </c>
       <c r="BR16" t="s">
         <v>166</v>
       </c>
       <c r="BS16" t="s">
-        <v>1346</v>
+        <v>1349</v>
       </c>
       <c r="BT16" t="s">
         <v>166</v>
       </c>
       <c r="BU16" t="s">
-        <v>1674</v>
+        <v>1678</v>
       </c>
       <c r="BV16" t="s">
         <v>166</v>
       </c>
       <c r="BW16" t="s">
-        <v>1707</v>
+        <v>1711</v>
       </c>
       <c r="BX16" t="s">
         <v>166</v>
       </c>
       <c r="BY16" t="s">
-        <v>1705</v>
+        <v>1709</v>
       </c>
       <c r="BZ16" t="s">
         <v>166</v>
       </c>
       <c r="CA16" t="s">
-        <v>1751</v>
+        <v>1755</v>
       </c>
       <c r="CB16" t="s">
         <v>166</v>
       </c>
       <c r="CE16" t="s">
-        <v>1773</v>
+        <v>1777</v>
       </c>
       <c r="CF16" t="s">
         <v>166</v>
       </c>
       <c r="CG16" t="s">
-        <v>1794</v>
+        <v>1798</v>
       </c>
       <c r="CH16" t="s">
         <v>166</v>
       </c>
       <c r="CI16" t="s">
-        <v>1812</v>
+        <v>1816</v>
       </c>
       <c r="CJ16" t="s">
         <v>166</v>
       </c>
       <c r="CM16" t="s">
-        <v>1834</v>
+        <v>1838</v>
       </c>
       <c r="CN16" t="s">
         <v>166</v>
       </c>
       <c r="CO16" t="s">
-        <v>1867</v>
+        <v>1871</v>
       </c>
       <c r="CP16" t="s">
         <v>166</v>
       </c>
       <c r="DK16" t="s">
-        <v>2246</v>
+        <v>2250</v>
       </c>
       <c r="DL16" t="s">
         <v>166</v>
       </c>
       <c r="DM16" t="s">
-        <v>2259</v>
+        <v>2263</v>
       </c>
       <c r="DN16" t="s">
         <v>166</v>
@@ -11770,13 +11782,13 @@
         <v>166</v>
       </c>
       <c r="AU17" t="s">
-        <v>1347</v>
+        <v>1350</v>
       </c>
       <c r="AV17" t="s">
         <v>166</v>
       </c>
       <c r="BA17" t="s">
-        <v>1408</v>
+        <v>1412</v>
       </c>
       <c r="BB17" t="s">
         <v>166</v>
@@ -11788,7 +11800,7 @@
         <v>166</v>
       </c>
       <c r="BI17" t="s">
-        <v>1347</v>
+        <v>1350</v>
       </c>
       <c r="BJ17" t="s">
         <v>166</v>
@@ -11806,67 +11818,67 @@
         <v>166</v>
       </c>
       <c r="BQ17" t="s">
-        <v>1347</v>
+        <v>1350</v>
       </c>
       <c r="BR17" t="s">
         <v>166</v>
       </c>
       <c r="BS17" t="s">
-        <v>1347</v>
+        <v>1350</v>
       </c>
       <c r="BT17" t="s">
         <v>166</v>
       </c>
       <c r="BU17" t="s">
-        <v>1675</v>
+        <v>1679</v>
       </c>
       <c r="BV17" t="s">
         <v>166</v>
       </c>
       <c r="BW17" t="s">
-        <v>1708</v>
+        <v>1712</v>
       </c>
       <c r="BX17" t="s">
         <v>166</v>
       </c>
       <c r="BY17" t="s">
-        <v>1746</v>
+        <v>1750</v>
       </c>
       <c r="BZ17" t="s">
         <v>166</v>
       </c>
       <c r="CA17" t="s">
-        <v>1752</v>
+        <v>1756</v>
       </c>
       <c r="CB17" t="s">
         <v>166</v>
       </c>
       <c r="CE17" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="CF17" t="s">
         <v>166</v>
       </c>
       <c r="CG17" t="s">
-        <v>1795</v>
+        <v>1799</v>
       </c>
       <c r="CH17" t="s">
         <v>166</v>
       </c>
       <c r="CI17" t="s">
-        <v>1813</v>
+        <v>1817</v>
       </c>
       <c r="CJ17" t="s">
         <v>166</v>
       </c>
       <c r="CM17" t="s">
-        <v>1835</v>
+        <v>1839</v>
       </c>
       <c r="CN17" t="s">
         <v>166</v>
       </c>
       <c r="CO17" t="s">
-        <v>1868</v>
+        <v>1872</v>
       </c>
       <c r="CP17" t="s">
         <v>166</v>
@@ -11878,7 +11890,7 @@
         <v>166</v>
       </c>
       <c r="DM17" t="s">
-        <v>2260</v>
+        <v>2264</v>
       </c>
       <c r="DN17" t="s">
         <v>166</v>
@@ -11940,13 +11952,13 @@
         <v>166</v>
       </c>
       <c r="AU18" t="s">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="AV18" t="s">
         <v>166</v>
       </c>
       <c r="BA18" t="s">
-        <v>1409</v>
+        <v>1413</v>
       </c>
       <c r="BB18" t="s">
         <v>166</v>
@@ -11958,7 +11970,7 @@
         <v>166</v>
       </c>
       <c r="BI18" t="s">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="BJ18" t="s">
         <v>166</v>
@@ -11976,73 +11988,73 @@
         <v>166</v>
       </c>
       <c r="BQ18" t="s">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="BR18" t="s">
         <v>166</v>
       </c>
       <c r="BS18" t="s">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="BT18" t="s">
         <v>166</v>
       </c>
       <c r="BU18" t="s">
-        <v>1676</v>
+        <v>1680</v>
       </c>
       <c r="BV18" t="s">
         <v>166</v>
       </c>
       <c r="BW18" t="s">
-        <v>1353</v>
+        <v>1357</v>
       </c>
       <c r="BX18" t="s">
         <v>166</v>
       </c>
       <c r="BY18" t="s">
-        <v>1747</v>
+        <v>1751</v>
       </c>
       <c r="BZ18" t="s">
         <v>166</v>
       </c>
       <c r="CA18" t="s">
-        <v>1753</v>
+        <v>1757</v>
       </c>
       <c r="CB18" t="s">
         <v>166</v>
       </c>
       <c r="CE18" t="s">
-        <v>1775</v>
+        <v>1779</v>
       </c>
       <c r="CF18" t="s">
         <v>166</v>
       </c>
       <c r="CG18" t="s">
-        <v>1698</v>
+        <v>1702</v>
       </c>
       <c r="CH18" t="s">
         <v>166</v>
       </c>
       <c r="CI18" t="s">
-        <v>1814</v>
+        <v>1818</v>
       </c>
       <c r="CJ18" t="s">
         <v>166</v>
       </c>
       <c r="CM18" t="s">
-        <v>1836</v>
+        <v>1840</v>
       </c>
       <c r="CN18" t="s">
         <v>166</v>
       </c>
       <c r="CO18" t="s">
-        <v>1869</v>
+        <v>1873</v>
       </c>
       <c r="CP18" t="s">
         <v>166</v>
       </c>
       <c r="DM18" t="s">
-        <v>2261</v>
+        <v>2265</v>
       </c>
       <c r="DN18" t="s">
         <v>166</v>
@@ -12098,7 +12110,7 @@
         <v>166</v>
       </c>
       <c r="AU19" t="s">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="AV19" t="s">
         <v>166</v>
@@ -12116,7 +12128,7 @@
         <v>166</v>
       </c>
       <c r="BI19" t="s">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="BJ19" t="s">
         <v>166</v>
@@ -12134,31 +12146,31 @@
         <v>166</v>
       </c>
       <c r="BQ19" t="s">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="BR19" t="s">
         <v>166</v>
       </c>
       <c r="BS19" t="s">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="BT19" t="s">
         <v>166</v>
       </c>
       <c r="BU19" t="s">
-        <v>1355</v>
+        <v>1359</v>
       </c>
       <c r="BV19" t="s">
         <v>166</v>
       </c>
       <c r="BW19" t="s">
-        <v>1709</v>
+        <v>1713</v>
       </c>
       <c r="BX19" t="s">
         <v>166</v>
       </c>
       <c r="BY19" t="s">
-        <v>1748</v>
+        <v>1752</v>
       </c>
       <c r="BZ19" t="s">
         <v>166</v>
@@ -12170,37 +12182,37 @@
         <v>166</v>
       </c>
       <c r="CE19" t="s">
-        <v>1743</v>
+        <v>1747</v>
       </c>
       <c r="CF19" t="s">
         <v>166</v>
       </c>
       <c r="CG19" t="s">
-        <v>1796</v>
+        <v>1800</v>
       </c>
       <c r="CH19" t="s">
         <v>166</v>
       </c>
       <c r="CI19" t="s">
-        <v>1815</v>
+        <v>1819</v>
       </c>
       <c r="CJ19" t="s">
         <v>166</v>
       </c>
       <c r="CM19" t="s">
-        <v>1837</v>
+        <v>1841</v>
       </c>
       <c r="CN19" t="s">
         <v>166</v>
       </c>
       <c r="CO19" t="s">
-        <v>1870</v>
+        <v>1874</v>
       </c>
       <c r="CP19" t="s">
         <v>166</v>
       </c>
       <c r="DM19" t="s">
-        <v>2262</v>
+        <v>2266</v>
       </c>
       <c r="DN19" t="s">
         <v>166</v>
@@ -12256,13 +12268,13 @@
         <v>166</v>
       </c>
       <c r="AU20" t="s">
-        <v>1350</v>
+        <v>1353</v>
       </c>
       <c r="AV20" t="s">
         <v>166</v>
       </c>
       <c r="BA20" t="s">
-        <v>1410</v>
+        <v>1414</v>
       </c>
       <c r="BB20" t="s">
         <v>166</v>
@@ -12274,7 +12286,7 @@
         <v>166</v>
       </c>
       <c r="BI20" t="s">
-        <v>1350</v>
+        <v>1353</v>
       </c>
       <c r="BJ20" t="s">
         <v>166</v>
@@ -12292,67 +12304,67 @@
         <v>166</v>
       </c>
       <c r="BQ20" t="s">
-        <v>1350</v>
+        <v>1353</v>
       </c>
       <c r="BR20" t="s">
         <v>166</v>
       </c>
       <c r="BS20" t="s">
-        <v>1350</v>
+        <v>1353</v>
       </c>
       <c r="BT20" t="s">
         <v>166</v>
       </c>
       <c r="BU20" t="s">
-        <v>1677</v>
+        <v>1681</v>
       </c>
       <c r="BV20" t="s">
         <v>166</v>
       </c>
       <c r="BW20" t="s">
-        <v>1710</v>
+        <v>1714</v>
       </c>
       <c r="BX20" t="s">
         <v>166</v>
       </c>
       <c r="CA20" t="s">
-        <v>1718</v>
+        <v>1722</v>
       </c>
       <c r="CB20" t="s">
         <v>166</v>
       </c>
       <c r="CE20" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="CF20" t="s">
         <v>166</v>
       </c>
       <c r="CG20" t="s">
-        <v>1700</v>
+        <v>1704</v>
       </c>
       <c r="CH20" t="s">
         <v>166</v>
       </c>
       <c r="CI20" t="s">
-        <v>1816</v>
+        <v>1820</v>
       </c>
       <c r="CJ20" t="s">
         <v>166</v>
       </c>
       <c r="CM20" t="s">
-        <v>1838</v>
+        <v>1842</v>
       </c>
       <c r="CN20" t="s">
         <v>166</v>
       </c>
       <c r="CO20" t="s">
-        <v>1871</v>
+        <v>1875</v>
       </c>
       <c r="CP20" t="s">
         <v>166</v>
       </c>
       <c r="DM20" t="s">
-        <v>2263</v>
+        <v>2267</v>
       </c>
       <c r="DN20" t="s">
         <v>166</v>
@@ -12396,13 +12408,13 @@
         <v>166</v>
       </c>
       <c r="AU21" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
       <c r="AV21" t="s">
         <v>166</v>
       </c>
       <c r="BA21" t="s">
-        <v>1411</v>
+        <v>1415</v>
       </c>
       <c r="BB21" t="s">
         <v>166</v>
@@ -12414,7 +12426,7 @@
         <v>166</v>
       </c>
       <c r="BI21" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
       <c r="BJ21" t="s">
         <v>166</v>
@@ -12432,13 +12444,13 @@
         <v>166</v>
       </c>
       <c r="BQ21" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
       <c r="BR21" t="s">
         <v>166</v>
       </c>
       <c r="BS21" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
       <c r="BT21" t="s">
         <v>166</v>
@@ -12450,49 +12462,49 @@
         <v>166</v>
       </c>
       <c r="BW21" t="s">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="BX21" t="s">
         <v>166</v>
       </c>
       <c r="CA21" t="s">
-        <v>1714</v>
+        <v>1718</v>
       </c>
       <c r="CB21" t="s">
         <v>166</v>
       </c>
       <c r="CE21" t="s">
-        <v>1703</v>
+        <v>1707</v>
       </c>
       <c r="CF21" t="s">
         <v>166</v>
       </c>
       <c r="CG21" t="s">
-        <v>1797</v>
+        <v>1801</v>
       </c>
       <c r="CH21" t="s">
         <v>166</v>
       </c>
       <c r="CI21" t="s">
-        <v>1817</v>
+        <v>1821</v>
       </c>
       <c r="CJ21" t="s">
         <v>166</v>
       </c>
       <c r="CM21" t="s">
-        <v>1839</v>
+        <v>1843</v>
       </c>
       <c r="CN21" t="s">
         <v>166</v>
       </c>
       <c r="CO21" t="s">
-        <v>1872</v>
+        <v>1876</v>
       </c>
       <c r="CP21" t="s">
         <v>166</v>
       </c>
       <c r="DM21" t="s">
-        <v>2264</v>
+        <v>2268</v>
       </c>
       <c r="DN21" t="s">
         <v>166</v>
@@ -12530,13 +12542,13 @@
         <v>166</v>
       </c>
       <c r="AU22" t="s">
-        <v>1352</v>
+        <v>1355</v>
       </c>
       <c r="AV22" t="s">
         <v>166</v>
       </c>
       <c r="BA22" t="s">
-        <v>1412</v>
+        <v>1416</v>
       </c>
       <c r="BB22" t="s">
         <v>166</v>
@@ -12548,7 +12560,7 @@
         <v>166</v>
       </c>
       <c r="BI22" t="s">
-        <v>1352</v>
+        <v>1355</v>
       </c>
       <c r="BJ22" t="s">
         <v>166</v>
@@ -12566,61 +12578,61 @@
         <v>166</v>
       </c>
       <c r="BQ22" t="s">
-        <v>1352</v>
+        <v>1355</v>
       </c>
       <c r="BR22" t="s">
         <v>166</v>
       </c>
       <c r="BS22" t="s">
-        <v>1352</v>
+        <v>1355</v>
       </c>
       <c r="BT22" t="s">
         <v>166</v>
       </c>
       <c r="BU22" t="s">
-        <v>1678</v>
+        <v>1682</v>
       </c>
       <c r="BV22" t="s">
         <v>166</v>
       </c>
       <c r="BW22" t="s">
-        <v>1712</v>
+        <v>1716</v>
       </c>
       <c r="BX22" t="s">
         <v>166</v>
       </c>
       <c r="CE22" t="s">
-        <v>1393</v>
+        <v>1397</v>
       </c>
       <c r="CF22" t="s">
         <v>166</v>
       </c>
       <c r="CG22" t="s">
-        <v>1798</v>
+        <v>1802</v>
       </c>
       <c r="CH22" t="s">
         <v>166</v>
       </c>
       <c r="CI22" t="s">
-        <v>1818</v>
+        <v>1822</v>
       </c>
       <c r="CJ22" t="s">
         <v>166</v>
       </c>
       <c r="CM22" t="s">
-        <v>1840</v>
+        <v>1844</v>
       </c>
       <c r="CN22" t="s">
         <v>166</v>
       </c>
       <c r="CO22" t="s">
-        <v>1873</v>
+        <v>1877</v>
       </c>
       <c r="CP22" t="s">
         <v>166</v>
       </c>
       <c r="DM22" t="s">
-        <v>2265</v>
+        <v>2269</v>
       </c>
       <c r="DN22" t="s">
         <v>166</v>
@@ -12658,13 +12670,13 @@
         <v>166</v>
       </c>
       <c r="AU23" t="s">
-        <v>219</v>
+        <v>1356</v>
       </c>
       <c r="AV23" t="s">
         <v>166</v>
       </c>
       <c r="BA23" t="s">
-        <v>1413</v>
+        <v>1417</v>
       </c>
       <c r="BB23" t="s">
         <v>166</v>
@@ -12676,7 +12688,7 @@
         <v>166</v>
       </c>
       <c r="BI23" t="s">
-        <v>219</v>
+        <v>1356</v>
       </c>
       <c r="BJ23" t="s">
         <v>166</v>
@@ -12694,13 +12706,13 @@
         <v>166</v>
       </c>
       <c r="BQ23" t="s">
-        <v>219</v>
+        <v>1356</v>
       </c>
       <c r="BR23" t="s">
         <v>166</v>
       </c>
       <c r="BS23" t="s">
-        <v>219</v>
+        <v>1356</v>
       </c>
       <c r="BT23" t="s">
         <v>166</v>
@@ -12712,43 +12724,43 @@
         <v>166</v>
       </c>
       <c r="BW23" t="s">
-        <v>1713</v>
+        <v>1717</v>
       </c>
       <c r="BX23" t="s">
         <v>166</v>
       </c>
       <c r="CE23" t="s">
-        <v>1705</v>
+        <v>1709</v>
       </c>
       <c r="CF23" t="s">
         <v>166</v>
       </c>
       <c r="CG23" t="s">
-        <v>1799</v>
+        <v>1803</v>
       </c>
       <c r="CH23" t="s">
         <v>166</v>
       </c>
       <c r="CI23" t="s">
-        <v>1819</v>
+        <v>1823</v>
       </c>
       <c r="CJ23" t="s">
         <v>166</v>
       </c>
       <c r="CM23" t="s">
-        <v>1841</v>
+        <v>1845</v>
       </c>
       <c r="CN23" t="s">
         <v>166</v>
       </c>
       <c r="CO23" t="s">
-        <v>1874</v>
+        <v>1878</v>
       </c>
       <c r="CP23" t="s">
         <v>166</v>
       </c>
       <c r="DM23" t="s">
-        <v>2266</v>
+        <v>2270</v>
       </c>
       <c r="DN23" t="s">
         <v>166</v>
@@ -12786,13 +12798,13 @@
         <v>166</v>
       </c>
       <c r="AU24" t="s">
-        <v>1353</v>
+        <v>219</v>
       </c>
       <c r="AV24" t="s">
         <v>166</v>
       </c>
       <c r="BA24" t="s">
-        <v>1414</v>
+        <v>1418</v>
       </c>
       <c r="BB24" t="s">
         <v>166</v>
@@ -12804,7 +12816,7 @@
         <v>166</v>
       </c>
       <c r="BI24" t="s">
-        <v>1353</v>
+        <v>219</v>
       </c>
       <c r="BJ24" t="s">
         <v>166</v>
@@ -12822,31 +12834,31 @@
         <v>166</v>
       </c>
       <c r="BQ24" t="s">
-        <v>1353</v>
+        <v>219</v>
       </c>
       <c r="BR24" t="s">
         <v>166</v>
       </c>
       <c r="BS24" t="s">
-        <v>1353</v>
+        <v>219</v>
       </c>
       <c r="BT24" t="s">
         <v>166</v>
       </c>
       <c r="BU24" t="s">
-        <v>1679</v>
+        <v>1683</v>
       </c>
       <c r="BV24" t="s">
         <v>166</v>
       </c>
       <c r="BW24" t="s">
-        <v>1714</v>
+        <v>1718</v>
       </c>
       <c r="BX24" t="s">
         <v>166</v>
       </c>
       <c r="CE24" t="s">
-        <v>1734</v>
+        <v>1738</v>
       </c>
       <c r="CF24" t="s">
         <v>166</v>
@@ -12858,19 +12870,19 @@
         <v>166</v>
       </c>
       <c r="CM24" t="s">
-        <v>1842</v>
+        <v>1846</v>
       </c>
       <c r="CN24" t="s">
         <v>166</v>
       </c>
       <c r="CO24" t="s">
-        <v>1875</v>
+        <v>1879</v>
       </c>
       <c r="CP24" t="s">
         <v>166</v>
       </c>
       <c r="DM24" t="s">
-        <v>2267</v>
+        <v>2271</v>
       </c>
       <c r="DN24" t="s">
         <v>166</v>
@@ -12908,13 +12920,13 @@
         <v>166</v>
       </c>
       <c r="AU25" t="s">
-        <v>1354</v>
+        <v>1357</v>
       </c>
       <c r="AV25" t="s">
         <v>166</v>
       </c>
       <c r="BA25" t="s">
-        <v>1415</v>
+        <v>1419</v>
       </c>
       <c r="BB25" t="s">
         <v>166</v>
@@ -12926,7 +12938,7 @@
         <v>166</v>
       </c>
       <c r="BI25" t="s">
-        <v>1354</v>
+        <v>1357</v>
       </c>
       <c r="BJ25" t="s">
         <v>166</v>
@@ -12944,13 +12956,13 @@
         <v>166</v>
       </c>
       <c r="BQ25" t="s">
-        <v>1354</v>
+        <v>1357</v>
       </c>
       <c r="BR25" t="s">
         <v>166</v>
       </c>
       <c r="BS25" t="s">
-        <v>1354</v>
+        <v>1357</v>
       </c>
       <c r="BT25" t="s">
         <v>166</v>
@@ -12962,31 +12974,31 @@
         <v>166</v>
       </c>
       <c r="BW25" t="s">
-        <v>1715</v>
+        <v>1719</v>
       </c>
       <c r="BX25" t="s">
         <v>166</v>
       </c>
       <c r="CE25" t="s">
-        <v>1353</v>
+        <v>1357</v>
       </c>
       <c r="CF25" t="s">
         <v>166</v>
       </c>
       <c r="CM25" t="s">
-        <v>1843</v>
+        <v>1847</v>
       </c>
       <c r="CN25" t="s">
         <v>166</v>
       </c>
       <c r="CO25" t="s">
-        <v>1876</v>
+        <v>1880</v>
       </c>
       <c r="CP25" t="s">
         <v>166</v>
       </c>
       <c r="DM25" t="s">
-        <v>2268</v>
+        <v>2272</v>
       </c>
       <c r="DN25" t="s">
         <v>166</v>
@@ -13024,13 +13036,13 @@
         <v>166</v>
       </c>
       <c r="AU26" t="s">
-        <v>1355</v>
+        <v>1358</v>
       </c>
       <c r="AV26" t="s">
         <v>166</v>
       </c>
       <c r="BA26" t="s">
-        <v>1416</v>
+        <v>1420</v>
       </c>
       <c r="BB26" t="s">
         <v>166</v>
@@ -13042,7 +13054,7 @@
         <v>166</v>
       </c>
       <c r="BI26" t="s">
-        <v>1355</v>
+        <v>1358</v>
       </c>
       <c r="BJ26" t="s">
         <v>166</v>
@@ -13060,49 +13072,49 @@
         <v>166</v>
       </c>
       <c r="BQ26" t="s">
-        <v>1355</v>
+        <v>1358</v>
       </c>
       <c r="BR26" t="s">
         <v>166</v>
       </c>
       <c r="BS26" t="s">
-        <v>1355</v>
+        <v>1358</v>
       </c>
       <c r="BT26" t="s">
         <v>166</v>
       </c>
       <c r="BU26" t="s">
-        <v>1680</v>
+        <v>1684</v>
       </c>
       <c r="BV26" t="s">
         <v>166</v>
       </c>
       <c r="BW26" t="s">
-        <v>1716</v>
+        <v>1720</v>
       </c>
       <c r="BX26" t="s">
         <v>166</v>
       </c>
       <c r="CE26" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="CF26" t="s">
         <v>166</v>
       </c>
       <c r="CM26" t="s">
-        <v>1844</v>
+        <v>1848</v>
       </c>
       <c r="CN26" t="s">
         <v>166</v>
       </c>
       <c r="CO26" t="s">
-        <v>1877</v>
+        <v>1881</v>
       </c>
       <c r="CP26" t="s">
         <v>166</v>
       </c>
       <c r="DM26" t="s">
-        <v>2269</v>
+        <v>2273</v>
       </c>
       <c r="DN26" t="s">
         <v>166</v>
@@ -13140,13 +13152,13 @@
         <v>166</v>
       </c>
       <c r="AU27" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="AV27" t="s">
         <v>166</v>
       </c>
       <c r="BA27" t="s">
-        <v>1417</v>
+        <v>1421</v>
       </c>
       <c r="BB27" t="s">
         <v>166</v>
@@ -13158,7 +13170,7 @@
         <v>166</v>
       </c>
       <c r="BI27" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="BJ27" t="s">
         <v>166</v>
@@ -13176,49 +13188,49 @@
         <v>166</v>
       </c>
       <c r="BQ27" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="BR27" t="s">
         <v>166</v>
       </c>
       <c r="BS27" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="BT27" t="s">
         <v>166</v>
       </c>
       <c r="BU27" t="s">
-        <v>1681</v>
+        <v>1685</v>
       </c>
       <c r="BV27" t="s">
         <v>166</v>
       </c>
       <c r="BW27" t="s">
-        <v>1717</v>
+        <v>1721</v>
       </c>
       <c r="BX27" t="s">
         <v>166</v>
       </c>
       <c r="CE27" t="s">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="CF27" t="s">
         <v>166</v>
       </c>
       <c r="CM27" t="s">
-        <v>1845</v>
+        <v>1849</v>
       </c>
       <c r="CN27" t="s">
         <v>166</v>
       </c>
       <c r="CO27" t="s">
-        <v>1878</v>
+        <v>1882</v>
       </c>
       <c r="CP27" t="s">
         <v>166</v>
       </c>
       <c r="DM27" t="s">
-        <v>2270</v>
+        <v>2274</v>
       </c>
       <c r="DN27" t="s">
         <v>166</v>
@@ -13256,13 +13268,13 @@
         <v>166</v>
       </c>
       <c r="AU28" t="s">
-        <v>1357</v>
+        <v>1360</v>
       </c>
       <c r="AV28" t="s">
         <v>166</v>
       </c>
       <c r="BA28" t="s">
-        <v>1418</v>
+        <v>1422</v>
       </c>
       <c r="BB28" t="s">
         <v>166</v>
@@ -13274,7 +13286,7 @@
         <v>166</v>
       </c>
       <c r="BI28" t="s">
-        <v>1357</v>
+        <v>1360</v>
       </c>
       <c r="BJ28" t="s">
         <v>166</v>
@@ -13292,43 +13304,43 @@
         <v>166</v>
       </c>
       <c r="BQ28" t="s">
-        <v>1357</v>
+        <v>1360</v>
       </c>
       <c r="BR28" t="s">
         <v>166</v>
       </c>
       <c r="BS28" t="s">
-        <v>1357</v>
+        <v>1360</v>
       </c>
       <c r="BT28" t="s">
         <v>166</v>
       </c>
       <c r="BU28" t="s">
-        <v>1682</v>
+        <v>1686</v>
       </c>
       <c r="BV28" t="s">
         <v>166</v>
       </c>
       <c r="BW28" t="s">
-        <v>1718</v>
+        <v>1722</v>
       </c>
       <c r="BX28" t="s">
         <v>166</v>
       </c>
       <c r="CE28" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="CF28" t="s">
         <v>166</v>
       </c>
       <c r="CM28" t="s">
-        <v>1846</v>
+        <v>1850</v>
       </c>
       <c r="CN28" t="s">
         <v>166</v>
       </c>
       <c r="CO28" t="s">
-        <v>1879</v>
+        <v>1883</v>
       </c>
       <c r="CP28" t="s">
         <v>166</v>
@@ -13366,13 +13378,13 @@
         <v>166</v>
       </c>
       <c r="AU29" t="s">
-        <v>1358</v>
+        <v>1361</v>
       </c>
       <c r="AV29" t="s">
         <v>166</v>
       </c>
       <c r="BA29" t="s">
-        <v>1419</v>
+        <v>1423</v>
       </c>
       <c r="BB29" t="s">
         <v>166</v>
@@ -13384,7 +13396,7 @@
         <v>166</v>
       </c>
       <c r="BI29" t="s">
-        <v>1358</v>
+        <v>1361</v>
       </c>
       <c r="BJ29" t="s">
         <v>166</v>
@@ -13402,43 +13414,43 @@
         <v>166</v>
       </c>
       <c r="BQ29" t="s">
-        <v>1358</v>
+        <v>1361</v>
       </c>
       <c r="BR29" t="s">
         <v>166</v>
       </c>
       <c r="BS29" t="s">
-        <v>1358</v>
+        <v>1361</v>
       </c>
       <c r="BT29" t="s">
         <v>166</v>
       </c>
       <c r="BU29" t="s">
-        <v>1683</v>
+        <v>1687</v>
       </c>
       <c r="BV29" t="s">
         <v>166</v>
       </c>
       <c r="BW29" t="s">
-        <v>1719</v>
+        <v>1723</v>
       </c>
       <c r="BX29" t="s">
         <v>166</v>
       </c>
       <c r="CE29" t="s">
-        <v>1779</v>
+        <v>1783</v>
       </c>
       <c r="CF29" t="s">
         <v>166</v>
       </c>
       <c r="CM29" t="s">
-        <v>1847</v>
+        <v>1851</v>
       </c>
       <c r="CN29" t="s">
         <v>166</v>
       </c>
       <c r="CO29" t="s">
-        <v>1880</v>
+        <v>1884</v>
       </c>
       <c r="CP29" t="s">
         <v>166</v>
@@ -13476,13 +13488,13 @@
         <v>166</v>
       </c>
       <c r="AU30" t="s">
-        <v>1359</v>
+        <v>1362</v>
       </c>
       <c r="AV30" t="s">
         <v>166</v>
       </c>
       <c r="BA30" t="s">
-        <v>1420</v>
+        <v>1424</v>
       </c>
       <c r="BB30" t="s">
         <v>166</v>
@@ -13494,7 +13506,7 @@
         <v>166</v>
       </c>
       <c r="BI30" t="s">
-        <v>1359</v>
+        <v>1362</v>
       </c>
       <c r="BJ30" t="s">
         <v>166</v>
@@ -13512,43 +13524,43 @@
         <v>166</v>
       </c>
       <c r="BQ30" t="s">
-        <v>1359</v>
+        <v>1362</v>
       </c>
       <c r="BR30" t="s">
         <v>166</v>
       </c>
       <c r="BS30" t="s">
-        <v>1359</v>
+        <v>1362</v>
       </c>
       <c r="BT30" t="s">
         <v>166</v>
       </c>
       <c r="BU30" t="s">
-        <v>1684</v>
+        <v>1688</v>
       </c>
       <c r="BV30" t="s">
         <v>166</v>
       </c>
       <c r="BW30" t="s">
-        <v>1720</v>
+        <v>1724</v>
       </c>
       <c r="BX30" t="s">
         <v>166</v>
       </c>
       <c r="CE30" t="s">
-        <v>1714</v>
+        <v>1718</v>
       </c>
       <c r="CF30" t="s">
         <v>166</v>
       </c>
       <c r="CM30" t="s">
-        <v>1848</v>
+        <v>1852</v>
       </c>
       <c r="CN30" t="s">
         <v>166</v>
       </c>
       <c r="CO30" t="s">
-        <v>1881</v>
+        <v>1885</v>
       </c>
       <c r="CP30" t="s">
         <v>166</v>
@@ -13586,13 +13598,13 @@
         <v>166</v>
       </c>
       <c r="AU31" t="s">
-        <v>1360</v>
+        <v>1363</v>
       </c>
       <c r="AV31" t="s">
         <v>166</v>
       </c>
       <c r="BA31" t="s">
-        <v>1421</v>
+        <v>1425</v>
       </c>
       <c r="BB31" t="s">
         <v>166</v>
@@ -13604,7 +13616,7 @@
         <v>166</v>
       </c>
       <c r="BI31" t="s">
-        <v>1360</v>
+        <v>1363</v>
       </c>
       <c r="BJ31" t="s">
         <v>166</v>
@@ -13622,43 +13634,43 @@
         <v>166</v>
       </c>
       <c r="BQ31" t="s">
-        <v>1360</v>
+        <v>1363</v>
       </c>
       <c r="BR31" t="s">
         <v>166</v>
       </c>
       <c r="BS31" t="s">
-        <v>1360</v>
+        <v>1363</v>
       </c>
       <c r="BT31" t="s">
         <v>166</v>
       </c>
       <c r="BU31" t="s">
-        <v>1685</v>
+        <v>1689</v>
       </c>
       <c r="BV31" t="s">
         <v>166</v>
       </c>
       <c r="BW31" t="s">
+        <v>1725</v>
+      </c>
+      <c r="BX31" t="s">
+        <v>166</v>
+      </c>
+      <c r="CE31" t="s">
         <v>1721</v>
       </c>
-      <c r="BX31" t="s">
-        <v>166</v>
-      </c>
-      <c r="CE31" t="s">
-        <v>1717</v>
-      </c>
       <c r="CF31" t="s">
         <v>166</v>
       </c>
       <c r="CM31" t="s">
-        <v>1849</v>
+        <v>1853</v>
       </c>
       <c r="CN31" t="s">
         <v>166</v>
       </c>
       <c r="CO31" t="s">
-        <v>1882</v>
+        <v>1886</v>
       </c>
       <c r="CP31" t="s">
         <v>166</v>
@@ -13696,13 +13708,13 @@
         <v>166</v>
       </c>
       <c r="AU32" t="s">
-        <v>1361</v>
+        <v>1364</v>
       </c>
       <c r="AV32" t="s">
         <v>166</v>
       </c>
       <c r="BA32" t="s">
-        <v>1422</v>
+        <v>1426</v>
       </c>
       <c r="BB32" t="s">
         <v>166</v>
@@ -13714,7 +13726,7 @@
         <v>166</v>
       </c>
       <c r="BI32" t="s">
-        <v>1361</v>
+        <v>1364</v>
       </c>
       <c r="BJ32" t="s">
         <v>166</v>
@@ -13732,13 +13744,13 @@
         <v>166</v>
       </c>
       <c r="BQ32" t="s">
-        <v>1361</v>
+        <v>1364</v>
       </c>
       <c r="BR32" t="s">
         <v>166</v>
       </c>
       <c r="BS32" t="s">
-        <v>1361</v>
+        <v>1364</v>
       </c>
       <c r="BT32" t="s">
         <v>166</v>
@@ -13750,25 +13762,25 @@
         <v>166</v>
       </c>
       <c r="BW32" t="s">
-        <v>1722</v>
+        <v>1726</v>
       </c>
       <c r="BX32" t="s">
         <v>166</v>
       </c>
       <c r="CE32" t="s">
-        <v>1780</v>
+        <v>1784</v>
       </c>
       <c r="CF32" t="s">
         <v>166</v>
       </c>
       <c r="CM32" t="s">
-        <v>1850</v>
+        <v>1854</v>
       </c>
       <c r="CN32" t="s">
         <v>166</v>
       </c>
       <c r="CO32" t="s">
-        <v>1883</v>
+        <v>1887</v>
       </c>
       <c r="CP32" t="s">
         <v>166</v>
@@ -13806,13 +13818,13 @@
         <v>166</v>
       </c>
       <c r="AU33" t="s">
-        <v>1362</v>
+        <v>1365</v>
       </c>
       <c r="AV33" t="s">
         <v>166</v>
       </c>
       <c r="BA33" t="s">
-        <v>1423</v>
+        <v>1427</v>
       </c>
       <c r="BB33" t="s">
         <v>166</v>
@@ -13824,7 +13836,7 @@
         <v>166</v>
       </c>
       <c r="BI33" t="s">
-        <v>1362</v>
+        <v>1365</v>
       </c>
       <c r="BJ33" t="s">
         <v>166</v>
@@ -13842,43 +13854,43 @@
         <v>166</v>
       </c>
       <c r="BQ33" t="s">
-        <v>1362</v>
+        <v>1365</v>
       </c>
       <c r="BR33" t="s">
         <v>166</v>
       </c>
       <c r="BS33" t="s">
-        <v>1362</v>
+        <v>1365</v>
       </c>
       <c r="BT33" t="s">
         <v>166</v>
       </c>
       <c r="BU33" t="s">
-        <v>1686</v>
+        <v>1690</v>
       </c>
       <c r="BV33" t="s">
         <v>166</v>
       </c>
       <c r="BW33" t="s">
-        <v>1723</v>
+        <v>1727</v>
       </c>
       <c r="BX33" t="s">
         <v>166</v>
       </c>
       <c r="CE33" t="s">
-        <v>1733</v>
+        <v>1737</v>
       </c>
       <c r="CF33" t="s">
         <v>166</v>
       </c>
       <c r="CM33" t="s">
-        <v>1851</v>
+        <v>1855</v>
       </c>
       <c r="CN33" t="s">
         <v>166</v>
       </c>
       <c r="CO33" t="s">
-        <v>1884</v>
+        <v>1888</v>
       </c>
       <c r="CP33" t="s">
         <v>166</v>
@@ -13916,13 +13928,13 @@
         <v>166</v>
       </c>
       <c r="AU34" t="s">
-        <v>1363</v>
+        <v>1366</v>
       </c>
       <c r="AV34" t="s">
         <v>166</v>
       </c>
       <c r="BA34" t="s">
-        <v>1424</v>
+        <v>1428</v>
       </c>
       <c r="BB34" t="s">
         <v>166</v>
@@ -13934,7 +13946,7 @@
         <v>166</v>
       </c>
       <c r="BI34" t="s">
-        <v>1363</v>
+        <v>1366</v>
       </c>
       <c r="BJ34" t="s">
         <v>166</v>
@@ -13952,19 +13964,19 @@
         <v>166</v>
       </c>
       <c r="BQ34" t="s">
-        <v>1363</v>
+        <v>1366</v>
       </c>
       <c r="BR34" t="s">
         <v>166</v>
       </c>
       <c r="BS34" t="s">
-        <v>1363</v>
+        <v>1366</v>
       </c>
       <c r="BT34" t="s">
         <v>166</v>
       </c>
       <c r="BU34" t="s">
-        <v>1687</v>
+        <v>1691</v>
       </c>
       <c r="BV34" t="s">
         <v>166</v>
@@ -13976,19 +13988,19 @@
         <v>166</v>
       </c>
       <c r="CE34" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="CF34" t="s">
         <v>166</v>
       </c>
       <c r="CM34" t="s">
-        <v>1852</v>
+        <v>1856</v>
       </c>
       <c r="CN34" t="s">
         <v>166</v>
       </c>
       <c r="CO34" t="s">
-        <v>1885</v>
+        <v>1889</v>
       </c>
       <c r="CP34" t="s">
         <v>166</v>
@@ -14026,13 +14038,13 @@
         <v>166</v>
       </c>
       <c r="AU35" t="s">
-        <v>1364</v>
+        <v>1367</v>
       </c>
       <c r="AV35" t="s">
         <v>166</v>
       </c>
       <c r="BA35" t="s">
-        <v>1425</v>
+        <v>1429</v>
       </c>
       <c r="BB35" t="s">
         <v>166</v>
@@ -14044,7 +14056,7 @@
         <v>166</v>
       </c>
       <c r="BI35" t="s">
-        <v>1364</v>
+        <v>1367</v>
       </c>
       <c r="BJ35" t="s">
         <v>166</v>
@@ -14062,43 +14074,43 @@
         <v>166</v>
       </c>
       <c r="BQ35" t="s">
-        <v>1364</v>
+        <v>1367</v>
       </c>
       <c r="BR35" t="s">
         <v>166</v>
       </c>
       <c r="BS35" t="s">
-        <v>1364</v>
+        <v>1367</v>
       </c>
       <c r="BT35" t="s">
         <v>166</v>
       </c>
       <c r="BU35" t="s">
-        <v>1688</v>
+        <v>1692</v>
       </c>
       <c r="BV35" t="s">
         <v>166</v>
       </c>
       <c r="BW35" t="s">
-        <v>1724</v>
+        <v>1728</v>
       </c>
       <c r="BX35" t="s">
         <v>166</v>
       </c>
       <c r="CE35" t="s">
-        <v>1782</v>
+        <v>1786</v>
       </c>
       <c r="CF35" t="s">
         <v>166</v>
       </c>
       <c r="CM35" t="s">
-        <v>1853</v>
+        <v>1857</v>
       </c>
       <c r="CN35" t="s">
         <v>166</v>
       </c>
       <c r="CO35" t="s">
-        <v>1886</v>
+        <v>1890</v>
       </c>
       <c r="CP35" t="s">
         <v>166</v>
@@ -14136,13 +14148,13 @@
         <v>166</v>
       </c>
       <c r="AU36" t="s">
-        <v>1365</v>
+        <v>1368</v>
       </c>
       <c r="AV36" t="s">
         <v>166</v>
       </c>
       <c r="BA36" t="s">
-        <v>1426</v>
+        <v>1430</v>
       </c>
       <c r="BB36" t="s">
         <v>166</v>
@@ -14154,7 +14166,7 @@
         <v>166</v>
       </c>
       <c r="BI36" t="s">
-        <v>1365</v>
+        <v>1368</v>
       </c>
       <c r="BJ36" t="s">
         <v>166</v>
@@ -14172,43 +14184,43 @@
         <v>166</v>
       </c>
       <c r="BQ36" t="s">
-        <v>1365</v>
+        <v>1368</v>
       </c>
       <c r="BR36" t="s">
         <v>166</v>
       </c>
       <c r="BS36" t="s">
-        <v>1365</v>
+        <v>1368</v>
       </c>
       <c r="BT36" t="s">
         <v>166</v>
       </c>
       <c r="BU36" t="s">
-        <v>1689</v>
+        <v>1693</v>
       </c>
       <c r="BV36" t="s">
         <v>166</v>
       </c>
       <c r="BW36" t="s">
-        <v>1725</v>
+        <v>1729</v>
       </c>
       <c r="BX36" t="s">
         <v>166</v>
       </c>
       <c r="CE36" t="s">
-        <v>1726</v>
+        <v>1730</v>
       </c>
       <c r="CF36" t="s">
         <v>166</v>
       </c>
       <c r="CM36" t="s">
-        <v>1854</v>
+        <v>1858</v>
       </c>
       <c r="CN36" t="s">
         <v>166</v>
       </c>
       <c r="CO36" t="s">
-        <v>1887</v>
+        <v>1891</v>
       </c>
       <c r="CP36" t="s">
         <v>166</v>
@@ -14246,13 +14258,13 @@
         <v>166</v>
       </c>
       <c r="AU37" t="s">
-        <v>1366</v>
+        <v>1369</v>
       </c>
       <c r="AV37" t="s">
         <v>166</v>
       </c>
       <c r="BA37" t="s">
-        <v>1427</v>
+        <v>1431</v>
       </c>
       <c r="BB37" t="s">
         <v>166</v>
@@ -14264,7 +14276,7 @@
         <v>166</v>
       </c>
       <c r="BI37" t="s">
-        <v>1366</v>
+        <v>1369</v>
       </c>
       <c r="BJ37" t="s">
         <v>166</v>
@@ -14282,25 +14294,25 @@
         <v>166</v>
       </c>
       <c r="BQ37" t="s">
-        <v>1366</v>
+        <v>1369</v>
       </c>
       <c r="BR37" t="s">
         <v>166</v>
       </c>
       <c r="BS37" t="s">
-        <v>1366</v>
+        <v>1369</v>
       </c>
       <c r="BT37" t="s">
         <v>166</v>
       </c>
       <c r="BU37" t="s">
-        <v>1690</v>
+        <v>1694</v>
       </c>
       <c r="BV37" t="s">
         <v>166</v>
       </c>
       <c r="BW37" t="s">
-        <v>1726</v>
+        <v>1730</v>
       </c>
       <c r="BX37" t="s">
         <v>166</v>
@@ -14312,7 +14324,7 @@
         <v>166</v>
       </c>
       <c r="CO37" t="s">
-        <v>1888</v>
+        <v>1892</v>
       </c>
       <c r="CP37" t="s">
         <v>166</v>
@@ -14350,13 +14362,13 @@
         <v>166</v>
       </c>
       <c r="AU38" t="s">
-        <v>1367</v>
+        <v>1370</v>
       </c>
       <c r="AV38" t="s">
         <v>166</v>
       </c>
       <c r="BA38" t="s">
-        <v>1428</v>
+        <v>1432</v>
       </c>
       <c r="BB38" t="s">
         <v>166</v>
@@ -14368,7 +14380,7 @@
         <v>166</v>
       </c>
       <c r="BI38" t="s">
-        <v>1367</v>
+        <v>1370</v>
       </c>
       <c r="BJ38" t="s">
         <v>166</v>
@@ -14386,25 +14398,25 @@
         <v>166</v>
       </c>
       <c r="BQ38" t="s">
-        <v>1367</v>
+        <v>1370</v>
       </c>
       <c r="BR38" t="s">
         <v>166</v>
       </c>
       <c r="BS38" t="s">
-        <v>1367</v>
+        <v>1370</v>
       </c>
       <c r="BT38" t="s">
         <v>166</v>
       </c>
       <c r="BU38" t="s">
-        <v>1691</v>
+        <v>1695</v>
       </c>
       <c r="BV38" t="s">
         <v>166</v>
       </c>
       <c r="BW38" t="s">
-        <v>1727</v>
+        <v>1731</v>
       </c>
       <c r="BX38" t="s">
         <v>166</v>
@@ -14416,7 +14428,7 @@
         <v>166</v>
       </c>
       <c r="CO38" t="s">
-        <v>1889</v>
+        <v>1893</v>
       </c>
       <c r="CP38" t="s">
         <v>166</v>
@@ -14454,13 +14466,13 @@
         <v>166</v>
       </c>
       <c r="AU39" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="AV39" t="s">
         <v>166</v>
       </c>
       <c r="BA39" t="s">
-        <v>1429</v>
+        <v>1433</v>
       </c>
       <c r="BB39" t="s">
         <v>166</v>
@@ -14472,7 +14484,7 @@
         <v>166</v>
       </c>
       <c r="BI39" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="BJ39" t="s">
         <v>166</v>
@@ -14490,37 +14502,37 @@
         <v>166</v>
       </c>
       <c r="BQ39" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="BR39" t="s">
         <v>166</v>
       </c>
       <c r="BS39" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="BT39" t="s">
         <v>166</v>
       </c>
       <c r="BU39" t="s">
-        <v>1692</v>
+        <v>1696</v>
       </c>
       <c r="BV39" t="s">
         <v>166</v>
       </c>
       <c r="BW39" t="s">
-        <v>1728</v>
+        <v>1732</v>
       </c>
       <c r="BX39" t="s">
         <v>166</v>
       </c>
       <c r="CE39" t="s">
-        <v>1783</v>
+        <v>1787</v>
       </c>
       <c r="CF39" t="s">
         <v>166</v>
       </c>
       <c r="CO39" t="s">
-        <v>1890</v>
+        <v>1894</v>
       </c>
       <c r="CP39" t="s">
         <v>166</v>
@@ -14558,13 +14570,13 @@
         <v>166</v>
       </c>
       <c r="AU40" t="s">
-        <v>1369</v>
+        <v>1372</v>
       </c>
       <c r="AV40" t="s">
         <v>166</v>
       </c>
       <c r="BA40" t="s">
-        <v>1430</v>
+        <v>1434</v>
       </c>
       <c r="BB40" t="s">
         <v>166</v>
@@ -14576,7 +14588,7 @@
         <v>166</v>
       </c>
       <c r="BI40" t="s">
-        <v>1369</v>
+        <v>1372</v>
       </c>
       <c r="BJ40" t="s">
         <v>166</v>
@@ -14594,25 +14606,25 @@
         <v>166</v>
       </c>
       <c r="BQ40" t="s">
-        <v>1369</v>
+        <v>1372</v>
       </c>
       <c r="BR40" t="s">
         <v>166</v>
       </c>
       <c r="BS40" t="s">
-        <v>1369</v>
+        <v>1372</v>
       </c>
       <c r="BT40" t="s">
         <v>166</v>
       </c>
       <c r="BU40" t="s">
-        <v>1693</v>
+        <v>1697</v>
       </c>
       <c r="BV40" t="s">
         <v>166</v>
       </c>
       <c r="BW40" t="s">
-        <v>1729</v>
+        <v>1733</v>
       </c>
       <c r="BX40" t="s">
         <v>166</v>
@@ -14624,7 +14636,7 @@
         <v>166</v>
       </c>
       <c r="CO40" t="s">
-        <v>1891</v>
+        <v>1895</v>
       </c>
       <c r="CP40" t="s">
         <v>166</v>
@@ -14662,13 +14674,13 @@
         <v>166</v>
       </c>
       <c r="AU41" t="s">
-        <v>1370</v>
+        <v>1373</v>
       </c>
       <c r="AV41" t="s">
         <v>166</v>
       </c>
       <c r="BA41" t="s">
-        <v>1431</v>
+        <v>1435</v>
       </c>
       <c r="BB41" t="s">
         <v>166</v>
@@ -14680,7 +14692,7 @@
         <v>166</v>
       </c>
       <c r="BI41" t="s">
-        <v>1370</v>
+        <v>1373</v>
       </c>
       <c r="BJ41" t="s">
         <v>166</v>
@@ -14698,37 +14710,37 @@
         <v>166</v>
       </c>
       <c r="BQ41" t="s">
-        <v>1370</v>
+        <v>1373</v>
       </c>
       <c r="BR41" t="s">
         <v>166</v>
       </c>
       <c r="BS41" t="s">
-        <v>1370</v>
+        <v>1373</v>
       </c>
       <c r="BT41" t="s">
         <v>166</v>
       </c>
       <c r="BU41" t="s">
-        <v>1694</v>
+        <v>1698</v>
       </c>
       <c r="BV41" t="s">
         <v>166</v>
       </c>
       <c r="BW41" t="s">
-        <v>1730</v>
+        <v>1734</v>
       </c>
       <c r="BX41" t="s">
         <v>166</v>
       </c>
       <c r="CE41" t="s">
-        <v>1730</v>
+        <v>1734</v>
       </c>
       <c r="CF41" t="s">
         <v>166</v>
       </c>
       <c r="CO41" t="s">
-        <v>1892</v>
+        <v>1896</v>
       </c>
       <c r="CP41" t="s">
         <v>166</v>
@@ -14766,13 +14778,13 @@
         <v>166</v>
       </c>
       <c r="AU42" t="s">
-        <v>1371</v>
+        <v>1374</v>
       </c>
       <c r="AV42" t="s">
         <v>166</v>
       </c>
       <c r="BA42" t="s">
-        <v>1432</v>
+        <v>1436</v>
       </c>
       <c r="BB42" t="s">
         <v>166</v>
@@ -14784,7 +14796,7 @@
         <v>166</v>
       </c>
       <c r="BI42" t="s">
-        <v>1371</v>
+        <v>1374</v>
       </c>
       <c r="BJ42" t="s">
         <v>166</v>
@@ -14802,37 +14814,37 @@
         <v>166</v>
       </c>
       <c r="BQ42" t="s">
-        <v>1371</v>
+        <v>1374</v>
       </c>
       <c r="BR42" t="s">
         <v>166</v>
       </c>
       <c r="BS42" t="s">
-        <v>1371</v>
+        <v>1374</v>
       </c>
       <c r="BT42" t="s">
         <v>166</v>
       </c>
       <c r="BU42" t="s">
-        <v>1695</v>
+        <v>1699</v>
       </c>
       <c r="BV42" t="s">
         <v>166</v>
       </c>
       <c r="BW42" t="s">
-        <v>1731</v>
+        <v>1735</v>
       </c>
       <c r="BX42" t="s">
         <v>166</v>
       </c>
       <c r="CE42" t="s">
-        <v>1736</v>
+        <v>1740</v>
       </c>
       <c r="CF42" t="s">
         <v>166</v>
       </c>
       <c r="CO42" t="s">
-        <v>1893</v>
+        <v>1897</v>
       </c>
       <c r="CP42" t="s">
         <v>166</v>
@@ -14870,13 +14882,13 @@
         <v>166</v>
       </c>
       <c r="AU43" t="s">
-        <v>1372</v>
+        <v>1375</v>
       </c>
       <c r="AV43" t="s">
         <v>166</v>
       </c>
       <c r="BA43" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
       <c r="BB43" t="s">
         <v>166</v>
@@ -14888,7 +14900,7 @@
         <v>166</v>
       </c>
       <c r="BI43" t="s">
-        <v>1372</v>
+        <v>1375</v>
       </c>
       <c r="BJ43" t="s">
         <v>166</v>
@@ -14906,13 +14918,13 @@
         <v>166</v>
       </c>
       <c r="BQ43" t="s">
-        <v>1372</v>
+        <v>1375</v>
       </c>
       <c r="BR43" t="s">
         <v>166</v>
       </c>
       <c r="BS43" t="s">
-        <v>1372</v>
+        <v>1375</v>
       </c>
       <c r="BT43" t="s">
         <v>166</v>
@@ -14924,19 +14936,19 @@
         <v>166</v>
       </c>
       <c r="BW43" t="s">
-        <v>1732</v>
+        <v>1736</v>
       </c>
       <c r="BX43" t="s">
         <v>166</v>
       </c>
       <c r="CE43" t="s">
-        <v>1732</v>
+        <v>1736</v>
       </c>
       <c r="CF43" t="s">
         <v>166</v>
       </c>
       <c r="CO43" t="s">
-        <v>1894</v>
+        <v>1898</v>
       </c>
       <c r="CP43" t="s">
         <v>166</v>
@@ -14974,13 +14986,13 @@
         <v>166</v>
       </c>
       <c r="AU44" t="s">
-        <v>1373</v>
+        <v>1376</v>
       </c>
       <c r="AV44" t="s">
         <v>166</v>
       </c>
       <c r="BA44" t="s">
-        <v>1434</v>
+        <v>1438</v>
       </c>
       <c r="BB44" t="s">
         <v>166</v>
@@ -14992,7 +15004,7 @@
         <v>166</v>
       </c>
       <c r="BI44" t="s">
-        <v>1373</v>
+        <v>1376</v>
       </c>
       <c r="BJ44" t="s">
         <v>166</v>
@@ -15010,25 +15022,25 @@
         <v>166</v>
       </c>
       <c r="BQ44" t="s">
-        <v>1373</v>
+        <v>1376</v>
       </c>
       <c r="BR44" t="s">
         <v>166</v>
       </c>
       <c r="BS44" t="s">
-        <v>1373</v>
+        <v>1376</v>
       </c>
       <c r="BT44" t="s">
         <v>166</v>
       </c>
       <c r="BW44" t="s">
-        <v>1733</v>
+        <v>1737</v>
       </c>
       <c r="BX44" t="s">
         <v>166</v>
       </c>
       <c r="CO44" t="s">
-        <v>1895</v>
+        <v>1899</v>
       </c>
       <c r="CP44" t="s">
         <v>166</v>
@@ -15066,13 +15078,13 @@
         <v>166</v>
       </c>
       <c r="AU45" t="s">
-        <v>1374</v>
+        <v>1377</v>
       </c>
       <c r="AV45" t="s">
         <v>166</v>
       </c>
       <c r="BA45" t="s">
-        <v>1435</v>
+        <v>1439</v>
       </c>
       <c r="BB45" t="s">
         <v>166</v>
@@ -15084,7 +15096,7 @@
         <v>166</v>
       </c>
       <c r="BI45" t="s">
-        <v>1374</v>
+        <v>1377</v>
       </c>
       <c r="BJ45" t="s">
         <v>166</v>
@@ -15102,25 +15114,25 @@
         <v>166</v>
       </c>
       <c r="BQ45" t="s">
-        <v>1374</v>
+        <v>1377</v>
       </c>
       <c r="BR45" t="s">
         <v>166</v>
       </c>
       <c r="BS45" t="s">
-        <v>1374</v>
+        <v>1377</v>
       </c>
       <c r="BT45" t="s">
         <v>166</v>
       </c>
       <c r="BW45" t="s">
-        <v>1734</v>
+        <v>1738</v>
       </c>
       <c r="BX45" t="s">
         <v>166</v>
       </c>
       <c r="CO45" t="s">
-        <v>1896</v>
+        <v>1900</v>
       </c>
       <c r="CP45" t="s">
         <v>166</v>
@@ -15158,13 +15170,13 @@
         <v>166</v>
       </c>
       <c r="AU46" t="s">
-        <v>1375</v>
+        <v>1378</v>
       </c>
       <c r="AV46" t="s">
         <v>166</v>
       </c>
       <c r="BA46" t="s">
-        <v>1436</v>
+        <v>1440</v>
       </c>
       <c r="BB46" t="s">
         <v>166</v>
@@ -15176,7 +15188,7 @@
         <v>166</v>
       </c>
       <c r="BI46" t="s">
-        <v>1375</v>
+        <v>1378</v>
       </c>
       <c r="BJ46" t="s">
         <v>166</v>
@@ -15194,25 +15206,25 @@
         <v>166</v>
       </c>
       <c r="BQ46" t="s">
-        <v>1375</v>
+        <v>1378</v>
       </c>
       <c r="BR46" t="s">
         <v>166</v>
       </c>
       <c r="BS46" t="s">
-        <v>1375</v>
+        <v>1378</v>
       </c>
       <c r="BT46" t="s">
         <v>166</v>
       </c>
       <c r="BW46" t="s">
-        <v>1735</v>
+        <v>1739</v>
       </c>
       <c r="BX46" t="s">
         <v>166</v>
       </c>
       <c r="CO46" t="s">
-        <v>1897</v>
+        <v>1901</v>
       </c>
       <c r="CP46" t="s">
         <v>166</v>
@@ -15250,13 +15262,13 @@
         <v>166</v>
       </c>
       <c r="AU47" t="s">
-        <v>1376</v>
+        <v>1379</v>
       </c>
       <c r="AV47" t="s">
         <v>166</v>
       </c>
       <c r="BA47" t="s">
-        <v>1437</v>
+        <v>1441</v>
       </c>
       <c r="BB47" t="s">
         <v>166</v>
@@ -15268,7 +15280,7 @@
         <v>166</v>
       </c>
       <c r="BI47" t="s">
-        <v>1376</v>
+        <v>1379</v>
       </c>
       <c r="BJ47" t="s">
         <v>166</v>
@@ -15286,19 +15298,19 @@
         <v>166</v>
       </c>
       <c r="BQ47" t="s">
-        <v>1376</v>
+        <v>1379</v>
       </c>
       <c r="BR47" t="s">
         <v>166</v>
       </c>
       <c r="BS47" t="s">
-        <v>1376</v>
+        <v>1379</v>
       </c>
       <c r="BT47" t="s">
         <v>166</v>
       </c>
       <c r="CO47" t="s">
-        <v>1898</v>
+        <v>1902</v>
       </c>
       <c r="CP47" t="s">
         <v>166</v>
@@ -15336,13 +15348,13 @@
         <v>166</v>
       </c>
       <c r="AU48" t="s">
-        <v>1377</v>
+        <v>1380</v>
       </c>
       <c r="AV48" t="s">
         <v>166</v>
       </c>
       <c r="BA48" t="s">
-        <v>1438</v>
+        <v>1442</v>
       </c>
       <c r="BB48" t="s">
         <v>166</v>
@@ -15354,7 +15366,7 @@
         <v>166</v>
       </c>
       <c r="BI48" t="s">
-        <v>1377</v>
+        <v>1380</v>
       </c>
       <c r="BJ48" t="s">
         <v>166</v>
@@ -15372,19 +15384,19 @@
         <v>166</v>
       </c>
       <c r="BQ48" t="s">
-        <v>1377</v>
+        <v>1380</v>
       </c>
       <c r="BR48" t="s">
         <v>166</v>
       </c>
       <c r="BS48" t="s">
-        <v>1377</v>
+        <v>1380</v>
       </c>
       <c r="BT48" t="s">
         <v>166</v>
       </c>
       <c r="CO48" t="s">
-        <v>1899</v>
+        <v>1903</v>
       </c>
       <c r="CP48" t="s">
         <v>166</v>
@@ -15422,13 +15434,13 @@
         <v>166</v>
       </c>
       <c r="AU49" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="AV49" t="s">
         <v>166</v>
       </c>
       <c r="BA49" t="s">
-        <v>1439</v>
+        <v>1443</v>
       </c>
       <c r="BB49" t="s">
         <v>166</v>
@@ -15440,7 +15452,7 @@
         <v>166</v>
       </c>
       <c r="BI49" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="BJ49" t="s">
         <v>166</v>
@@ -15458,19 +15470,19 @@
         <v>166</v>
       </c>
       <c r="BQ49" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="BR49" t="s">
         <v>166</v>
       </c>
       <c r="BS49" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="BT49" t="s">
         <v>166</v>
       </c>
       <c r="CO49" t="s">
-        <v>1900</v>
+        <v>1904</v>
       </c>
       <c r="CP49" t="s">
         <v>166</v>
@@ -15508,13 +15520,13 @@
         <v>166</v>
       </c>
       <c r="AU50" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="AV50" t="s">
         <v>166</v>
       </c>
       <c r="BA50" t="s">
-        <v>1440</v>
+        <v>1444</v>
       </c>
       <c r="BB50" t="s">
         <v>166</v>
@@ -15526,7 +15538,7 @@
         <v>166</v>
       </c>
       <c r="BI50" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="BJ50" t="s">
         <v>166</v>
@@ -15544,19 +15556,19 @@
         <v>166</v>
       </c>
       <c r="BQ50" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="BR50" t="s">
         <v>166</v>
       </c>
       <c r="BS50" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="BT50" t="s">
         <v>166</v>
       </c>
       <c r="CO50" t="s">
-        <v>1901</v>
+        <v>1905</v>
       </c>
       <c r="CP50" t="s">
         <v>166</v>
@@ -15594,13 +15606,13 @@
         <v>166</v>
       </c>
       <c r="AU51" t="s">
-        <v>1380</v>
+        <v>1383</v>
       </c>
       <c r="AV51" t="s">
         <v>166</v>
       </c>
       <c r="BA51" t="s">
-        <v>1441</v>
+        <v>1445</v>
       </c>
       <c r="BB51" t="s">
         <v>166</v>
@@ -15612,7 +15624,7 @@
         <v>166</v>
       </c>
       <c r="BI51" t="s">
-        <v>1380</v>
+        <v>1383</v>
       </c>
       <c r="BJ51" t="s">
         <v>166</v>
@@ -15630,19 +15642,19 @@
         <v>166</v>
       </c>
       <c r="BQ51" t="s">
-        <v>1380</v>
+        <v>1383</v>
       </c>
       <c r="BR51" t="s">
         <v>166</v>
       </c>
       <c r="BS51" t="s">
-        <v>1380</v>
+        <v>1383</v>
       </c>
       <c r="BT51" t="s">
         <v>166</v>
       </c>
       <c r="CO51" t="s">
-        <v>1902</v>
+        <v>1906</v>
       </c>
       <c r="CP51" t="s">
         <v>166</v>
@@ -15680,13 +15692,13 @@
         <v>166</v>
       </c>
       <c r="AU52" t="s">
-        <v>1381</v>
+        <v>1384</v>
       </c>
       <c r="AV52" t="s">
         <v>166</v>
       </c>
       <c r="BA52" t="s">
-        <v>1442</v>
+        <v>1446</v>
       </c>
       <c r="BB52" t="s">
         <v>166</v>
@@ -15698,7 +15710,7 @@
         <v>166</v>
       </c>
       <c r="BI52" t="s">
-        <v>1381</v>
+        <v>1384</v>
       </c>
       <c r="BJ52" t="s">
         <v>166</v>
@@ -15716,19 +15728,19 @@
         <v>166</v>
       </c>
       <c r="BQ52" t="s">
-        <v>1381</v>
+        <v>1384</v>
       </c>
       <c r="BR52" t="s">
         <v>166</v>
       </c>
       <c r="BS52" t="s">
-        <v>1381</v>
+        <v>1384</v>
       </c>
       <c r="BT52" t="s">
         <v>166</v>
       </c>
       <c r="CO52" t="s">
-        <v>1903</v>
+        <v>1907</v>
       </c>
       <c r="CP52" t="s">
         <v>166</v>
@@ -15766,13 +15778,13 @@
         <v>166</v>
       </c>
       <c r="AU53" t="s">
-        <v>1382</v>
+        <v>1385</v>
       </c>
       <c r="AV53" t="s">
         <v>166</v>
       </c>
       <c r="BA53" t="s">
-        <v>1443</v>
+        <v>1447</v>
       </c>
       <c r="BB53" t="s">
         <v>166</v>
@@ -15784,7 +15796,7 @@
         <v>166</v>
       </c>
       <c r="BI53" t="s">
-        <v>1382</v>
+        <v>1385</v>
       </c>
       <c r="BJ53" t="s">
         <v>166</v>
@@ -15802,19 +15814,19 @@
         <v>166</v>
       </c>
       <c r="BQ53" t="s">
-        <v>1382</v>
+        <v>1385</v>
       </c>
       <c r="BR53" t="s">
         <v>166</v>
       </c>
       <c r="BS53" t="s">
-        <v>1382</v>
+        <v>1385</v>
       </c>
       <c r="BT53" t="s">
         <v>166</v>
       </c>
       <c r="CO53" t="s">
-        <v>1904</v>
+        <v>1908</v>
       </c>
       <c r="CP53" t="s">
         <v>166</v>
@@ -15852,13 +15864,13 @@
         <v>166</v>
       </c>
       <c r="AU54" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="AV54" t="s">
         <v>166</v>
       </c>
       <c r="BA54" t="s">
-        <v>1444</v>
+        <v>1448</v>
       </c>
       <c r="BB54" t="s">
         <v>166</v>
@@ -15870,7 +15882,7 @@
         <v>166</v>
       </c>
       <c r="BI54" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="BJ54" t="s">
         <v>166</v>
@@ -15888,19 +15900,19 @@
         <v>166</v>
       </c>
       <c r="BQ54" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="BR54" t="s">
         <v>166</v>
       </c>
       <c r="BS54" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="BT54" t="s">
         <v>166</v>
       </c>
       <c r="CO54" t="s">
-        <v>1905</v>
+        <v>1909</v>
       </c>
       <c r="CP54" t="s">
         <v>166</v>
@@ -15938,13 +15950,13 @@
         <v>166</v>
       </c>
       <c r="AU55" t="s">
-        <v>1384</v>
+        <v>1387</v>
       </c>
       <c r="AV55" t="s">
         <v>166</v>
       </c>
       <c r="BA55" t="s">
-        <v>1445</v>
+        <v>1449</v>
       </c>
       <c r="BB55" t="s">
         <v>166</v>
@@ -15956,7 +15968,7 @@
         <v>166</v>
       </c>
       <c r="BI55" t="s">
-        <v>1384</v>
+        <v>1387</v>
       </c>
       <c r="BJ55" t="s">
         <v>166</v>
@@ -15974,19 +15986,19 @@
         <v>166</v>
       </c>
       <c r="BQ55" t="s">
-        <v>1384</v>
+        <v>1387</v>
       </c>
       <c r="BR55" t="s">
         <v>166</v>
       </c>
       <c r="BS55" t="s">
-        <v>1384</v>
+        <v>1387</v>
       </c>
       <c r="BT55" t="s">
         <v>166</v>
       </c>
       <c r="CO55" t="s">
-        <v>1906</v>
+        <v>1910</v>
       </c>
       <c r="CP55" t="s">
         <v>166</v>
@@ -16024,13 +16036,13 @@
         <v>166</v>
       </c>
       <c r="AU56" t="s">
-        <v>1385</v>
+        <v>1388</v>
       </c>
       <c r="AV56" t="s">
         <v>166</v>
       </c>
       <c r="BA56" t="s">
-        <v>1446</v>
+        <v>1450</v>
       </c>
       <c r="BB56" t="s">
         <v>166</v>
@@ -16042,7 +16054,7 @@
         <v>166</v>
       </c>
       <c r="BI56" t="s">
-        <v>1385</v>
+        <v>1388</v>
       </c>
       <c r="BJ56" t="s">
         <v>166</v>
@@ -16060,19 +16072,19 @@
         <v>166</v>
       </c>
       <c r="BQ56" t="s">
-        <v>1385</v>
+        <v>1388</v>
       </c>
       <c r="BR56" t="s">
         <v>166</v>
       </c>
       <c r="BS56" t="s">
-        <v>1385</v>
+        <v>1388</v>
       </c>
       <c r="BT56" t="s">
         <v>166</v>
       </c>
       <c r="CO56" t="s">
-        <v>1907</v>
+        <v>1911</v>
       </c>
       <c r="CP56" t="s">
         <v>166</v>
@@ -16110,13 +16122,13 @@
         <v>166</v>
       </c>
       <c r="AU57" t="s">
-        <v>1386</v>
+        <v>1389</v>
       </c>
       <c r="AV57" t="s">
         <v>166</v>
       </c>
       <c r="BA57" t="s">
-        <v>1447</v>
+        <v>1451</v>
       </c>
       <c r="BB57" t="s">
         <v>166</v>
@@ -16128,7 +16140,7 @@
         <v>166</v>
       </c>
       <c r="BI57" t="s">
-        <v>1386</v>
+        <v>1389</v>
       </c>
       <c r="BJ57" t="s">
         <v>166</v>
@@ -16146,19 +16158,19 @@
         <v>166</v>
       </c>
       <c r="BQ57" t="s">
-        <v>1386</v>
+        <v>1389</v>
       </c>
       <c r="BR57" t="s">
         <v>166</v>
       </c>
       <c r="BS57" t="s">
-        <v>1386</v>
+        <v>1389</v>
       </c>
       <c r="BT57" t="s">
         <v>166</v>
       </c>
       <c r="CO57" t="s">
-        <v>1908</v>
+        <v>1912</v>
       </c>
       <c r="CP57" t="s">
         <v>166</v>
@@ -16196,13 +16208,13 @@
         <v>166</v>
       </c>
       <c r="AU58" t="s">
-        <v>1387</v>
+        <v>1390</v>
       </c>
       <c r="AV58" t="s">
         <v>166</v>
       </c>
       <c r="BA58" t="s">
-        <v>1448</v>
+        <v>1452</v>
       </c>
       <c r="BB58" t="s">
         <v>166</v>
@@ -16214,7 +16226,7 @@
         <v>166</v>
       </c>
       <c r="BI58" t="s">
-        <v>1387</v>
+        <v>1390</v>
       </c>
       <c r="BJ58" t="s">
         <v>166</v>
@@ -16232,19 +16244,19 @@
         <v>166</v>
       </c>
       <c r="BQ58" t="s">
-        <v>1387</v>
+        <v>1390</v>
       </c>
       <c r="BR58" t="s">
         <v>166</v>
       </c>
       <c r="BS58" t="s">
-        <v>1387</v>
+        <v>1390</v>
       </c>
       <c r="BT58" t="s">
         <v>166</v>
       </c>
       <c r="CO58" t="s">
-        <v>1909</v>
+        <v>1913</v>
       </c>
       <c r="CP58" t="s">
         <v>166</v>
@@ -16282,13 +16294,13 @@
         <v>166</v>
       </c>
       <c r="AU59" t="s">
-        <v>1388</v>
+        <v>1391</v>
       </c>
       <c r="AV59" t="s">
         <v>166</v>
       </c>
       <c r="BA59" t="s">
-        <v>1449</v>
+        <v>1453</v>
       </c>
       <c r="BB59" t="s">
         <v>166</v>
@@ -16300,7 +16312,7 @@
         <v>166</v>
       </c>
       <c r="BI59" t="s">
-        <v>1388</v>
+        <v>1391</v>
       </c>
       <c r="BJ59" t="s">
         <v>166</v>
@@ -16318,19 +16330,19 @@
         <v>166</v>
       </c>
       <c r="BQ59" t="s">
-        <v>1388</v>
+        <v>1391</v>
       </c>
       <c r="BR59" t="s">
         <v>166</v>
       </c>
       <c r="BS59" t="s">
-        <v>1388</v>
+        <v>1391</v>
       </c>
       <c r="BT59" t="s">
         <v>166</v>
       </c>
       <c r="CO59" t="s">
-        <v>1910</v>
+        <v>1914</v>
       </c>
       <c r="CP59" t="s">
         <v>166</v>
@@ -16368,13 +16380,13 @@
         <v>166</v>
       </c>
       <c r="AU60" t="s">
-        <v>1389</v>
+        <v>1392</v>
       </c>
       <c r="AV60" t="s">
         <v>166</v>
       </c>
       <c r="BA60" t="s">
-        <v>1381</v>
+        <v>1385</v>
       </c>
       <c r="BB60" t="s">
         <v>166</v>
@@ -16386,7 +16398,7 @@
         <v>166</v>
       </c>
       <c r="BI60" t="s">
-        <v>1389</v>
+        <v>1392</v>
       </c>
       <c r="BJ60" t="s">
         <v>166</v>
@@ -16404,19 +16416,19 @@
         <v>166</v>
       </c>
       <c r="BQ60" t="s">
-        <v>1389</v>
+        <v>1392</v>
       </c>
       <c r="BR60" t="s">
         <v>166</v>
       </c>
       <c r="BS60" t="s">
-        <v>1389</v>
+        <v>1392</v>
       </c>
       <c r="BT60" t="s">
         <v>166</v>
       </c>
       <c r="CO60" t="s">
-        <v>1911</v>
+        <v>1915</v>
       </c>
       <c r="CP60" t="s">
         <v>166</v>
@@ -16436,13 +16448,13 @@
         <v>166</v>
       </c>
       <c r="AU61" t="s">
-        <v>1390</v>
+        <v>1393</v>
       </c>
       <c r="AV61" t="s">
         <v>166</v>
       </c>
       <c r="BA61" t="s">
-        <v>1450</v>
+        <v>1454</v>
       </c>
       <c r="BB61" t="s">
         <v>166</v>
@@ -16454,7 +16466,7 @@
         <v>166</v>
       </c>
       <c r="BI61" t="s">
-        <v>1390</v>
+        <v>1393</v>
       </c>
       <c r="BJ61" t="s">
         <v>166</v>
@@ -16472,19 +16484,19 @@
         <v>166</v>
       </c>
       <c r="BQ61" t="s">
-        <v>1390</v>
+        <v>1393</v>
       </c>
       <c r="BR61" t="s">
         <v>166</v>
       </c>
       <c r="BS61" t="s">
-        <v>1390</v>
+        <v>1393</v>
       </c>
       <c r="BT61" t="s">
         <v>166</v>
       </c>
       <c r="CO61" t="s">
-        <v>1912</v>
+        <v>1916</v>
       </c>
       <c r="CP61" t="s">
         <v>166</v>
@@ -16498,13 +16510,13 @@
         <v>166</v>
       </c>
       <c r="AU62" t="s">
-        <v>1391</v>
+        <v>1394</v>
       </c>
       <c r="AV62" t="s">
         <v>166</v>
       </c>
       <c r="BA62" t="s">
-        <v>1451</v>
+        <v>1455</v>
       </c>
       <c r="BB62" t="s">
         <v>166</v>
@@ -16516,7 +16528,7 @@
         <v>166</v>
       </c>
       <c r="BI62" t="s">
-        <v>1391</v>
+        <v>1394</v>
       </c>
       <c r="BJ62" t="s">
         <v>166</v>
@@ -16534,19 +16546,19 @@
         <v>166</v>
       </c>
       <c r="BQ62" t="s">
-        <v>1391</v>
+        <v>1394</v>
       </c>
       <c r="BR62" t="s">
         <v>166</v>
       </c>
       <c r="BS62" t="s">
-        <v>1391</v>
+        <v>1394</v>
       </c>
       <c r="BT62" t="s">
         <v>166</v>
       </c>
       <c r="CO62" t="s">
-        <v>1913</v>
+        <v>1917</v>
       </c>
       <c r="CP62" t="s">
         <v>166</v>
@@ -16560,13 +16572,13 @@
         <v>166</v>
       </c>
       <c r="AU63" t="s">
-        <v>1108</v>
+        <v>1395</v>
       </c>
       <c r="AV63" t="s">
         <v>166</v>
       </c>
       <c r="BA63" t="s">
-        <v>1452</v>
+        <v>1456</v>
       </c>
       <c r="BB63" t="s">
         <v>166</v>
@@ -16578,7 +16590,7 @@
         <v>166</v>
       </c>
       <c r="BI63" t="s">
-        <v>1108</v>
+        <v>1395</v>
       </c>
       <c r="BJ63" t="s">
         <v>166</v>
@@ -16596,19 +16608,19 @@
         <v>166</v>
       </c>
       <c r="BQ63" t="s">
-        <v>1108</v>
+        <v>1395</v>
       </c>
       <c r="BR63" t="s">
         <v>166</v>
       </c>
       <c r="BS63" t="s">
-        <v>1108</v>
+        <v>1395</v>
       </c>
       <c r="BT63" t="s">
         <v>166</v>
       </c>
       <c r="CO63" t="s">
-        <v>1914</v>
+        <v>1918</v>
       </c>
       <c r="CP63" t="s">
         <v>166</v>
@@ -16622,13 +16634,13 @@
         <v>166</v>
       </c>
       <c r="AU64" t="s">
-        <v>1392</v>
+        <v>1108</v>
       </c>
       <c r="AV64" t="s">
         <v>166</v>
       </c>
       <c r="BA64" t="s">
-        <v>1453</v>
+        <v>1457</v>
       </c>
       <c r="BB64" t="s">
         <v>166</v>
@@ -16640,7 +16652,7 @@
         <v>166</v>
       </c>
       <c r="BI64" t="s">
-        <v>1392</v>
+        <v>1108</v>
       </c>
       <c r="BJ64" t="s">
         <v>166</v>
@@ -16658,19 +16670,19 @@
         <v>166</v>
       </c>
       <c r="BQ64" t="s">
-        <v>1392</v>
+        <v>1108</v>
       </c>
       <c r="BR64" t="s">
         <v>166</v>
       </c>
       <c r="BS64" t="s">
-        <v>1392</v>
+        <v>1108</v>
       </c>
       <c r="BT64" t="s">
         <v>166</v>
       </c>
       <c r="CO64" t="s">
-        <v>1915</v>
+        <v>1919</v>
       </c>
       <c r="CP64" t="s">
         <v>166</v>
@@ -16684,13 +16696,13 @@
         <v>166</v>
       </c>
       <c r="AU65" t="s">
-        <v>1393</v>
+        <v>1396</v>
       </c>
       <c r="AV65" t="s">
         <v>166</v>
       </c>
       <c r="BA65" t="s">
-        <v>1454</v>
+        <v>1458</v>
       </c>
       <c r="BB65" t="s">
         <v>166</v>
@@ -16702,7 +16714,7 @@
         <v>166</v>
       </c>
       <c r="BI65" t="s">
-        <v>1393</v>
+        <v>1396</v>
       </c>
       <c r="BJ65" t="s">
         <v>166</v>
@@ -16720,19 +16732,19 @@
         <v>166</v>
       </c>
       <c r="BQ65" t="s">
-        <v>1393</v>
+        <v>1396</v>
       </c>
       <c r="BR65" t="s">
         <v>166</v>
       </c>
       <c r="BS65" t="s">
-        <v>1393</v>
+        <v>1396</v>
       </c>
       <c r="BT65" t="s">
         <v>166</v>
       </c>
       <c r="CO65" t="s">
-        <v>1916</v>
+        <v>1920</v>
       </c>
       <c r="CP65" t="s">
         <v>166</v>
@@ -16746,13 +16758,13 @@
         <v>166</v>
       </c>
       <c r="AU66" t="s">
-        <v>1394</v>
+        <v>1397</v>
       </c>
       <c r="AV66" t="s">
         <v>166</v>
       </c>
       <c r="BA66" t="s">
-        <v>1455</v>
+        <v>1459</v>
       </c>
       <c r="BB66" t="s">
         <v>166</v>
@@ -16764,7 +16776,7 @@
         <v>166</v>
       </c>
       <c r="BI66" t="s">
-        <v>1394</v>
+        <v>1397</v>
       </c>
       <c r="BJ66" t="s">
         <v>166</v>
@@ -16782,19 +16794,19 @@
         <v>166</v>
       </c>
       <c r="BQ66" t="s">
-        <v>1394</v>
+        <v>1397</v>
       </c>
       <c r="BR66" t="s">
         <v>166</v>
       </c>
       <c r="BS66" t="s">
-        <v>1394</v>
+        <v>1397</v>
       </c>
       <c r="BT66" t="s">
         <v>166</v>
       </c>
       <c r="CO66" t="s">
-        <v>1917</v>
+        <v>1921</v>
       </c>
       <c r="CP66" t="s">
         <v>166</v>
@@ -16807,8 +16819,14 @@
       <c r="AT67" t="s">
         <v>166</v>
       </c>
+      <c r="AU67" t="s">
+        <v>1398</v>
+      </c>
+      <c r="AV67" t="s">
+        <v>166</v>
+      </c>
       <c r="BA67" t="s">
-        <v>1456</v>
+        <v>1460</v>
       </c>
       <c r="BB67" t="s">
         <v>166</v>
@@ -16819,6 +16837,12 @@
       <c r="BH67" t="s">
         <v>166</v>
       </c>
+      <c r="BI67" t="s">
+        <v>1398</v>
+      </c>
+      <c r="BJ67" t="s">
+        <v>166</v>
+      </c>
       <c r="BM67" t="s">
         <v>496</v>
       </c>
@@ -16831,8 +16855,20 @@
       <c r="BP67" t="s">
         <v>166</v>
       </c>
+      <c r="BQ67" t="s">
+        <v>1398</v>
+      </c>
+      <c r="BR67" t="s">
+        <v>166</v>
+      </c>
+      <c r="BS67" t="s">
+        <v>1398</v>
+      </c>
+      <c r="BT67" t="s">
+        <v>166</v>
+      </c>
       <c r="CO67" t="s">
-        <v>1918</v>
+        <v>1922</v>
       </c>
       <c r="CP67" t="s">
         <v>166</v>
@@ -16846,7 +16882,7 @@
         <v>166</v>
       </c>
       <c r="BA68" t="s">
-        <v>1457</v>
+        <v>1461</v>
       </c>
       <c r="BB68" t="s">
         <v>166</v>
@@ -16870,7 +16906,7 @@
         <v>166</v>
       </c>
       <c r="CO68" t="s">
-        <v>1919</v>
+        <v>1923</v>
       </c>
       <c r="CP68" t="s">
         <v>166</v>
@@ -16884,7 +16920,7 @@
         <v>166</v>
       </c>
       <c r="BA69" t="s">
-        <v>1458</v>
+        <v>1462</v>
       </c>
       <c r="BB69" t="s">
         <v>166</v>
@@ -16908,7 +16944,7 @@
         <v>166</v>
       </c>
       <c r="CO69" t="s">
-        <v>1920</v>
+        <v>1924</v>
       </c>
       <c r="CP69" t="s">
         <v>166</v>
@@ -16922,7 +16958,7 @@
         <v>166</v>
       </c>
       <c r="BA70" t="s">
-        <v>1459</v>
+        <v>1463</v>
       </c>
       <c r="BB70" t="s">
         <v>166</v>
@@ -16946,7 +16982,7 @@
         <v>166</v>
       </c>
       <c r="CO70" t="s">
-        <v>1921</v>
+        <v>1925</v>
       </c>
       <c r="CP70" t="s">
         <v>166</v>
@@ -16960,7 +16996,7 @@
         <v>166</v>
       </c>
       <c r="BA71" t="s">
-        <v>1460</v>
+        <v>1464</v>
       </c>
       <c r="BB71" t="s">
         <v>166</v>
@@ -16984,7 +17020,7 @@
         <v>166</v>
       </c>
       <c r="CO71" t="s">
-        <v>1922</v>
+        <v>1926</v>
       </c>
       <c r="CP71" t="s">
         <v>166</v>
@@ -16998,7 +17034,7 @@
         <v>166</v>
       </c>
       <c r="BA72" t="s">
-        <v>1461</v>
+        <v>1465</v>
       </c>
       <c r="BB72" t="s">
         <v>166</v>
@@ -17022,7 +17058,7 @@
         <v>166</v>
       </c>
       <c r="CO72" t="s">
-        <v>1923</v>
+        <v>1927</v>
       </c>
       <c r="CP72" t="s">
         <v>166</v>
@@ -17036,7 +17072,7 @@
         <v>166</v>
       </c>
       <c r="BA73" t="s">
-        <v>1462</v>
+        <v>1466</v>
       </c>
       <c r="BB73" t="s">
         <v>166</v>
@@ -17060,7 +17096,7 @@
         <v>166</v>
       </c>
       <c r="CO73" t="s">
-        <v>1924</v>
+        <v>1928</v>
       </c>
       <c r="CP73" t="s">
         <v>166</v>
@@ -17074,7 +17110,7 @@
         <v>166</v>
       </c>
       <c r="BA74" t="s">
-        <v>1463</v>
+        <v>1467</v>
       </c>
       <c r="BB74" t="s">
         <v>166</v>
@@ -17098,7 +17134,7 @@
         <v>166</v>
       </c>
       <c r="CO74" t="s">
-        <v>1925</v>
+        <v>1929</v>
       </c>
       <c r="CP74" t="s">
         <v>166</v>
@@ -17112,7 +17148,7 @@
         <v>166</v>
       </c>
       <c r="BA75" t="s">
-        <v>1464</v>
+        <v>1468</v>
       </c>
       <c r="BB75" t="s">
         <v>166</v>
@@ -17136,7 +17172,7 @@
         <v>166</v>
       </c>
       <c r="CO75" t="s">
-        <v>1926</v>
+        <v>1930</v>
       </c>
       <c r="CP75" t="s">
         <v>166</v>
@@ -17150,7 +17186,7 @@
         <v>166</v>
       </c>
       <c r="BA76" t="s">
-        <v>1465</v>
+        <v>1469</v>
       </c>
       <c r="BB76" t="s">
         <v>166</v>
@@ -17174,7 +17210,7 @@
         <v>166</v>
       </c>
       <c r="CO76" t="s">
-        <v>1927</v>
+        <v>1931</v>
       </c>
       <c r="CP76" t="s">
         <v>166</v>
@@ -17188,7 +17224,7 @@
         <v>166</v>
       </c>
       <c r="BA77" t="s">
-        <v>1466</v>
+        <v>1470</v>
       </c>
       <c r="BB77" t="s">
         <v>166</v>
@@ -17212,7 +17248,7 @@
         <v>166</v>
       </c>
       <c r="CO77" t="s">
-        <v>1928</v>
+        <v>1932</v>
       </c>
       <c r="CP77" t="s">
         <v>166</v>
@@ -17226,7 +17262,7 @@
         <v>166</v>
       </c>
       <c r="BA78" t="s">
-        <v>1467</v>
+        <v>1471</v>
       </c>
       <c r="BB78" t="s">
         <v>166</v>
@@ -17250,7 +17286,7 @@
         <v>166</v>
       </c>
       <c r="CO78" t="s">
-        <v>1929</v>
+        <v>1933</v>
       </c>
       <c r="CP78" t="s">
         <v>166</v>
@@ -17264,7 +17300,7 @@
         <v>166</v>
       </c>
       <c r="BA79" t="s">
-        <v>1468</v>
+        <v>1472</v>
       </c>
       <c r="BB79" t="s">
         <v>166</v>
@@ -17288,7 +17324,7 @@
         <v>166</v>
       </c>
       <c r="CO79" t="s">
-        <v>1930</v>
+        <v>1934</v>
       </c>
       <c r="CP79" t="s">
         <v>166</v>
@@ -17302,7 +17338,7 @@
         <v>166</v>
       </c>
       <c r="BA80" t="s">
-        <v>1469</v>
+        <v>1473</v>
       </c>
       <c r="BB80" t="s">
         <v>166</v>
@@ -17326,7 +17362,7 @@
         <v>166</v>
       </c>
       <c r="CO80" t="s">
-        <v>1931</v>
+        <v>1935</v>
       </c>
       <c r="CP80" t="s">
         <v>166</v>
@@ -17340,7 +17376,7 @@
         <v>166</v>
       </c>
       <c r="BA81" t="s">
-        <v>1470</v>
+        <v>1474</v>
       </c>
       <c r="BB81" t="s">
         <v>166</v>
@@ -17364,7 +17400,7 @@
         <v>166</v>
       </c>
       <c r="CO81" t="s">
-        <v>1932</v>
+        <v>1936</v>
       </c>
       <c r="CP81" t="s">
         <v>166</v>
@@ -17378,7 +17414,7 @@
         <v>166</v>
       </c>
       <c r="BA82" t="s">
-        <v>1471</v>
+        <v>1475</v>
       </c>
       <c r="BB82" t="s">
         <v>166</v>
@@ -17402,7 +17438,7 @@
         <v>166</v>
       </c>
       <c r="CO82" t="s">
-        <v>1933</v>
+        <v>1937</v>
       </c>
       <c r="CP82" t="s">
         <v>166</v>
@@ -17416,7 +17452,7 @@
         <v>166</v>
       </c>
       <c r="BA83" t="s">
-        <v>1472</v>
+        <v>1476</v>
       </c>
       <c r="BB83" t="s">
         <v>166</v>
@@ -17440,7 +17476,7 @@
         <v>166</v>
       </c>
       <c r="CO83" t="s">
-        <v>1934</v>
+        <v>1938</v>
       </c>
       <c r="CP83" t="s">
         <v>166</v>
@@ -17454,7 +17490,7 @@
         <v>166</v>
       </c>
       <c r="BA84" t="s">
-        <v>1473</v>
+        <v>1477</v>
       </c>
       <c r="BB84" t="s">
         <v>166</v>
@@ -17478,7 +17514,7 @@
         <v>166</v>
       </c>
       <c r="CO84" t="s">
-        <v>1935</v>
+        <v>1939</v>
       </c>
       <c r="CP84" t="s">
         <v>166</v>
@@ -17492,7 +17528,7 @@
         <v>166</v>
       </c>
       <c r="BA85" t="s">
-        <v>1474</v>
+        <v>1478</v>
       </c>
       <c r="BB85" t="s">
         <v>166</v>
@@ -17516,7 +17552,7 @@
         <v>166</v>
       </c>
       <c r="CO85" t="s">
-        <v>1936</v>
+        <v>1940</v>
       </c>
       <c r="CP85" t="s">
         <v>166</v>
@@ -17530,7 +17566,7 @@
         <v>166</v>
       </c>
       <c r="BA86" t="s">
-        <v>1475</v>
+        <v>1479</v>
       </c>
       <c r="BB86" t="s">
         <v>166</v>
@@ -17554,7 +17590,7 @@
         <v>166</v>
       </c>
       <c r="CO86" t="s">
-        <v>1937</v>
+        <v>1941</v>
       </c>
       <c r="CP86" t="s">
         <v>166</v>
@@ -17568,7 +17604,7 @@
         <v>166</v>
       </c>
       <c r="BA87" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
       <c r="BB87" t="s">
         <v>166</v>
@@ -17592,7 +17628,7 @@
         <v>166</v>
       </c>
       <c r="CO87" t="s">
-        <v>1938</v>
+        <v>1942</v>
       </c>
       <c r="CP87" t="s">
         <v>166</v>
@@ -17606,7 +17642,7 @@
         <v>166</v>
       </c>
       <c r="BA88" t="s">
-        <v>1477</v>
+        <v>1481</v>
       </c>
       <c r="BB88" t="s">
         <v>166</v>
@@ -17630,7 +17666,7 @@
         <v>166</v>
       </c>
       <c r="CO88" t="s">
-        <v>1939</v>
+        <v>1943</v>
       </c>
       <c r="CP88" t="s">
         <v>166</v>
@@ -17644,7 +17680,7 @@
         <v>166</v>
       </c>
       <c r="BA89" t="s">
-        <v>1478</v>
+        <v>1482</v>
       </c>
       <c r="BB89" t="s">
         <v>166</v>
@@ -17668,7 +17704,7 @@
         <v>166</v>
       </c>
       <c r="CO89" t="s">
-        <v>1940</v>
+        <v>1944</v>
       </c>
       <c r="CP89" t="s">
         <v>166</v>
@@ -17682,7 +17718,7 @@
         <v>166</v>
       </c>
       <c r="BA90" t="s">
-        <v>1479</v>
+        <v>1483</v>
       </c>
       <c r="BB90" t="s">
         <v>166</v>
@@ -17706,7 +17742,7 @@
         <v>166</v>
       </c>
       <c r="CO90" t="s">
-        <v>1941</v>
+        <v>1945</v>
       </c>
       <c r="CP90" t="s">
         <v>166</v>
@@ -17720,7 +17756,7 @@
         <v>166</v>
       </c>
       <c r="BA91" t="s">
-        <v>1480</v>
+        <v>1484</v>
       </c>
       <c r="BB91" t="s">
         <v>166</v>
@@ -17744,7 +17780,7 @@
         <v>166</v>
       </c>
       <c r="CO91" t="s">
-        <v>1942</v>
+        <v>1946</v>
       </c>
       <c r="CP91" t="s">
         <v>166</v>
@@ -17782,7 +17818,7 @@
         <v>166</v>
       </c>
       <c r="CO92" t="s">
-        <v>1943</v>
+        <v>1947</v>
       </c>
       <c r="CP92" t="s">
         <v>166</v>
@@ -17796,7 +17832,7 @@
         <v>166</v>
       </c>
       <c r="BA93" t="s">
-        <v>1481</v>
+        <v>1485</v>
       </c>
       <c r="BB93" t="s">
         <v>166</v>
@@ -17820,7 +17856,7 @@
         <v>166</v>
       </c>
       <c r="CO93" t="s">
-        <v>1944</v>
+        <v>1948</v>
       </c>
       <c r="CP93" t="s">
         <v>166</v>
@@ -17834,7 +17870,7 @@
         <v>166</v>
       </c>
       <c r="BA94" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="BB94" t="s">
         <v>166</v>
@@ -17858,7 +17894,7 @@
         <v>166</v>
       </c>
       <c r="CO94" t="s">
-        <v>1945</v>
+        <v>1949</v>
       </c>
       <c r="CP94" t="s">
         <v>166</v>
@@ -17872,7 +17908,7 @@
         <v>166</v>
       </c>
       <c r="BA95" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="BB95" t="s">
         <v>166</v>
@@ -17896,7 +17932,7 @@
         <v>166</v>
       </c>
       <c r="CO95" t="s">
-        <v>1946</v>
+        <v>1950</v>
       </c>
       <c r="CP95" t="s">
         <v>166</v>
@@ -17910,7 +17946,7 @@
         <v>166</v>
       </c>
       <c r="BA96" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="BB96" t="s">
         <v>166</v>
@@ -17934,7 +17970,7 @@
         <v>166</v>
       </c>
       <c r="CO96" t="s">
-        <v>1947</v>
+        <v>1951</v>
       </c>
       <c r="CP96" t="s">
         <v>166</v>
@@ -17948,7 +17984,7 @@
         <v>166</v>
       </c>
       <c r="BA97" t="s">
-        <v>1485</v>
+        <v>1489</v>
       </c>
       <c r="BB97" t="s">
         <v>166</v>
@@ -17972,7 +18008,7 @@
         <v>166</v>
       </c>
       <c r="CO97" t="s">
-        <v>1948</v>
+        <v>1952</v>
       </c>
       <c r="CP97" t="s">
         <v>166</v>
@@ -17986,7 +18022,7 @@
         <v>166</v>
       </c>
       <c r="BA98" t="s">
-        <v>1486</v>
+        <v>1490</v>
       </c>
       <c r="BB98" t="s">
         <v>166</v>
@@ -18010,7 +18046,7 @@
         <v>166</v>
       </c>
       <c r="CO98" t="s">
-        <v>1949</v>
+        <v>1953</v>
       </c>
       <c r="CP98" t="s">
         <v>166</v>
@@ -18024,7 +18060,7 @@
         <v>166</v>
       </c>
       <c r="BA99" t="s">
-        <v>1487</v>
+        <v>1491</v>
       </c>
       <c r="BB99" t="s">
         <v>166</v>
@@ -18048,7 +18084,7 @@
         <v>166</v>
       </c>
       <c r="CO99" t="s">
-        <v>1950</v>
+        <v>1954</v>
       </c>
       <c r="CP99" t="s">
         <v>166</v>
@@ -18062,7 +18098,7 @@
         <v>166</v>
       </c>
       <c r="BA100" t="s">
-        <v>1488</v>
+        <v>1492</v>
       </c>
       <c r="BB100" t="s">
         <v>166</v>
@@ -18086,7 +18122,7 @@
         <v>166</v>
       </c>
       <c r="CO100" t="s">
-        <v>1951</v>
+        <v>1955</v>
       </c>
       <c r="CP100" t="s">
         <v>166</v>
@@ -18100,7 +18136,7 @@
         <v>166</v>
       </c>
       <c r="BA101" t="s">
-        <v>1489</v>
+        <v>1493</v>
       </c>
       <c r="BB101" t="s">
         <v>166</v>
@@ -18124,7 +18160,7 @@
         <v>166</v>
       </c>
       <c r="CO101" t="s">
-        <v>1952</v>
+        <v>1956</v>
       </c>
       <c r="CP101" t="s">
         <v>166</v>
@@ -18138,7 +18174,7 @@
         <v>166</v>
       </c>
       <c r="BA102" t="s">
-        <v>1490</v>
+        <v>1494</v>
       </c>
       <c r="BB102" t="s">
         <v>166</v>
@@ -18162,7 +18198,7 @@
         <v>166</v>
       </c>
       <c r="CO102" t="s">
-        <v>1953</v>
+        <v>1957</v>
       </c>
       <c r="CP102" t="s">
         <v>166</v>
@@ -18176,7 +18212,7 @@
         <v>166</v>
       </c>
       <c r="BA103" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="BB103" t="s">
         <v>166</v>
@@ -18200,7 +18236,7 @@
         <v>166</v>
       </c>
       <c r="CO103" t="s">
-        <v>1954</v>
+        <v>1958</v>
       </c>
       <c r="CP103" t="s">
         <v>166</v>
@@ -18214,7 +18250,7 @@
         <v>166</v>
       </c>
       <c r="BA104" t="s">
-        <v>1492</v>
+        <v>1496</v>
       </c>
       <c r="BB104" t="s">
         <v>166</v>
@@ -18238,7 +18274,7 @@
         <v>166</v>
       </c>
       <c r="CO104" t="s">
-        <v>1955</v>
+        <v>1959</v>
       </c>
       <c r="CP104" t="s">
         <v>166</v>
@@ -18252,7 +18288,7 @@
         <v>166</v>
       </c>
       <c r="BA105" t="s">
-        <v>1493</v>
+        <v>1497</v>
       </c>
       <c r="BB105" t="s">
         <v>166</v>
@@ -18276,7 +18312,7 @@
         <v>166</v>
       </c>
       <c r="CO105" t="s">
-        <v>1956</v>
+        <v>1960</v>
       </c>
       <c r="CP105" t="s">
         <v>166</v>
@@ -18290,7 +18326,7 @@
         <v>166</v>
       </c>
       <c r="BA106" t="s">
-        <v>1494</v>
+        <v>1498</v>
       </c>
       <c r="BB106" t="s">
         <v>166</v>
@@ -18314,7 +18350,7 @@
         <v>166</v>
       </c>
       <c r="CO106" t="s">
-        <v>1957</v>
+        <v>1961</v>
       </c>
       <c r="CP106" t="s">
         <v>166</v>
@@ -18328,7 +18364,7 @@
         <v>166</v>
       </c>
       <c r="BA107" t="s">
-        <v>1495</v>
+        <v>1499</v>
       </c>
       <c r="BB107" t="s">
         <v>166</v>
@@ -18352,7 +18388,7 @@
         <v>166</v>
       </c>
       <c r="CO107" t="s">
-        <v>1958</v>
+        <v>1962</v>
       </c>
       <c r="CP107" t="s">
         <v>166</v>
@@ -18366,7 +18402,7 @@
         <v>166</v>
       </c>
       <c r="BA108" t="s">
-        <v>1496</v>
+        <v>1500</v>
       </c>
       <c r="BB108" t="s">
         <v>166</v>
@@ -18390,7 +18426,7 @@
         <v>166</v>
       </c>
       <c r="CO108" t="s">
-        <v>1959</v>
+        <v>1963</v>
       </c>
       <c r="CP108" t="s">
         <v>166</v>
@@ -18404,7 +18440,7 @@
         <v>166</v>
       </c>
       <c r="BA109" t="s">
-        <v>1497</v>
+        <v>1501</v>
       </c>
       <c r="BB109" t="s">
         <v>166</v>
@@ -18428,7 +18464,7 @@
         <v>166</v>
       </c>
       <c r="CO109" t="s">
-        <v>1960</v>
+        <v>1964</v>
       </c>
       <c r="CP109" t="s">
         <v>166</v>
@@ -18442,7 +18478,7 @@
         <v>166</v>
       </c>
       <c r="BA110" t="s">
-        <v>1498</v>
+        <v>1502</v>
       </c>
       <c r="BB110" t="s">
         <v>166</v>
@@ -18466,7 +18502,7 @@
         <v>166</v>
       </c>
       <c r="CO110" t="s">
-        <v>1961</v>
+        <v>1965</v>
       </c>
       <c r="CP110" t="s">
         <v>166</v>
@@ -18480,7 +18516,7 @@
         <v>166</v>
       </c>
       <c r="BA111" t="s">
-        <v>1499</v>
+        <v>1503</v>
       </c>
       <c r="BB111" t="s">
         <v>166</v>
@@ -18504,7 +18540,7 @@
         <v>166</v>
       </c>
       <c r="CO111" t="s">
-        <v>1962</v>
+        <v>1966</v>
       </c>
       <c r="CP111" t="s">
         <v>166</v>
@@ -18518,7 +18554,7 @@
         <v>166</v>
       </c>
       <c r="BA112" t="s">
-        <v>1500</v>
+        <v>1504</v>
       </c>
       <c r="BB112" t="s">
         <v>166</v>
@@ -18542,7 +18578,7 @@
         <v>166</v>
       </c>
       <c r="CO112" t="s">
-        <v>1963</v>
+        <v>1967</v>
       </c>
       <c r="CP112" t="s">
         <v>166</v>
@@ -18556,7 +18592,7 @@
         <v>166</v>
       </c>
       <c r="BA113" t="s">
-        <v>1501</v>
+        <v>1505</v>
       </c>
       <c r="BB113" t="s">
         <v>166</v>
@@ -18580,7 +18616,7 @@
         <v>166</v>
       </c>
       <c r="CO113" t="s">
-        <v>1964</v>
+        <v>1968</v>
       </c>
       <c r="CP113" t="s">
         <v>166</v>
@@ -18594,7 +18630,7 @@
         <v>166</v>
       </c>
       <c r="BA114" t="s">
-        <v>1502</v>
+        <v>1506</v>
       </c>
       <c r="BB114" t="s">
         <v>166</v>
@@ -18618,7 +18654,7 @@
         <v>166</v>
       </c>
       <c r="CO114" t="s">
-        <v>1965</v>
+        <v>1969</v>
       </c>
       <c r="CP114" t="s">
         <v>166</v>
@@ -18632,7 +18668,7 @@
         <v>166</v>
       </c>
       <c r="BA115" t="s">
-        <v>1503</v>
+        <v>1507</v>
       </c>
       <c r="BB115" t="s">
         <v>166</v>
@@ -18656,7 +18692,7 @@
         <v>166</v>
       </c>
       <c r="CO115" t="s">
-        <v>1966</v>
+        <v>1970</v>
       </c>
       <c r="CP115" t="s">
         <v>166</v>
@@ -18670,7 +18706,7 @@
         <v>166</v>
       </c>
       <c r="BA116" t="s">
-        <v>1504</v>
+        <v>1508</v>
       </c>
       <c r="BB116" t="s">
         <v>166</v>
@@ -18694,7 +18730,7 @@
         <v>166</v>
       </c>
       <c r="CO116" t="s">
-        <v>1967</v>
+        <v>1971</v>
       </c>
       <c r="CP116" t="s">
         <v>166</v>
@@ -18708,7 +18744,7 @@
         <v>166</v>
       </c>
       <c r="BA117" t="s">
-        <v>1505</v>
+        <v>1509</v>
       </c>
       <c r="BB117" t="s">
         <v>166</v>
@@ -18732,7 +18768,7 @@
         <v>166</v>
       </c>
       <c r="CO117" t="s">
-        <v>1968</v>
+        <v>1972</v>
       </c>
       <c r="CP117" t="s">
         <v>166</v>
@@ -18746,7 +18782,7 @@
         <v>166</v>
       </c>
       <c r="BA118" t="s">
-        <v>1506</v>
+        <v>1510</v>
       </c>
       <c r="BB118" t="s">
         <v>166</v>
@@ -18770,7 +18806,7 @@
         <v>166</v>
       </c>
       <c r="CO118" t="s">
-        <v>1969</v>
+        <v>1973</v>
       </c>
       <c r="CP118" t="s">
         <v>166</v>
@@ -18784,7 +18820,7 @@
         <v>166</v>
       </c>
       <c r="BA119" t="s">
-        <v>1507</v>
+        <v>1511</v>
       </c>
       <c r="BB119" t="s">
         <v>166</v>
@@ -18808,7 +18844,7 @@
         <v>166</v>
       </c>
       <c r="CO119" t="s">
-        <v>1970</v>
+        <v>1974</v>
       </c>
       <c r="CP119" t="s">
         <v>166</v>
@@ -18822,7 +18858,7 @@
         <v>166</v>
       </c>
       <c r="BA120" t="s">
-        <v>1508</v>
+        <v>1512</v>
       </c>
       <c r="BB120" t="s">
         <v>166</v>
@@ -18846,7 +18882,7 @@
         <v>166</v>
       </c>
       <c r="CO120" t="s">
-        <v>1971</v>
+        <v>1975</v>
       </c>
       <c r="CP120" t="s">
         <v>166</v>
@@ -18860,7 +18896,7 @@
         <v>166</v>
       </c>
       <c r="BA121" t="s">
-        <v>1509</v>
+        <v>1513</v>
       </c>
       <c r="BB121" t="s">
         <v>166</v>
@@ -18884,7 +18920,7 @@
         <v>166</v>
       </c>
       <c r="CO121" t="s">
-        <v>1972</v>
+        <v>1976</v>
       </c>
       <c r="CP121" t="s">
         <v>166</v>
@@ -18898,7 +18934,7 @@
         <v>166</v>
       </c>
       <c r="BA122" t="s">
-        <v>1510</v>
+        <v>1514</v>
       </c>
       <c r="BB122" t="s">
         <v>166</v>
@@ -18922,7 +18958,7 @@
         <v>166</v>
       </c>
       <c r="CO122" t="s">
-        <v>1973</v>
+        <v>1977</v>
       </c>
       <c r="CP122" t="s">
         <v>166</v>
@@ -18936,7 +18972,7 @@
         <v>166</v>
       </c>
       <c r="BA123" t="s">
-        <v>1511</v>
+        <v>1515</v>
       </c>
       <c r="BB123" t="s">
         <v>166</v>
@@ -18960,7 +18996,7 @@
         <v>166</v>
       </c>
       <c r="CO123" t="s">
-        <v>1974</v>
+        <v>1978</v>
       </c>
       <c r="CP123" t="s">
         <v>166</v>
@@ -18974,7 +19010,7 @@
         <v>166</v>
       </c>
       <c r="BA124" t="s">
-        <v>1512</v>
+        <v>1516</v>
       </c>
       <c r="BB124" t="s">
         <v>166</v>
@@ -18998,7 +19034,7 @@
         <v>166</v>
       </c>
       <c r="CO124" t="s">
-        <v>1975</v>
+        <v>1979</v>
       </c>
       <c r="CP124" t="s">
         <v>166</v>
@@ -19012,7 +19048,7 @@
         <v>166</v>
       </c>
       <c r="BA125" t="s">
-        <v>1513</v>
+        <v>1517</v>
       </c>
       <c r="BB125" t="s">
         <v>166</v>
@@ -19036,7 +19072,7 @@
         <v>166</v>
       </c>
       <c r="CO125" t="s">
-        <v>1976</v>
+        <v>1980</v>
       </c>
       <c r="CP125" t="s">
         <v>166</v>
@@ -19050,7 +19086,7 @@
         <v>166</v>
       </c>
       <c r="BA126" t="s">
-        <v>1514</v>
+        <v>1518</v>
       </c>
       <c r="BB126" t="s">
         <v>166</v>
@@ -19074,7 +19110,7 @@
         <v>166</v>
       </c>
       <c r="CO126" t="s">
-        <v>1977</v>
+        <v>1981</v>
       </c>
       <c r="CP126" t="s">
         <v>166</v>
@@ -19088,7 +19124,7 @@
         <v>166</v>
       </c>
       <c r="BA127" t="s">
-        <v>1515</v>
+        <v>1519</v>
       </c>
       <c r="BB127" t="s">
         <v>166</v>
@@ -19112,7 +19148,7 @@
         <v>166</v>
       </c>
       <c r="CO127" t="s">
-        <v>1978</v>
+        <v>1982</v>
       </c>
       <c r="CP127" t="s">
         <v>166</v>
@@ -19126,7 +19162,7 @@
         <v>166</v>
       </c>
       <c r="BA128" t="s">
-        <v>1516</v>
+        <v>1520</v>
       </c>
       <c r="BB128" t="s">
         <v>166</v>
@@ -19150,7 +19186,7 @@
         <v>166</v>
       </c>
       <c r="CO128" t="s">
-        <v>1979</v>
+        <v>1983</v>
       </c>
       <c r="CP128" t="s">
         <v>166</v>
@@ -19164,7 +19200,7 @@
         <v>166</v>
       </c>
       <c r="BA129" t="s">
-        <v>1517</v>
+        <v>1521</v>
       </c>
       <c r="BB129" t="s">
         <v>166</v>
@@ -19188,7 +19224,7 @@
         <v>166</v>
       </c>
       <c r="CO129" t="s">
-        <v>1980</v>
+        <v>1984</v>
       </c>
       <c r="CP129" t="s">
         <v>166</v>
@@ -19202,7 +19238,7 @@
         <v>166</v>
       </c>
       <c r="BA130" t="s">
-        <v>1518</v>
+        <v>1522</v>
       </c>
       <c r="BB130" t="s">
         <v>166</v>
@@ -19226,7 +19262,7 @@
         <v>166</v>
       </c>
       <c r="CO130" t="s">
-        <v>1981</v>
+        <v>1985</v>
       </c>
       <c r="CP130" t="s">
         <v>166</v>
@@ -19240,7 +19276,7 @@
         <v>166</v>
       </c>
       <c r="BA131" t="s">
-        <v>1519</v>
+        <v>1523</v>
       </c>
       <c r="BB131" t="s">
         <v>166</v>
@@ -19264,7 +19300,7 @@
         <v>166</v>
       </c>
       <c r="CO131" t="s">
-        <v>1982</v>
+        <v>1986</v>
       </c>
       <c r="CP131" t="s">
         <v>166</v>
@@ -19278,7 +19314,7 @@
         <v>166</v>
       </c>
       <c r="BA132" t="s">
-        <v>1520</v>
+        <v>1524</v>
       </c>
       <c r="BB132" t="s">
         <v>166</v>
@@ -19302,7 +19338,7 @@
         <v>166</v>
       </c>
       <c r="CO132" t="s">
-        <v>1983</v>
+        <v>1987</v>
       </c>
       <c r="CP132" t="s">
         <v>166</v>
@@ -19316,7 +19352,7 @@
         <v>166</v>
       </c>
       <c r="BA133" t="s">
-        <v>1521</v>
+        <v>1525</v>
       </c>
       <c r="BB133" t="s">
         <v>166</v>
@@ -19340,7 +19376,7 @@
         <v>166</v>
       </c>
       <c r="CO133" t="s">
-        <v>1984</v>
+        <v>1988</v>
       </c>
       <c r="CP133" t="s">
         <v>166</v>
@@ -19354,7 +19390,7 @@
         <v>166</v>
       </c>
       <c r="BA134" t="s">
-        <v>1522</v>
+        <v>1526</v>
       </c>
       <c r="BB134" t="s">
         <v>166</v>
@@ -19378,7 +19414,7 @@
         <v>166</v>
       </c>
       <c r="CO134" t="s">
-        <v>1985</v>
+        <v>1989</v>
       </c>
       <c r="CP134" t="s">
         <v>166</v>
@@ -19392,7 +19428,7 @@
         <v>166</v>
       </c>
       <c r="BA135" t="s">
-        <v>1523</v>
+        <v>1527</v>
       </c>
       <c r="BB135" t="s">
         <v>166</v>
@@ -19416,7 +19452,7 @@
         <v>166</v>
       </c>
       <c r="CO135" t="s">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="CP135" t="s">
         <v>166</v>
@@ -19430,7 +19466,7 @@
         <v>166</v>
       </c>
       <c r="BA136" t="s">
-        <v>1524</v>
+        <v>1528</v>
       </c>
       <c r="BB136" t="s">
         <v>166</v>
@@ -19454,7 +19490,7 @@
         <v>166</v>
       </c>
       <c r="CO136" t="s">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="CP136" t="s">
         <v>166</v>
@@ -19468,7 +19504,7 @@
         <v>166</v>
       </c>
       <c r="BA137" t="s">
-        <v>1525</v>
+        <v>1529</v>
       </c>
       <c r="BB137" t="s">
         <v>166</v>
@@ -19492,7 +19528,7 @@
         <v>166</v>
       </c>
       <c r="CO137" t="s">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="CP137" t="s">
         <v>166</v>
@@ -19506,7 +19542,7 @@
         <v>166</v>
       </c>
       <c r="BA138" t="s">
-        <v>1526</v>
+        <v>1530</v>
       </c>
       <c r="BB138" t="s">
         <v>166</v>
@@ -19530,7 +19566,7 @@
         <v>166</v>
       </c>
       <c r="CO138" t="s">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="CP138" t="s">
         <v>166</v>
@@ -19544,7 +19580,7 @@
         <v>166</v>
       </c>
       <c r="BA139" t="s">
-        <v>1527</v>
+        <v>1531</v>
       </c>
       <c r="BB139" t="s">
         <v>166</v>
@@ -19568,7 +19604,7 @@
         <v>166</v>
       </c>
       <c r="CO139" t="s">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="CP139" t="s">
         <v>166</v>
@@ -19582,7 +19618,7 @@
         <v>166</v>
       </c>
       <c r="BA140" t="s">
-        <v>1528</v>
+        <v>1532</v>
       </c>
       <c r="BB140" t="s">
         <v>166</v>
@@ -19606,7 +19642,7 @@
         <v>166</v>
       </c>
       <c r="CO140" t="s">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="CP140" t="s">
         <v>166</v>
@@ -19620,7 +19656,7 @@
         <v>166</v>
       </c>
       <c r="BA141" t="s">
-        <v>1529</v>
+        <v>1533</v>
       </c>
       <c r="BB141" t="s">
         <v>166</v>
@@ -19644,7 +19680,7 @@
         <v>166</v>
       </c>
       <c r="CO141" t="s">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="CP141" t="s">
         <v>166</v>
@@ -19682,7 +19718,7 @@
         <v>166</v>
       </c>
       <c r="CO142" t="s">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="CP142" t="s">
         <v>166</v>
@@ -19696,7 +19732,7 @@
         <v>166</v>
       </c>
       <c r="BA143" t="s">
-        <v>1530</v>
+        <v>1534</v>
       </c>
       <c r="BB143" t="s">
         <v>166</v>
@@ -19720,7 +19756,7 @@
         <v>166</v>
       </c>
       <c r="CO143" t="s">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="CP143" t="s">
         <v>166</v>
@@ -19734,7 +19770,7 @@
         <v>166</v>
       </c>
       <c r="BA144" t="s">
-        <v>1531</v>
+        <v>1535</v>
       </c>
       <c r="BB144" t="s">
         <v>166</v>
@@ -19758,7 +19794,7 @@
         <v>166</v>
       </c>
       <c r="CO144" t="s">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="CP144" t="s">
         <v>166</v>
@@ -19772,7 +19808,7 @@
         <v>166</v>
       </c>
       <c r="BA145" t="s">
-        <v>1532</v>
+        <v>1536</v>
       </c>
       <c r="BB145" t="s">
         <v>166</v>
@@ -19796,7 +19832,7 @@
         <v>166</v>
       </c>
       <c r="CO145" t="s">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="CP145" t="s">
         <v>166</v>
@@ -19810,7 +19846,7 @@
         <v>166</v>
       </c>
       <c r="BA146" t="s">
-        <v>1533</v>
+        <v>1537</v>
       </c>
       <c r="BB146" t="s">
         <v>166</v>
@@ -19834,7 +19870,7 @@
         <v>166</v>
       </c>
       <c r="CO146" t="s">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="CP146" t="s">
         <v>166</v>
@@ -19848,7 +19884,7 @@
         <v>166</v>
       </c>
       <c r="BA147" t="s">
-        <v>1534</v>
+        <v>1538</v>
       </c>
       <c r="BB147" t="s">
         <v>166</v>
@@ -19872,7 +19908,7 @@
         <v>166</v>
       </c>
       <c r="CO147" t="s">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="CP147" t="s">
         <v>166</v>
@@ -19886,7 +19922,7 @@
         <v>166</v>
       </c>
       <c r="BA148" t="s">
-        <v>1535</v>
+        <v>1539</v>
       </c>
       <c r="BB148" t="s">
         <v>166</v>
@@ -19910,7 +19946,7 @@
         <v>166</v>
       </c>
       <c r="CO148" t="s">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="CP148" t="s">
         <v>166</v>
@@ -19924,7 +19960,7 @@
         <v>166</v>
       </c>
       <c r="BA149" t="s">
-        <v>1536</v>
+        <v>1540</v>
       </c>
       <c r="BB149" t="s">
         <v>166</v>
@@ -19948,7 +19984,7 @@
         <v>166</v>
       </c>
       <c r="CO149" t="s">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="CP149" t="s">
         <v>166</v>
@@ -19962,7 +19998,7 @@
         <v>166</v>
       </c>
       <c r="BA150" t="s">
-        <v>1537</v>
+        <v>1541</v>
       </c>
       <c r="BB150" t="s">
         <v>166</v>
@@ -19986,7 +20022,7 @@
         <v>166</v>
       </c>
       <c r="CO150" t="s">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="CP150" t="s">
         <v>166</v>
@@ -20000,7 +20036,7 @@
         <v>166</v>
       </c>
       <c r="BA151" t="s">
-        <v>1538</v>
+        <v>1542</v>
       </c>
       <c r="BB151" t="s">
         <v>166</v>
@@ -20024,7 +20060,7 @@
         <v>166</v>
       </c>
       <c r="CO151" t="s">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="CP151" t="s">
         <v>166</v>
@@ -20038,7 +20074,7 @@
         <v>166</v>
       </c>
       <c r="BA152" t="s">
-        <v>1539</v>
+        <v>1543</v>
       </c>
       <c r="BB152" t="s">
         <v>166</v>
@@ -20062,7 +20098,7 @@
         <v>166</v>
       </c>
       <c r="CO152" t="s">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="CP152" t="s">
         <v>166</v>
@@ -20094,7 +20130,7 @@
         <v>166</v>
       </c>
       <c r="CO153" t="s">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="CP153" t="s">
         <v>166</v>
@@ -20126,7 +20162,7 @@
         <v>166</v>
       </c>
       <c r="CO154" t="s">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="CP154" t="s">
         <v>166</v>
@@ -20158,7 +20194,7 @@
         <v>166</v>
       </c>
       <c r="CO155" t="s">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="CP155" t="s">
         <v>166</v>
@@ -20190,7 +20226,7 @@
         <v>166</v>
       </c>
       <c r="CO156" t="s">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="CP156" t="s">
         <v>166</v>
@@ -20222,7 +20258,7 @@
         <v>166</v>
       </c>
       <c r="CO157" t="s">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="CP157" t="s">
         <v>166</v>
@@ -20254,7 +20290,7 @@
         <v>166</v>
       </c>
       <c r="CO158" t="s">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="CP158" t="s">
         <v>166</v>
@@ -20286,7 +20322,7 @@
         <v>166</v>
       </c>
       <c r="CO159" t="s">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="CP159" t="s">
         <v>166</v>
@@ -20318,7 +20354,7 @@
         <v>166</v>
       </c>
       <c r="CO160" t="s">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="CP160" t="s">
         <v>166</v>
@@ -20350,7 +20386,7 @@
         <v>166</v>
       </c>
       <c r="CO161" t="s">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="CP161" t="s">
         <v>166</v>
@@ -20382,7 +20418,7 @@
         <v>166</v>
       </c>
       <c r="CO162" t="s">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="CP162" t="s">
         <v>166</v>
@@ -20414,7 +20450,7 @@
         <v>166</v>
       </c>
       <c r="CO163" t="s">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="CP163" t="s">
         <v>166</v>
@@ -20446,7 +20482,7 @@
         <v>166</v>
       </c>
       <c r="CO164" t="s">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="CP164" t="s">
         <v>166</v>
@@ -20478,7 +20514,7 @@
         <v>166</v>
       </c>
       <c r="CO165" t="s">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="CP165" t="s">
         <v>166</v>
@@ -20510,7 +20546,7 @@
         <v>166</v>
       </c>
       <c r="CO166" t="s">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="CP166" t="s">
         <v>166</v>
@@ -20542,7 +20578,7 @@
         <v>166</v>
       </c>
       <c r="CO167" t="s">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="CP167" t="s">
         <v>166</v>
@@ -20574,7 +20610,7 @@
         <v>166</v>
       </c>
       <c r="CO168" t="s">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="CP168" t="s">
         <v>166</v>
@@ -20606,7 +20642,7 @@
         <v>166</v>
       </c>
       <c r="CO169" t="s">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="CP169" t="s">
         <v>166</v>
@@ -20638,7 +20674,7 @@
         <v>166</v>
       </c>
       <c r="CO170" t="s">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="CP170" t="s">
         <v>166</v>
@@ -20670,7 +20706,7 @@
         <v>166</v>
       </c>
       <c r="CO171" t="s">
-        <v>2022</v>
+        <v>2026</v>
       </c>
       <c r="CP171" t="s">
         <v>166</v>
@@ -20702,7 +20738,7 @@
         <v>166</v>
       </c>
       <c r="CO172" t="s">
-        <v>2023</v>
+        <v>2027</v>
       </c>
       <c r="CP172" t="s">
         <v>166</v>
@@ -20734,7 +20770,7 @@
         <v>166</v>
       </c>
       <c r="CO173" t="s">
-        <v>2024</v>
+        <v>2028</v>
       </c>
       <c r="CP173" t="s">
         <v>166</v>
@@ -20766,7 +20802,7 @@
         <v>166</v>
       </c>
       <c r="CO174" t="s">
-        <v>2025</v>
+        <v>2029</v>
       </c>
       <c r="CP174" t="s">
         <v>166</v>
@@ -20798,7 +20834,7 @@
         <v>166</v>
       </c>
       <c r="CO175" t="s">
-        <v>2026</v>
+        <v>2030</v>
       </c>
       <c r="CP175" t="s">
         <v>166</v>
@@ -20830,7 +20866,7 @@
         <v>166</v>
       </c>
       <c r="CO176" t="s">
-        <v>2027</v>
+        <v>2031</v>
       </c>
       <c r="CP176" t="s">
         <v>166</v>
@@ -20862,7 +20898,7 @@
         <v>166</v>
       </c>
       <c r="CO177" t="s">
-        <v>2028</v>
+        <v>2032</v>
       </c>
       <c r="CP177" t="s">
         <v>166</v>
@@ -20894,7 +20930,7 @@
         <v>166</v>
       </c>
       <c r="CO178" t="s">
-        <v>2029</v>
+        <v>2033</v>
       </c>
       <c r="CP178" t="s">
         <v>166</v>
@@ -20926,7 +20962,7 @@
         <v>166</v>
       </c>
       <c r="CO179" t="s">
-        <v>2030</v>
+        <v>2034</v>
       </c>
       <c r="CP179" t="s">
         <v>166</v>
@@ -20958,7 +20994,7 @@
         <v>166</v>
       </c>
       <c r="CO180" t="s">
-        <v>2031</v>
+        <v>2035</v>
       </c>
       <c r="CP180" t="s">
         <v>166</v>
@@ -20990,7 +21026,7 @@
         <v>166</v>
       </c>
       <c r="CO181" t="s">
-        <v>2032</v>
+        <v>2036</v>
       </c>
       <c r="CP181" t="s">
         <v>166</v>
@@ -21022,7 +21058,7 @@
         <v>166</v>
       </c>
       <c r="CO182" t="s">
-        <v>2033</v>
+        <v>2037</v>
       </c>
       <c r="CP182" t="s">
         <v>166</v>
@@ -21054,7 +21090,7 @@
         <v>166</v>
       </c>
       <c r="CO183" t="s">
-        <v>2034</v>
+        <v>2038</v>
       </c>
       <c r="CP183" t="s">
         <v>166</v>
@@ -21086,7 +21122,7 @@
         <v>166</v>
       </c>
       <c r="CO184" t="s">
-        <v>2035</v>
+        <v>2039</v>
       </c>
       <c r="CP184" t="s">
         <v>166</v>
@@ -21118,7 +21154,7 @@
         <v>166</v>
       </c>
       <c r="CO185" t="s">
-        <v>2036</v>
+        <v>2040</v>
       </c>
       <c r="CP185" t="s">
         <v>166</v>
@@ -21150,7 +21186,7 @@
         <v>166</v>
       </c>
       <c r="CO186" t="s">
-        <v>2037</v>
+        <v>2041</v>
       </c>
       <c r="CP186" t="s">
         <v>166</v>
@@ -21182,7 +21218,7 @@
         <v>166</v>
       </c>
       <c r="CO187" t="s">
-        <v>2038</v>
+        <v>2042</v>
       </c>
       <c r="CP187" t="s">
         <v>166</v>
@@ -21214,7 +21250,7 @@
         <v>166</v>
       </c>
       <c r="CO188" t="s">
-        <v>2039</v>
+        <v>2043</v>
       </c>
       <c r="CP188" t="s">
         <v>166</v>
@@ -21246,7 +21282,7 @@
         <v>166</v>
       </c>
       <c r="CO189" t="s">
-        <v>2040</v>
+        <v>2044</v>
       </c>
       <c r="CP189" t="s">
         <v>166</v>
@@ -21278,7 +21314,7 @@
         <v>166</v>
       </c>
       <c r="CO190" t="s">
-        <v>2041</v>
+        <v>2045</v>
       </c>
       <c r="CP190" t="s">
         <v>166</v>
@@ -21310,7 +21346,7 @@
         <v>166</v>
       </c>
       <c r="CO191" t="s">
-        <v>2042</v>
+        <v>2046</v>
       </c>
       <c r="CP191" t="s">
         <v>166</v>
@@ -21342,7 +21378,7 @@
         <v>166</v>
       </c>
       <c r="CO192" t="s">
-        <v>2043</v>
+        <v>2047</v>
       </c>
       <c r="CP192" t="s">
         <v>166</v>
@@ -21374,7 +21410,7 @@
         <v>166</v>
       </c>
       <c r="CO193" t="s">
-        <v>2044</v>
+        <v>2048</v>
       </c>
       <c r="CP193" t="s">
         <v>166</v>
@@ -21406,7 +21442,7 @@
         <v>166</v>
       </c>
       <c r="CO194" t="s">
-        <v>2045</v>
+        <v>2049</v>
       </c>
       <c r="CP194" t="s">
         <v>166</v>
@@ -21438,7 +21474,7 @@
         <v>166</v>
       </c>
       <c r="CO195" t="s">
-        <v>2046</v>
+        <v>2050</v>
       </c>
       <c r="CP195" t="s">
         <v>166</v>
@@ -21470,7 +21506,7 @@
         <v>166</v>
       </c>
       <c r="CO196" t="s">
-        <v>2047</v>
+        <v>2051</v>
       </c>
       <c r="CP196" t="s">
         <v>166</v>
@@ -21502,7 +21538,7 @@
         <v>166</v>
       </c>
       <c r="CO197" t="s">
-        <v>2048</v>
+        <v>2052</v>
       </c>
       <c r="CP197" t="s">
         <v>166</v>
@@ -21534,7 +21570,7 @@
         <v>166</v>
       </c>
       <c r="CO198" t="s">
-        <v>2049</v>
+        <v>2053</v>
       </c>
       <c r="CP198" t="s">
         <v>166</v>
@@ -21566,7 +21602,7 @@
         <v>166</v>
       </c>
       <c r="CO199" t="s">
-        <v>2050</v>
+        <v>2054</v>
       </c>
       <c r="CP199" t="s">
         <v>166</v>
@@ -21598,7 +21634,7 @@
         <v>166</v>
       </c>
       <c r="CO200" t="s">
-        <v>2051</v>
+        <v>2055</v>
       </c>
       <c r="CP200" t="s">
         <v>166</v>
@@ -21630,7 +21666,7 @@
         <v>166</v>
       </c>
       <c r="CO201" t="s">
-        <v>2052</v>
+        <v>2056</v>
       </c>
       <c r="CP201" t="s">
         <v>166</v>
@@ -21662,7 +21698,7 @@
         <v>166</v>
       </c>
       <c r="CO202" t="s">
-        <v>2053</v>
+        <v>2057</v>
       </c>
       <c r="CP202" t="s">
         <v>166</v>
@@ -21694,7 +21730,7 @@
         <v>166</v>
       </c>
       <c r="CO203" t="s">
-        <v>2054</v>
+        <v>2058</v>
       </c>
       <c r="CP203" t="s">
         <v>166</v>
@@ -21726,7 +21762,7 @@
         <v>166</v>
       </c>
       <c r="CO204" t="s">
-        <v>2055</v>
+        <v>2059</v>
       </c>
       <c r="CP204" t="s">
         <v>166</v>
@@ -21758,7 +21794,7 @@
         <v>166</v>
       </c>
       <c r="CO205" t="s">
-        <v>2056</v>
+        <v>2060</v>
       </c>
       <c r="CP205" t="s">
         <v>166</v>
@@ -21790,7 +21826,7 @@
         <v>166</v>
       </c>
       <c r="CO206" t="s">
-        <v>2057</v>
+        <v>2061</v>
       </c>
       <c r="CP206" t="s">
         <v>166</v>
@@ -21822,7 +21858,7 @@
         <v>166</v>
       </c>
       <c r="CO207" t="s">
-        <v>2058</v>
+        <v>2062</v>
       </c>
       <c r="CP207" t="s">
         <v>166</v>
@@ -21854,7 +21890,7 @@
         <v>166</v>
       </c>
       <c r="CO208" t="s">
-        <v>2059</v>
+        <v>2063</v>
       </c>
       <c r="CP208" t="s">
         <v>166</v>
@@ -21886,7 +21922,7 @@
         <v>166</v>
       </c>
       <c r="CO209" t="s">
-        <v>2060</v>
+        <v>2064</v>
       </c>
       <c r="CP209" t="s">
         <v>166</v>
@@ -21918,7 +21954,7 @@
         <v>166</v>
       </c>
       <c r="CO210" t="s">
-        <v>2061</v>
+        <v>2065</v>
       </c>
       <c r="CP210" t="s">
         <v>166</v>
@@ -21950,7 +21986,7 @@
         <v>166</v>
       </c>
       <c r="CO211" t="s">
-        <v>2062</v>
+        <v>2066</v>
       </c>
       <c r="CP211" t="s">
         <v>166</v>
@@ -21982,7 +22018,7 @@
         <v>166</v>
       </c>
       <c r="CO212" t="s">
-        <v>2063</v>
+        <v>2067</v>
       </c>
       <c r="CP212" t="s">
         <v>166</v>
@@ -22014,7 +22050,7 @@
         <v>166</v>
       </c>
       <c r="CO213" t="s">
-        <v>2064</v>
+        <v>2068</v>
       </c>
       <c r="CP213" t="s">
         <v>166</v>
@@ -22046,7 +22082,7 @@
         <v>166</v>
       </c>
       <c r="CO214" t="s">
-        <v>2065</v>
+        <v>2069</v>
       </c>
       <c r="CP214" t="s">
         <v>166</v>
@@ -22078,7 +22114,7 @@
         <v>166</v>
       </c>
       <c r="CO215" t="s">
-        <v>2066</v>
+        <v>2070</v>
       </c>
       <c r="CP215" t="s">
         <v>166</v>
@@ -22110,7 +22146,7 @@
         <v>166</v>
       </c>
       <c r="CO216" t="s">
-        <v>2067</v>
+        <v>2071</v>
       </c>
       <c r="CP216" t="s">
         <v>166</v>
@@ -22142,7 +22178,7 @@
         <v>166</v>
       </c>
       <c r="CO217" t="s">
-        <v>2068</v>
+        <v>2072</v>
       </c>
       <c r="CP217" t="s">
         <v>166</v>
@@ -22174,7 +22210,7 @@
         <v>166</v>
       </c>
       <c r="CO218" t="s">
-        <v>2069</v>
+        <v>2073</v>
       </c>
       <c r="CP218" t="s">
         <v>166</v>
@@ -22206,7 +22242,7 @@
         <v>166</v>
       </c>
       <c r="CO219" t="s">
-        <v>2070</v>
+        <v>2074</v>
       </c>
       <c r="CP219" t="s">
         <v>166</v>
@@ -22238,7 +22274,7 @@
         <v>166</v>
       </c>
       <c r="CO220" t="s">
-        <v>2071</v>
+        <v>2075</v>
       </c>
       <c r="CP220" t="s">
         <v>166</v>
@@ -22270,7 +22306,7 @@
         <v>166</v>
       </c>
       <c r="CO221" t="s">
-        <v>2072</v>
+        <v>2076</v>
       </c>
       <c r="CP221" t="s">
         <v>166</v>
@@ -22302,7 +22338,7 @@
         <v>166</v>
       </c>
       <c r="CO222" t="s">
-        <v>2073</v>
+        <v>2077</v>
       </c>
       <c r="CP222" t="s">
         <v>166</v>
@@ -22334,7 +22370,7 @@
         <v>166</v>
       </c>
       <c r="CO223" t="s">
-        <v>2074</v>
+        <v>2078</v>
       </c>
       <c r="CP223" t="s">
         <v>166</v>
@@ -22366,7 +22402,7 @@
         <v>166</v>
       </c>
       <c r="CO224" t="s">
-        <v>2075</v>
+        <v>2079</v>
       </c>
       <c r="CP224" t="s">
         <v>166</v>
@@ -22398,7 +22434,7 @@
         <v>166</v>
       </c>
       <c r="CO225" t="s">
-        <v>2076</v>
+        <v>2080</v>
       </c>
       <c r="CP225" t="s">
         <v>166</v>
@@ -22430,7 +22466,7 @@
         <v>166</v>
       </c>
       <c r="CO226" t="s">
-        <v>2077</v>
+        <v>2081</v>
       </c>
       <c r="CP226" t="s">
         <v>166</v>
@@ -22462,7 +22498,7 @@
         <v>166</v>
       </c>
       <c r="CO227" t="s">
-        <v>2078</v>
+        <v>2082</v>
       </c>
       <c r="CP227" t="s">
         <v>166</v>
@@ -22494,7 +22530,7 @@
         <v>166</v>
       </c>
       <c r="CO228" t="s">
-        <v>2079</v>
+        <v>2083</v>
       </c>
       <c r="CP228" t="s">
         <v>166</v>
@@ -22526,7 +22562,7 @@
         <v>166</v>
       </c>
       <c r="CO229" t="s">
-        <v>2080</v>
+        <v>2084</v>
       </c>
       <c r="CP229" t="s">
         <v>166</v>
@@ -22558,7 +22594,7 @@
         <v>166</v>
       </c>
       <c r="CO230" t="s">
-        <v>2081</v>
+        <v>2085</v>
       </c>
       <c r="CP230" t="s">
         <v>166</v>
@@ -22590,7 +22626,7 @@
         <v>166</v>
       </c>
       <c r="CO231" t="s">
-        <v>2082</v>
+        <v>2086</v>
       </c>
       <c r="CP231" t="s">
         <v>166</v>
@@ -22622,7 +22658,7 @@
         <v>166</v>
       </c>
       <c r="CO232" t="s">
-        <v>2083</v>
+        <v>2087</v>
       </c>
       <c r="CP232" t="s">
         <v>166</v>
@@ -22654,7 +22690,7 @@
         <v>166</v>
       </c>
       <c r="CO233" t="s">
-        <v>2084</v>
+        <v>2088</v>
       </c>
       <c r="CP233" t="s">
         <v>166</v>
@@ -22686,7 +22722,7 @@
         <v>166</v>
       </c>
       <c r="CO234" t="s">
-        <v>2085</v>
+        <v>2089</v>
       </c>
       <c r="CP234" t="s">
         <v>166</v>
@@ -22718,7 +22754,7 @@
         <v>166</v>
       </c>
       <c r="CO235" t="s">
-        <v>2086</v>
+        <v>2090</v>
       </c>
       <c r="CP235" t="s">
         <v>166</v>
@@ -22750,7 +22786,7 @@
         <v>166</v>
       </c>
       <c r="CO236" t="s">
-        <v>2087</v>
+        <v>2091</v>
       </c>
       <c r="CP236" t="s">
         <v>166</v>
@@ -22782,7 +22818,7 @@
         <v>166</v>
       </c>
       <c r="CO237" t="s">
-        <v>2088</v>
+        <v>2092</v>
       </c>
       <c r="CP237" t="s">
         <v>166</v>
@@ -22814,7 +22850,7 @@
         <v>166</v>
       </c>
       <c r="CO238" t="s">
-        <v>2089</v>
+        <v>2093</v>
       </c>
       <c r="CP238" t="s">
         <v>166</v>
@@ -22846,7 +22882,7 @@
         <v>166</v>
       </c>
       <c r="CO239" t="s">
-        <v>2090</v>
+        <v>2094</v>
       </c>
       <c r="CP239" t="s">
         <v>166</v>
@@ -22878,7 +22914,7 @@
         <v>166</v>
       </c>
       <c r="CO240" t="s">
-        <v>2091</v>
+        <v>2095</v>
       </c>
       <c r="CP240" t="s">
         <v>166</v>
@@ -22910,7 +22946,7 @@
         <v>166</v>
       </c>
       <c r="CO241" t="s">
-        <v>2092</v>
+        <v>2096</v>
       </c>
       <c r="CP241" t="s">
         <v>166</v>
@@ -22942,7 +22978,7 @@
         <v>166</v>
       </c>
       <c r="CO242" t="s">
-        <v>2093</v>
+        <v>2097</v>
       </c>
       <c r="CP242" t="s">
         <v>166</v>
@@ -22974,7 +23010,7 @@
         <v>166</v>
       </c>
       <c r="CO243" t="s">
-        <v>2094</v>
+        <v>2098</v>
       </c>
       <c r="CP243" t="s">
         <v>166</v>
@@ -23006,7 +23042,7 @@
         <v>166</v>
       </c>
       <c r="CO244" t="s">
-        <v>2095</v>
+        <v>2099</v>
       </c>
       <c r="CP244" t="s">
         <v>166</v>
@@ -23038,7 +23074,7 @@
         <v>166</v>
       </c>
       <c r="CO245" t="s">
-        <v>2096</v>
+        <v>2100</v>
       </c>
       <c r="CP245" t="s">
         <v>166</v>
@@ -23070,7 +23106,7 @@
         <v>166</v>
       </c>
       <c r="CO246" t="s">
-        <v>2097</v>
+        <v>2101</v>
       </c>
       <c r="CP246" t="s">
         <v>166</v>
@@ -23102,7 +23138,7 @@
         <v>166</v>
       </c>
       <c r="CO247" t="s">
-        <v>2098</v>
+        <v>2102</v>
       </c>
       <c r="CP247" t="s">
         <v>166</v>
@@ -23134,7 +23170,7 @@
         <v>166</v>
       </c>
       <c r="CO248" t="s">
-        <v>2099</v>
+        <v>2103</v>
       </c>
       <c r="CP248" t="s">
         <v>166</v>
@@ -23166,7 +23202,7 @@
         <v>166</v>
       </c>
       <c r="CO249" t="s">
-        <v>2100</v>
+        <v>2104</v>
       </c>
       <c r="CP249" t="s">
         <v>166</v>
@@ -23198,7 +23234,7 @@
         <v>166</v>
       </c>
       <c r="CO250" t="s">
-        <v>2101</v>
+        <v>2105</v>
       </c>
       <c r="CP250" t="s">
         <v>166</v>
@@ -23230,7 +23266,7 @@
         <v>166</v>
       </c>
       <c r="CO251" t="s">
-        <v>2102</v>
+        <v>2106</v>
       </c>
       <c r="CP251" t="s">
         <v>166</v>
@@ -40575,6 +40611,84 @@
         <v>1333</v>
       </c>
       <c r="BP918" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="919" spans="45:68">
+      <c r="AS919" t="s">
+        <v>1334</v>
+      </c>
+      <c r="AT919" t="s">
+        <v>166</v>
+      </c>
+      <c r="BG919" t="s">
+        <v>1334</v>
+      </c>
+      <c r="BH919" t="s">
+        <v>166</v>
+      </c>
+      <c r="BM919" t="s">
+        <v>1334</v>
+      </c>
+      <c r="BN919" t="s">
+        <v>166</v>
+      </c>
+      <c r="BO919" t="s">
+        <v>1334</v>
+      </c>
+      <c r="BP919" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="920" spans="45:68">
+      <c r="AS920" t="s">
+        <v>1335</v>
+      </c>
+      <c r="AT920" t="s">
+        <v>166</v>
+      </c>
+      <c r="BG920" t="s">
+        <v>1335</v>
+      </c>
+      <c r="BH920" t="s">
+        <v>166</v>
+      </c>
+      <c r="BM920" t="s">
+        <v>1335</v>
+      </c>
+      <c r="BN920" t="s">
+        <v>166</v>
+      </c>
+      <c r="BO920" t="s">
+        <v>1335</v>
+      </c>
+      <c r="BP920" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="921" spans="45:68">
+      <c r="AS921" t="s">
+        <v>1336</v>
+      </c>
+      <c r="AT921" t="s">
+        <v>166</v>
+      </c>
+      <c r="BG921" t="s">
+        <v>1336</v>
+      </c>
+      <c r="BH921" t="s">
+        <v>166</v>
+      </c>
+      <c r="BM921" t="s">
+        <v>1336</v>
+      </c>
+      <c r="BN921" t="s">
+        <v>166</v>
+      </c>
+      <c r="BO921" t="s">
+        <v>1336</v>
+      </c>
+      <c r="BP921" t="s">
         <v>166</v>
       </c>
     </row>
@@ -42388,7 +42502,7 @@
       <formula1>'Codelijsten'!$A$4:$A$5</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10:C1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D1000001">
       <formula1>'Codelijsten'!$C$4:$C$21</formula1>
@@ -42406,7 +42520,7 @@
       <formula1>'Codelijsten'!$K$4:$K$20</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD10:AD1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG10:AG1000001">
       <formula1>'Codelijsten'!$M$4:$M$6</formula1>
@@ -42421,13 +42535,13 @@
       <formula1>'Codelijsten'!$S$4:$S$20</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BD10:BD1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE10:BE1000001">
       <formula1>'Codelijsten'!$U$4:$U$18</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM10:BM1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN10:BN1000001">
       <formula1>'Codelijsten'!$W$4:$W$7</formula1>
@@ -42442,10 +42556,10 @@
       <formula1>'Codelijsten'!$AC$4:$AC$6</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="DB10:DB1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="DE10:DE1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="DJ10:DJ1000001">
       <formula1>'Codelijsten'!$AE$4:$AE$60</formula1>
@@ -42999,19 +43113,19 @@
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8:I1000001">
       <formula1>'Codelijsten'!$AG$4:$AG$8</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD8:AD1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG8:AG1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL8:AL1000001">
       <formula1>'Codelijsten'!$AI$4:$AI$60</formula1>
@@ -43801,7 +43915,7 @@
   </mergeCells>
   <dataValidations count="8">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C1000001">
       <formula1>'Codelijsten'!$AK$4:$AK$5</formula1>
@@ -43813,13 +43927,13 @@
       <formula1>'Codelijsten'!$AO$4:$AO$8</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN9:AN1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV9:AV1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY9:AY1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BD9:BD1000001">
       <formula1>'Codelijsten'!$AQ$4:$AQ$60</formula1>
@@ -44844,13 +44958,13 @@
   </mergeCells>
   <dataValidations count="17">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A1000001">
-      <formula1>'Codelijsten'!$AS$4:$AS$918</formula1>
+      <formula1>'Codelijsten'!$AS$4:$AS$921</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D1000001">
-      <formula1>'Codelijsten'!$AU$4:$AU$66</formula1>
+      <formula1>'Codelijsten'!$AU$4:$AU$67</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I1000001">
       <formula1>'Codelijsten'!$AW$4:$AW$6</formula1>
@@ -44868,31 +44982,31 @@
       <formula1>'Codelijsten'!$BE$4:$BE$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC9:AC1000001">
-      <formula1>'Codelijsten'!$BG$4:$BG$918</formula1>
+      <formula1>'Codelijsten'!$BG$4:$BG$921</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF9:AF1000001">
-      <formula1>'Codelijsten'!$BI$4:$BI$66</formula1>
+      <formula1>'Codelijsten'!$BI$4:$BI$67</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM9:AM1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS9:AS1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT9:AT1000001">
       <formula1>'Codelijsten'!$BK$4:$BK$8</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX9:AX1000001">
-      <formula1>'Codelijsten'!$BM$4:$BM$918</formula1>
+      <formula1>'Codelijsten'!$BM$4:$BM$921</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY9:AY1000001">
-      <formula1>'Codelijsten'!$BO$4:$BO$918</formula1>
+      <formula1>'Codelijsten'!$BO$4:$BO$921</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH9:BH1000001">
-      <formula1>'Codelijsten'!$BQ$4:$BQ$66</formula1>
+      <formula1>'Codelijsten'!$BQ$4:$BQ$67</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BI9:BI1000001">
-      <formula1>'Codelijsten'!$BS$4:$BS$66</formula1>
+      <formula1>'Codelijsten'!$BS$4:$BS$67</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -45019,289 +45133,289 @@
   <sheetData>
     <row r="1" spans="1:95" hidden="1">
       <c r="A1" s="3" t="s">
-        <v>1543</v>
+        <v>1547</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1544</v>
+        <v>1548</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1548</v>
+        <v>1552</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1550</v>
+        <v>1554</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1552</v>
+        <v>1556</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1554</v>
+        <v>1558</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1556</v>
+        <v>1560</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1561</v>
+        <v>1565</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1563</v>
+        <v>1567</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1565</v>
+        <v>1569</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1566</v>
+        <v>1570</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1567</v>
+        <v>1571</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1568</v>
+        <v>1572</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>1569</v>
+        <v>1573</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>1570</v>
+        <v>1574</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>1571</v>
+        <v>1575</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>1572</v>
+        <v>1576</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>1573</v>
+        <v>1577</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>1574</v>
+        <v>1578</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>1575</v>
+        <v>1579</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>1576</v>
+        <v>1580</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>1577</v>
+        <v>1581</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>1578</v>
+        <v>1582</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>1579</v>
+        <v>1583</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>1580</v>
+        <v>1584</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>1581</v>
+        <v>1585</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>1582</v>
+        <v>1586</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>1583</v>
+        <v>1587</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>1584</v>
+        <v>1588</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>1585</v>
+        <v>1589</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>1586</v>
+        <v>1590</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>1587</v>
+        <v>1591</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>1589</v>
+        <v>1593</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>1591</v>
+        <v>1595</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>1593</v>
+        <v>1597</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>1596</v>
+        <v>1600</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>1597</v>
+        <v>1601</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>1598</v>
+        <v>1602</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>1600</v>
+        <v>1604</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>1602</v>
+        <v>1606</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>1605</v>
+        <v>1609</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>1606</v>
+        <v>1610</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>1608</v>
+        <v>1612</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>1609</v>
+        <v>1613</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>1610</v>
+        <v>1614</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>1611</v>
+        <v>1615</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>1612</v>
+        <v>1616</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>1613</v>
+        <v>1617</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>1614</v>
+        <v>1618</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>1615</v>
+        <v>1619</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>1616</v>
+        <v>1620</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>1617</v>
+        <v>1621</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>1618</v>
+        <v>1622</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>1619</v>
+        <v>1623</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>1620</v>
+        <v>1624</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>1622</v>
+        <v>1626</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>1623</v>
+        <v>1627</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>1624</v>
+        <v>1628</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>1625</v>
+        <v>1629</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>1626</v>
+        <v>1630</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>1627</v>
+        <v>1631</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>1628</v>
+        <v>1632</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>1629</v>
+        <v>1633</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>1630</v>
+        <v>1634</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>1631</v>
+        <v>1635</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>1633</v>
+        <v>1637</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>1634</v>
+        <v>1638</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>1635</v>
+        <v>1639</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>1636</v>
+        <v>1640</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>1638</v>
+        <v>1642</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>1639</v>
+        <v>1643</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>1640</v>
+        <v>1644</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>1641</v>
+        <v>1645</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>1642</v>
+        <v>1646</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>1643</v>
+        <v>1647</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>1644</v>
+        <v>1648</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>1645</v>
+        <v>1649</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>1646</v>
+        <v>1650</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>1647</v>
+        <v>1651</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>1648</v>
+        <v>1652</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>1649</v>
+        <v>1653</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>1650</v>
+        <v>1654</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>1651</v>
+        <v>1655</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>1652</v>
+        <v>1656</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>1653</v>
+        <v>1657</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>1654</v>
+        <v>1658</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>1655</v>
+        <v>1659</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>1656</v>
+        <v>1660</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>1657</v>
+        <v>1661</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>1658</v>
+        <v>1662</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>1659</v>
+        <v>1663</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>1660</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="2" spans="1:95" hidden="1">
@@ -45309,7 +45423,7 @@
         <v>322</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1588</v>
+        <v>1592</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -45344,7 +45458,7 @@
       <c r="AG2" s="1"/>
       <c r="AH2" s="1"/>
       <c r="AI2" s="1" t="s">
-        <v>1632</v>
+        <v>1636</v>
       </c>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
@@ -45380,7 +45494,7 @@
       <c r="BO2" s="1"/>
       <c r="BP2" s="1"/>
       <c r="BQ2" s="1" t="s">
-        <v>1661</v>
+        <v>1665</v>
       </c>
       <c r="BR2" s="1"/>
       <c r="BS2" s="1"/>
@@ -45455,7 +45569,7 @@
       <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
       <c r="AI3" s="5" t="s">
-        <v>1590</v>
+        <v>1594</v>
       </c>
       <c r="AJ3" s="5" t="s">
         <v>20</v>
@@ -45466,10 +45580,10 @@
         <v>0</v>
       </c>
       <c r="AN3" s="5" t="s">
-        <v>1599</v>
+        <v>1603</v>
       </c>
       <c r="AO3" s="5" t="s">
-        <v>1607</v>
+        <v>1611</v>
       </c>
       <c r="AP3" s="5"/>
       <c r="AQ3" s="5"/>
@@ -45516,7 +45630,7 @@
         <v>88</v>
       </c>
       <c r="BT3" s="1" t="s">
-        <v>1637</v>
+        <v>1641</v>
       </c>
       <c r="BU3" s="1" t="s">
         <v>94</v>
@@ -45550,7 +45664,7 @@
     </row>
     <row r="4" spans="1:95" hidden="1">
       <c r="B4" s="5" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -45560,10 +45674,10 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>1564</v>
+        <v>1568</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>91</v>
@@ -45603,11 +45717,11 @@
         <v>47</v>
       </c>
       <c r="AJ4" s="5" t="s">
-        <v>1595</v>
+        <v>1599</v>
       </c>
       <c r="AK4" s="5"/>
       <c r="AL4" s="5" t="s">
-        <v>1594</v>
+        <v>1598</v>
       </c>
       <c r="AO4" s="5" t="s">
         <v>20</v>
@@ -45694,28 +45808,28 @@
     </row>
     <row r="5" spans="1:95" hidden="1">
       <c r="B5" s="5" t="s">
-        <v>1545</v>
+        <v>1549</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1547</v>
+        <v>1551</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1549</v>
+        <v>1553</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1551</v>
+        <v>1555</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1553</v>
+        <v>1557</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>1555</v>
+        <v>1559</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>1557</v>
+        <v>1561</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>1559</v>
+        <v>1563</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>0</v>
@@ -45761,17 +45875,17 @@
         <v>29</v>
       </c>
       <c r="AJ5" s="5" t="s">
-        <v>1592</v>
+        <v>1596</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>1594</v>
+        <v>1598</v>
       </c>
       <c r="AO5" s="5" t="s">
-        <v>1604</v>
+        <v>1608</v>
       </c>
       <c r="AP5" s="5"/>
       <c r="AQ5" s="5" t="s">
-        <v>1603</v>
+        <v>1607</v>
       </c>
       <c r="AV5" s="5" t="s">
         <v>0</v>
@@ -45885,10 +45999,10 @@
         <v>29</v>
       </c>
       <c r="AO6" s="5" t="s">
-        <v>1601</v>
+        <v>1605</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>1603</v>
+        <v>1607</v>
       </c>
       <c r="BA6" s="5" t="s">
         <v>0</v>
@@ -45968,289 +46082,289 @@
     </row>
     <row r="8" spans="1:95">
       <c r="A8" s="3" t="s">
-        <v>1543</v>
+        <v>1547</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1544</v>
+        <v>1548</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1548</v>
+        <v>1552</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1550</v>
+        <v>1554</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>1552</v>
+        <v>1556</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>1554</v>
+        <v>1558</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>1556</v>
+        <v>1560</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>1561</v>
+        <v>1565</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>1563</v>
+        <v>1567</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>1565</v>
+        <v>1569</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>1566</v>
+        <v>1570</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>1567</v>
+        <v>1571</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>1568</v>
+        <v>1572</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>1569</v>
+        <v>1573</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>1570</v>
+        <v>1574</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>1571</v>
+        <v>1575</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>1572</v>
+        <v>1576</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>1573</v>
+        <v>1577</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>1574</v>
+        <v>1578</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>1575</v>
+        <v>1579</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>1576</v>
+        <v>1580</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>1577</v>
+        <v>1581</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>1578</v>
+        <v>1582</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>1579</v>
+        <v>1583</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>1580</v>
+        <v>1584</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>1581</v>
+        <v>1585</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>1582</v>
+        <v>1586</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>1583</v>
+        <v>1587</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>1584</v>
+        <v>1588</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>1585</v>
+        <v>1589</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>1586</v>
+        <v>1590</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>1587</v>
+        <v>1591</v>
       </c>
       <c r="AI8" s="1" t="s">
-        <v>1589</v>
+        <v>1593</v>
       </c>
       <c r="AJ8" s="1" t="s">
-        <v>1591</v>
+        <v>1595</v>
       </c>
       <c r="AK8" s="1" t="s">
-        <v>1593</v>
+        <v>1597</v>
       </c>
       <c r="AL8" s="1" t="s">
-        <v>1596</v>
+        <v>1600</v>
       </c>
       <c r="AM8" s="1" t="s">
-        <v>1597</v>
+        <v>1601</v>
       </c>
       <c r="AN8" s="1" t="s">
-        <v>1598</v>
+        <v>1602</v>
       </c>
       <c r="AO8" s="1" t="s">
-        <v>1600</v>
+        <v>1604</v>
       </c>
       <c r="AP8" s="1" t="s">
-        <v>1602</v>
+        <v>1606</v>
       </c>
       <c r="AQ8" s="1" t="s">
-        <v>1605</v>
+        <v>1609</v>
       </c>
       <c r="AR8" s="1" t="s">
-        <v>1606</v>
+        <v>1610</v>
       </c>
       <c r="AS8" s="1" t="s">
-        <v>1608</v>
+        <v>1612</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>1609</v>
+        <v>1613</v>
       </c>
       <c r="AU8" s="1" t="s">
-        <v>1610</v>
+        <v>1614</v>
       </c>
       <c r="AV8" s="1" t="s">
-        <v>1611</v>
+        <v>1615</v>
       </c>
       <c r="AW8" s="1" t="s">
-        <v>1612</v>
+        <v>1616</v>
       </c>
       <c r="AX8" s="1" t="s">
-        <v>1613</v>
+        <v>1617</v>
       </c>
       <c r="AY8" s="1" t="s">
-        <v>1614</v>
+        <v>1618</v>
       </c>
       <c r="AZ8" s="1" t="s">
-        <v>1615</v>
+        <v>1619</v>
       </c>
       <c r="BA8" s="1" t="s">
-        <v>1616</v>
+        <v>1620</v>
       </c>
       <c r="BB8" s="1" t="s">
-        <v>1617</v>
+        <v>1621</v>
       </c>
       <c r="BC8" s="1" t="s">
-        <v>1618</v>
+        <v>1622</v>
       </c>
       <c r="BD8" s="1" t="s">
-        <v>1619</v>
+        <v>1623</v>
       </c>
       <c r="BE8" s="1" t="s">
-        <v>1620</v>
+        <v>1624</v>
       </c>
       <c r="BF8" s="1" t="s">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="BG8" s="1" t="s">
-        <v>1622</v>
+        <v>1626</v>
       </c>
       <c r="BH8" s="1" t="s">
-        <v>1623</v>
+        <v>1627</v>
       </c>
       <c r="BI8" s="1" t="s">
-        <v>1624</v>
+        <v>1628</v>
       </c>
       <c r="BJ8" s="1" t="s">
-        <v>1625</v>
+        <v>1629</v>
       </c>
       <c r="BK8" s="1" t="s">
-        <v>1626</v>
+        <v>1630</v>
       </c>
       <c r="BL8" s="1" t="s">
-        <v>1627</v>
+        <v>1631</v>
       </c>
       <c r="BM8" s="1" t="s">
-        <v>1628</v>
+        <v>1632</v>
       </c>
       <c r="BN8" s="1" t="s">
-        <v>1629</v>
+        <v>1633</v>
       </c>
       <c r="BO8" s="1" t="s">
-        <v>1630</v>
+        <v>1634</v>
       </c>
       <c r="BP8" s="1" t="s">
-        <v>1631</v>
+        <v>1635</v>
       </c>
       <c r="BQ8" s="1" t="s">
-        <v>1633</v>
+        <v>1637</v>
       </c>
       <c r="BR8" s="1" t="s">
-        <v>1634</v>
+        <v>1638</v>
       </c>
       <c r="BS8" s="1" t="s">
-        <v>1635</v>
+        <v>1639</v>
       </c>
       <c r="BT8" s="1" t="s">
-        <v>1636</v>
+        <v>1640</v>
       </c>
       <c r="BU8" s="1" t="s">
-        <v>1638</v>
+        <v>1642</v>
       </c>
       <c r="BV8" s="1" t="s">
-        <v>1639</v>
+        <v>1643</v>
       </c>
       <c r="BW8" s="1" t="s">
-        <v>1640</v>
+        <v>1644</v>
       </c>
       <c r="BX8" s="1" t="s">
-        <v>1641</v>
+        <v>1645</v>
       </c>
       <c r="BY8" s="1" t="s">
-        <v>1642</v>
+        <v>1646</v>
       </c>
       <c r="BZ8" s="1" t="s">
-        <v>1643</v>
+        <v>1647</v>
       </c>
       <c r="CA8" s="1" t="s">
-        <v>1644</v>
+        <v>1648</v>
       </c>
       <c r="CB8" s="1" t="s">
-        <v>1645</v>
+        <v>1649</v>
       </c>
       <c r="CC8" s="1" t="s">
-        <v>1646</v>
+        <v>1650</v>
       </c>
       <c r="CD8" s="1" t="s">
-        <v>1647</v>
+        <v>1651</v>
       </c>
       <c r="CE8" s="1" t="s">
-        <v>1648</v>
+        <v>1652</v>
       </c>
       <c r="CF8" s="1" t="s">
-        <v>1649</v>
+        <v>1653</v>
       </c>
       <c r="CG8" s="1" t="s">
-        <v>1650</v>
+        <v>1654</v>
       </c>
       <c r="CH8" s="1" t="s">
-        <v>1651</v>
+        <v>1655</v>
       </c>
       <c r="CI8" s="1" t="s">
-        <v>1652</v>
+        <v>1656</v>
       </c>
       <c r="CJ8" s="1" t="s">
-        <v>1653</v>
+        <v>1657</v>
       </c>
       <c r="CK8" s="1" t="s">
-        <v>1654</v>
+        <v>1658</v>
       </c>
       <c r="CL8" s="1" t="s">
-        <v>1655</v>
+        <v>1659</v>
       </c>
       <c r="CM8" s="1" t="s">
-        <v>1656</v>
+        <v>1660</v>
       </c>
       <c r="CN8" s="1" t="s">
-        <v>1657</v>
+        <v>1661</v>
       </c>
       <c r="CO8" s="1" t="s">
-        <v>1658</v>
+        <v>1662</v>
       </c>
       <c r="CP8" s="1" t="s">
-        <v>1659</v>
+        <v>1663</v>
       </c>
       <c r="CQ8" s="1" t="s">
-        <v>1660</v>
+        <v>1664</v>
       </c>
     </row>
   </sheetData>
@@ -46319,7 +46433,7 @@
       <formula1>'Codelijsten'!$CI$4:$CI$24</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH9:AH1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI9:AI1000001">
       <formula1>'Codelijsten'!$CK$4:$CK$5</formula1>
@@ -46334,7 +46448,7 @@
       <formula1>'Codelijsten'!$CQ$4:$CQ$8</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BP9:BP1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BQ9:BQ1000001">
       <formula1>'Codelijsten'!$CS$4:$CS$15</formula1>
@@ -46343,7 +46457,7 @@
       <formula1>'Codelijsten'!$CU$4:$CU$7</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CQ9:CQ1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -46422,150 +46536,150 @@
   <sheetData>
     <row r="1" spans="1:47" hidden="1">
       <c r="A1" s="3" t="s">
-        <v>2124</v>
+        <v>2128</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>2125</v>
+        <v>2129</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2126</v>
+        <v>2130</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2127</v>
+        <v>2131</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2128</v>
+        <v>2132</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2129</v>
+        <v>2133</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2130</v>
+        <v>2134</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>2131</v>
+        <v>2135</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>2132</v>
+        <v>2136</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>2133</v>
+        <v>2137</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>2134</v>
+        <v>2138</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>2135</v>
+        <v>2139</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>2136</v>
+        <v>2140</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>2137</v>
+        <v>2141</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>2138</v>
+        <v>2142</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>2139</v>
+        <v>2143</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>2140</v>
+        <v>2144</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>2141</v>
+        <v>2145</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>2142</v>
+        <v>2146</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>2143</v>
+        <v>2147</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>2144</v>
+        <v>2148</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>2145</v>
+        <v>2149</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>2146</v>
+        <v>2150</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>2147</v>
+        <v>2151</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>2148</v>
+        <v>2152</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>1543</v>
+        <v>1547</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>2150</v>
+        <v>2154</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>2151</v>
+        <v>2155</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>2152</v>
+        <v>2156</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>2153</v>
+        <v>2157</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>2154</v>
+        <v>2158</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>2155</v>
+        <v>2159</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>2156</v>
+        <v>2160</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>2157</v>
+        <v>2161</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>2159</v>
+        <v>2163</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>2161</v>
+        <v>2165</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>2163</v>
+        <v>2167</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>2165</v>
+        <v>2169</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>2167</v>
+        <v>2171</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>2169</v>
+        <v>2173</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>2171</v>
+        <v>2175</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>2172</v>
+        <v>2176</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>2173</v>
+        <v>2177</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>2174</v>
+        <v>2178</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>2175</v>
+        <v>2179</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>2176</v>
+        <v>2180</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>2177</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="2" spans="1:47" hidden="1">
       <c r="A2" s="5" t="s">
-        <v>2149</v>
+        <v>2153</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -46595,7 +46709,7 @@
         <v>322</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>2178</v>
+        <v>2182</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -46675,25 +46789,25 @@
       </c>
       <c r="AG3" s="1"/>
       <c r="AH3" s="1" t="s">
-        <v>2158</v>
+        <v>2162</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>2160</v>
+        <v>2164</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>2162</v>
+        <v>2166</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>2164</v>
+        <v>2168</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>2166</v>
+        <v>2170</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>2168</v>
+        <v>2172</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>2170</v>
+        <v>2174</v>
       </c>
       <c r="AO3" s="1" t="s">
         <v>145</v>
@@ -46867,145 +46981,145 @@
     </row>
     <row r="8" spans="1:47">
       <c r="A8" s="3" t="s">
-        <v>2124</v>
+        <v>2128</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>2125</v>
+        <v>2129</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>2126</v>
+        <v>2130</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>2127</v>
+        <v>2131</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>2128</v>
+        <v>2132</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>2129</v>
+        <v>2133</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>2130</v>
+        <v>2134</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>2131</v>
+        <v>2135</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>2132</v>
+        <v>2136</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>2133</v>
+        <v>2137</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>2134</v>
+        <v>2138</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>2135</v>
+        <v>2139</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>2136</v>
+        <v>2140</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>2137</v>
+        <v>2141</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>2138</v>
+        <v>2142</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>2139</v>
+        <v>2143</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>2140</v>
+        <v>2144</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>2141</v>
+        <v>2145</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>2142</v>
+        <v>2146</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>2143</v>
+        <v>2147</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>2144</v>
+        <v>2148</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>2145</v>
+        <v>2149</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>2146</v>
+        <v>2150</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>2147</v>
+        <v>2151</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>2148</v>
+        <v>2152</v>
       </c>
       <c r="Z8" s="3" t="s">
-        <v>1543</v>
+        <v>1547</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>2150</v>
+        <v>2154</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>2151</v>
+        <v>2155</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>2152</v>
+        <v>2156</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>2153</v>
+        <v>2157</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>2154</v>
+        <v>2158</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>2155</v>
+        <v>2159</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>2156</v>
+        <v>2160</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>2157</v>
+        <v>2161</v>
       </c>
       <c r="AI8" s="1" t="s">
-        <v>2159</v>
+        <v>2163</v>
       </c>
       <c r="AJ8" s="1" t="s">
-        <v>2161</v>
+        <v>2165</v>
       </c>
       <c r="AK8" s="1" t="s">
-        <v>2163</v>
+        <v>2167</v>
       </c>
       <c r="AL8" s="1" t="s">
-        <v>2165</v>
+        <v>2169</v>
       </c>
       <c r="AM8" s="1" t="s">
-        <v>2167</v>
+        <v>2171</v>
       </c>
       <c r="AN8" s="1" t="s">
-        <v>2169</v>
+        <v>2173</v>
       </c>
       <c r="AO8" s="1" t="s">
-        <v>2171</v>
+        <v>2175</v>
       </c>
       <c r="AP8" s="1" t="s">
-        <v>2172</v>
+        <v>2176</v>
       </c>
       <c r="AQ8" s="1" t="s">
-        <v>2173</v>
+        <v>2177</v>
       </c>
       <c r="AR8" s="1" t="s">
-        <v>2174</v>
+        <v>2178</v>
       </c>
       <c r="AS8" s="1" t="s">
-        <v>2175</v>
+        <v>2179</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>2176</v>
+        <v>2180</v>
       </c>
       <c r="AU8" s="1" t="s">
-        <v>2177</v>
+        <v>2181</v>
       </c>
     </row>
   </sheetData>
@@ -47034,7 +47148,7 @@
       <formula1>'Codelijsten'!$CY$4:$CY$6</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y9:Y1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA9:AA1000001">
       <formula1>'Codelijsten'!$DA$4:$DA$5</formula1>
@@ -47049,7 +47163,7 @@
       <formula1>'Codelijsten'!$DG$4:$DG$9</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU9:AU1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -47134,58 +47248,58 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>2192</v>
+        <v>2196</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>2193</v>
+        <v>2197</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2194</v>
+        <v>2198</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2195</v>
+        <v>2199</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2196</v>
+        <v>2200</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2197</v>
+        <v>2201</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>2198</v>
+        <v>2202</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>2199</v>
+        <v>2203</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>2200</v>
+        <v>2204</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>2202</v>
+        <v>2206</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>2203</v>
+        <v>2207</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>2204</v>
+        <v>2208</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>2205</v>
+        <v>2209</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>2206</v>
+        <v>2210</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>2207</v>
+        <v>2211</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>2208</v>
+        <v>2212</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>2209</v>
+        <v>2213</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>2210</v>
+        <v>2214</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>90</v>
@@ -47194,58 +47308,58 @@
         <v>92</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>2212</v>
+        <v>2216</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>2213</v>
+        <v>2217</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>2214</v>
+        <v>2218</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>2215</v>
+        <v>2219</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>2216</v>
+        <v>2220</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>2217</v>
+        <v>2221</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>2218</v>
+        <v>2222</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>2219</v>
+        <v>2223</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>2220</v>
+        <v>2224</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>2221</v>
+        <v>2225</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>2222</v>
+        <v>2226</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>2223</v>
+        <v>2227</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>2224</v>
+        <v>2228</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>2225</v>
+        <v>2229</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>101</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>2227</v>
+        <v>2231</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>2229</v>
+        <v>2233</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>2231</v>
+        <v>2235</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>146</v>
@@ -47301,7 +47415,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>2201</v>
+        <v>2205</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -47312,7 +47426,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5" t="s">
-        <v>2211</v>
+        <v>2215</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
@@ -47327,7 +47441,7 @@
       </c>
       <c r="U2" s="1"/>
       <c r="V2" s="1" t="s">
-        <v>2212</v>
+        <v>2216</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>118</v>
@@ -47341,20 +47455,20 @@
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1" t="s">
-        <v>2222</v>
+        <v>2226</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>2223</v>
+        <v>2227</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>2226</v>
+        <v>2230</v>
       </c>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1" t="s">
         <v>101</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>2233</v>
+        <v>2237</v>
       </c>
       <c r="AL2" s="1"/>
       <c r="AM2" s="1"/>
@@ -47434,13 +47548,13 @@
         <v>315</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>2228</v>
+        <v>2232</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>2230</v>
+        <v>2234</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>2232</v>
+        <v>2236</v>
       </c>
       <c r="AO3" s="5" t="s">
         <v>138</v>
@@ -47608,58 +47722,58 @@
         <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>2205</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>2197</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>2198</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>2199</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>2200</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>2201</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>2193</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>2194</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>2195</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>2196</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>2197</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>2198</v>
+        <v>2202</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>2199</v>
+        <v>2203</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>2200</v>
+        <v>2204</v>
       </c>
       <c r="K6" s="4" t="s">
+        <v>2215</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>2207</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>2208</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>2209</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>2210</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>2211</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>2203</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>2204</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>2205</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>2206</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>2207</v>
-      </c>
       <c r="Q6" s="1" t="s">
-        <v>2208</v>
+        <v>2212</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>2209</v>
+        <v>2213</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>2210</v>
+        <v>2214</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>90</v>
@@ -47668,58 +47782,58 @@
         <v>92</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>2212</v>
+        <v>2216</v>
       </c>
       <c r="W6" s="1" t="s">
         <v>118</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>2214</v>
+        <v>2218</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>2215</v>
+        <v>2219</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>2216</v>
+        <v>2220</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>2217</v>
+        <v>2221</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>2218</v>
+        <v>2222</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>2219</v>
+        <v>2223</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>2220</v>
+        <v>2224</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>2221</v>
+        <v>2225</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>2222</v>
+        <v>2226</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>2223</v>
+        <v>2227</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>2224</v>
+        <v>2228</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>2225</v>
+        <v>2229</v>
       </c>
       <c r="AJ6" s="1" t="s">
         <v>101</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>2227</v>
+        <v>2231</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>2229</v>
+        <v>2233</v>
       </c>
       <c r="AM6" s="1" t="s">
-        <v>2231</v>
+        <v>2235</v>
       </c>
       <c r="AN6" s="1" t="s">
         <v>146</v>
@@ -47795,10 +47909,10 @@
   </mergeCells>
   <dataValidations count="8">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF7:AF1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG7:AG1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ7:AJ1000001">
       <formula1>'Codelijsten'!$DI$4:$DI$8</formula1>
@@ -47810,10 +47924,10 @@
       <formula1>'Codelijsten'!$DM$4:$DM$27</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU7:AU1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW7:AW1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB7:BB1000001">
       <formula1>'Codelijsten'!$DO$4:$DO$60</formula1>

--- a/data/bodem_template_full.xlsx
+++ b/data/bodem_template_full.xlsx
@@ -47722,7 +47722,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>2205</v>
+        <v>2196</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>2197</v>
@@ -47749,7 +47749,7 @@
         <v>2204</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>2215</v>
+        <v>2206</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>2207</v>
@@ -47785,7 +47785,7 @@
         <v>2216</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>118</v>
+        <v>2217</v>
       </c>
       <c r="X6" s="1" t="s">
         <v>2218</v>

--- a/data/bodem_template_full.xlsx
+++ b/data/bodem_template_full.xlsx
@@ -6852,10 +6852,10 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-07-19 16:18:46.805699</t>
-  </si>
-  <si>
-    <t>Version</t>
+    <t>2024-07-23 17:11:37.581291</t>
+  </si>
+  <si>
+    <t>version</t>
   </si>
   <si>
     <t>1.0.0</t>

--- a/data/bodem_template_full.xlsx
+++ b/data/bodem_template_full.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11975" uniqueCount="2279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11977" uniqueCount="2281">
   <si>
     <t>metadata-type</t>
   </si>
@@ -6852,13 +6852,19 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-07-23 17:11:37.581291</t>
+    <t>2024-07-23 17:34:46.028509</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
     <t>1.0.0</t>
+  </si>
+  <si>
+    <t>generated_by</t>
+  </si>
+  <si>
+    <t>Ruben Vijverman</t>
   </si>
 </sst>
 </file>
@@ -47964,7 +47970,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -47986,6 +47992,14 @@
         <v>2278</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2279</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2280</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/bodem_template_full.xlsx
+++ b/data/bodem_template_full.xlsx
@@ -6852,7 +6852,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-07-23 17:34:46.028509</t>
+    <t>2024-07-24 08:44:24.472101</t>
   </si>
   <si>
     <t>version</t>

--- a/data/bodem_template_full.xlsx
+++ b/data/bodem_template_full.xlsx
@@ -6852,7 +6852,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-07-24 08:44:24.472101</t>
+    <t>2024-07-24 09:00:01.162511</t>
   </si>
   <si>
     <t>version</t>

--- a/data/bodem_template_full.xlsx
+++ b/data/bodem_template_full.xlsx
@@ -6852,7 +6852,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-07-24 09:00:01.162511</t>
+    <t>2024-07-24 13:26:30.259615</t>
   </si>
   <si>
     <t>version</t>

--- a/data/bodem_template_full.xlsx
+++ b/data/bodem_template_full.xlsx
@@ -6852,7 +6852,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-07-24 13:26:30.259615</t>
+    <t>2024-08-01 09:38:05.827719</t>
   </si>
   <si>
     <t>version</t>

--- a/data/bodem_template_full.xlsx
+++ b/data/bodem_template_full.xlsx
@@ -6852,7 +6852,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-08-01 09:38:05.827719</t>
+    <t>2024-08-02 15:51:35.606086</t>
   </si>
   <si>
     <t>version</t>

--- a/data/bodem_template_full.xlsx
+++ b/data/bodem_template_full.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11977" uniqueCount="2281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11975" uniqueCount="2279">
   <si>
     <t>metadata-type</t>
   </si>
@@ -6852,19 +6852,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-08-02 15:51:35.606086</t>
+    <t>2024-08-02 16:50:20.554598</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
-    <t>generated_by</t>
-  </si>
-  <si>
-    <t>Ruben Vijverman</t>
+    <t>2.0.0</t>
   </si>
 </sst>
 </file>
@@ -47970,7 +47964,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -47992,14 +47986,6 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>2279</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2280</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/bodem_template_full.xlsx
+++ b/data/bodem_template_full.xlsx
@@ -6852,7 +6852,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-08-02 16:50:20.554598</t>
+    <t>2024-08-05 10:13:25.767342</t>
   </si>
   <si>
     <t>version</t>

--- a/data/bodem_template_full.xlsx
+++ b/data/bodem_template_full.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11975" uniqueCount="2279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11979" uniqueCount="2283">
   <si>
     <t>metadata-type</t>
   </si>
@@ -6852,13 +6852,25 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-08-05 10:13:25.767342</t>
+    <t>2024-08-07 13:31:39.322165</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
     <t>2.0.0</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>xsd_schema.json</t>
   </si>
 </sst>
 </file>
@@ -47964,7 +47976,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -47986,6 +47998,22 @@
         <v>2278</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2279</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>2281</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2282</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/bodem_template_full.xlsx
+++ b/data/bodem_template_full.xlsx
@@ -6852,7 +6852,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-08-07 13:31:39.322165</t>
+    <t>2024-08-08 11:46:48.150631</t>
   </si>
   <si>
     <t>version</t>

--- a/data/bodem_template_full.xlsx
+++ b/data/bodem_template_full.xlsx
@@ -6852,13 +6852,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-08-08 11:46:48.150631</t>
+    <t>2024-08-12 14:45:31.336778</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>mode</t>
@@ -6870,7 +6870,7 @@
     <t>source</t>
   </si>
   <si>
-    <t>xsd_schema.json</t>
+    <t>productie</t>
   </si>
 </sst>
 </file>

--- a/data/bodem_template_full.xlsx
+++ b/data/bodem_template_full.xlsx
@@ -6852,7 +6852,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-08-12 14:45:31.336778</t>
+    <t>2024-09-10 13:00:48.537350</t>
   </si>
   <si>
     <t>version</t>

--- a/data/bodem_template_full.xlsx
+++ b/data/bodem_template_full.xlsx
@@ -6852,13 +6852,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-09-10 13:00:48.537350</t>
+    <t>2024-09-10 13:37:34.001842</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>2.0.2</t>
   </si>
   <si>
     <t>mode</t>

--- a/data/bodem_template_full.xlsx
+++ b/data/bodem_template_full.xlsx
@@ -6852,7 +6852,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-09-10 13:37:34.001842</t>
+    <t>2024-11-07 19:29:07.939510</t>
   </si>
   <si>
     <t>version</t>

--- a/data/bodem_template_full.xlsx
+++ b/data/bodem_template_full.xlsx
@@ -7299,7 +7299,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-11-08 01:22:18.124552</t>
+    <t>2024-11-08 02:13:54.861433</t>
   </si>
   <si>
     <t>version</t>

--- a/data/bodem_template_full.xlsx
+++ b/data/bodem_template_full.xlsx
@@ -7299,7 +7299,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-11-08 02:13:54.861433</t>
+    <t>2024-11-08 08:59:54.735959</t>
   </si>
   <si>
     <t>version</t>
@@ -7311,7 +7311,7 @@
     <t>mode</t>
   </si>
   <si>
-    <t>local</t>
+    <t>online</t>
   </si>
   <si>
     <t>source</t>

--- a/data/bodem_template_full.xlsx
+++ b/data/bodem_template_full.xlsx
@@ -7299,19 +7299,19 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-11-08 08:59:54.735959</t>
+    <t>2024-11-12 08:42:19.781212</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.3</t>
+    <t>2.0.4</t>
   </si>
   <si>
     <t>mode</t>
   </si>
   <si>
-    <t>online</t>
+    <t>local</t>
   </si>
   <si>
     <t>source</t>

--- a/data/bodem_template_full.xlsx
+++ b/data/bodem_template_full.xlsx
@@ -7299,13 +7299,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-11-12 08:42:19.781212</t>
+    <t>2024-12-02 16:44:12.791713</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.4</t>
+    <t>2.0.5</t>
   </si>
   <si>
     <t>mode</t>

--- a/data/bodem_template_full.xlsx
+++ b/data/bodem_template_full.xlsx
@@ -7299,13 +7299,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-12-02 16:44:12.791713</t>
+    <t>2024-12-10 17:55:19.295074</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.5</t>
+    <t>2.0.6</t>
   </si>
   <si>
     <t>mode</t>

--- a/data/bodem_template_full.xlsx
+++ b/data/bodem_template_full.xlsx
@@ -7299,13 +7299,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-12-10 17:55:19.295074</t>
+    <t>2024-12-20 12:16:41.371705</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.6</t>
+    <t>2.0.7</t>
   </si>
   <si>
     <t>mode</t>

--- a/data/bodem_template_full.xlsx
+++ b/data/bodem_template_full.xlsx
@@ -7299,7 +7299,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-12-20 12:16:41.371705</t>
+    <t>2024-12-20 14:58:11.006245</t>
   </si>
   <si>
     <t>version</t>

--- a/data/bodem_template_full.xlsx
+++ b/data/bodem_template_full.xlsx
@@ -7299,13 +7299,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-12-20 14:58:11.006245</t>
+    <t>2024-12-23 11:42:04.718249</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.7</t>
+    <t>2.0.8</t>
   </si>
   <si>
     <t>mode</t>

--- a/data/bodem_template_full.xlsx
+++ b/data/bodem_template_full.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9385" uniqueCount="2445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9387" uniqueCount="2447">
   <si>
     <t>metadata-type</t>
   </si>
@@ -7332,7 +7332,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-02-14 13:20:02.812552</t>
+    <t>2025-02-14 14:05:32.913038</t>
   </si>
   <si>
     <t>version</t>
@@ -7341,10 +7341,16 @@
     <t>2.0.9</t>
   </si>
   <si>
-    <t>xsd-version</t>
+    <t>xdov-version</t>
   </si>
   <si>
     <t>9.1.0</t>
+  </si>
+  <si>
+    <t>schema-version</t>
+  </si>
+  <si>
+    <t>5.4.0</t>
   </si>
   <si>
     <t>mode</t>
@@ -40874,7 +40880,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -40920,6 +40926,14 @@
         <v>2444</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2446</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/bodem_template_full.xlsx
+++ b/data/bodem_template_full.xlsx
@@ -7332,13 +7332,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-02-14 14:05:32.913038</t>
+    <t>2025-02-24 16:59:54.752648</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.9</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>xdov-version</t>

--- a/data/bodem_template_full.xlsx
+++ b/data/bodem_template_full.xlsx
@@ -7332,13 +7332,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-02-24 16:59:54.752648</t>
+    <t>2025-02-28 11:24:48.541647</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.1.1</t>
   </si>
   <si>
     <t>xdov-version</t>
